--- a/data/raw/AIMs_LO.xlsx
+++ b/data/raw/AIMs_LO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\THI\PAPER\project\aim2lang-benchmark\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F600C-7D68-40D9-BA91-B875A330D5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FC1B34-001A-45CE-A802-F8878BAADCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3861" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3510" uniqueCount="1434">
   <si>
     <t>aimid</t>
   </si>
@@ -3995,1059 +3995,6 @@
   </si>
   <si>
     <t>["AIM.EN.C2.053b"]</t>
-  </si>
-  <si>
-    <t>related_v2</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.001a', 'AIM.EN.A1.002b', 'AIM.EN.A1.003c', 'AIM.EN.A1.004a', 'AIM.EN.A1.005b', 'AIM.EN.A1.006c', 'AIM.EN.A1.007a', 'AIM.EN.A1.008b', 'AIM.EN.A1.009c', 'AIM.EN.A1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.001a', 'AIM.EN.A2.002b', 'AIM.EN.A1.003c', 'AIM.EN.A1.004a', 'AIM.EN.A1.005b', 'AIM.EN.A1.006c', 'AIM.EN.A1.007a', 'AIM.EN.A1.008b', 'AIM.EN.A1.009c', 'AIM.EN.A1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.002b', 'AIM.EN.A2.003c', 'AIM.EN.A1.001a', 'AIM.EN.A1.004a', 'AIM.EN.A1.005b', 'AIM.EN.A1.006c', 'AIM.EN.A1.007a', 'AIM.EN.A1.008b', 'AIM.EN.A1.009c', 'AIM.EN.A1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.003c', 'AIM.EN.A2.004a', 'AIM.EN.A1.001a', 'AIM.EN.A1.002b', 'AIM.EN.A1.005b', 'AIM.EN.A1.006c', 'AIM.EN.A1.007a', 'AIM.EN.A1.008b', 'AIM.EN.A1.009c', 'AIM.EN.A1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.004a', 'AIM.EN.A2.005b', 'AIM.EN.A1.001a', 'AIM.EN.A1.002b', 'AIM.EN.A1.003c', 'AIM.EN.A1.006c', 'AIM.EN.A1.007a', 'AIM.EN.A1.008b', 'AIM.EN.A1.009c', 'AIM.EN.A1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.005b', 'AIM.EN.A2.006c', 'AIM.EN.A1.001a', 'AIM.EN.A1.002b', 'AIM.EN.A1.003c', 'AIM.EN.A1.004a', 'AIM.EN.A1.007a', 'AIM.EN.A1.008b', 'AIM.EN.A1.009c', 'AIM.EN.A1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.006c', 'AIM.EN.A2.007a', 'AIM.EN.A1.001a', 'AIM.EN.A1.002b', 'AIM.EN.A1.003c', 'AIM.EN.A1.004a', 'AIM.EN.A1.005b', 'AIM.EN.A1.008b', 'AIM.EN.A1.009c', 'AIM.EN.A1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.007a', 'AIM.EN.A2.008b', 'AIM.EN.A1.001a', 'AIM.EN.A1.002b', 'AIM.EN.A1.003c', 'AIM.EN.A1.004a', 'AIM.EN.A1.005b', 'AIM.EN.A1.006c', 'AIM.EN.A1.009c', 'AIM.EN.A1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.008b', 'AIM.EN.A2.009c', 'AIM.EN.A1.001a', 'AIM.EN.A1.002b', 'AIM.EN.A1.003c', 'AIM.EN.A1.004a', 'AIM.EN.A1.005b', 'AIM.EN.A1.006c', 'AIM.EN.A1.007a', 'AIM.EN.A1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.009c', 'AIM.EN.A2.010a', 'AIM.EN.A1.001a', 'AIM.EN.A1.002b', 'AIM.EN.A1.003c', 'AIM.EN.A1.004a', 'AIM.EN.A1.005b', 'AIM.EN.A1.006c', 'AIM.EN.A1.007a', 'AIM.EN.A1.008b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.010a', 'AIM.EN.A2.011b', 'AIM.EN.A1.012c', 'AIM.EN.A1.013a', 'AIM.EN.A1.014b', 'AIM.EN.A1.015c', 'AIM.EN.A1.016a', 'AIM.EN.A1.017b', 'AIM.EN.A1.018c', 'AIM.EN.A1.019a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.011b', 'AIM.EN.A2.012c', 'AIM.EN.A1.013a', 'AIM.EN.A1.014b', 'AIM.EN.A1.015c', 'AIM.EN.A1.016a', 'AIM.EN.A1.017b', 'AIM.EN.A1.018c', 'AIM.EN.A1.019a', 'AIM.EN.A1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.012c', 'AIM.EN.A2.013a', 'AIM.EN.A1.011b', 'AIM.EN.A1.014b', 'AIM.EN.A1.015c', 'AIM.EN.A1.016a', 'AIM.EN.A1.017b', 'AIM.EN.A1.018c', 'AIM.EN.A1.019a', 'AIM.EN.A1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.013a', 'AIM.EN.A2.014b', 'AIM.EN.A1.011b', 'AIM.EN.A1.012c', 'AIM.EN.A1.015c', 'AIM.EN.A1.016a', 'AIM.EN.A1.017b', 'AIM.EN.A1.018c', 'AIM.EN.A1.019a', 'AIM.EN.A1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.014b', 'AIM.EN.A2.015c', 'AIM.EN.A1.011b', 'AIM.EN.A1.012c', 'AIM.EN.A1.013a', 'AIM.EN.A1.016a', 'AIM.EN.A1.017b', 'AIM.EN.A1.018c', 'AIM.EN.A1.019a', 'AIM.EN.A1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.015c', 'AIM.EN.A2.016a', 'AIM.EN.A1.011b', 'AIM.EN.A1.012c', 'AIM.EN.A1.013a', 'AIM.EN.A1.014b', 'AIM.EN.A1.017b', 'AIM.EN.A1.018c', 'AIM.EN.A1.019a', 'AIM.EN.A1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.016a', 'AIM.EN.A2.017b', 'AIM.EN.A1.011b', 'AIM.EN.A1.012c', 'AIM.EN.A1.013a', 'AIM.EN.A1.014b', 'AIM.EN.A1.015c', 'AIM.EN.A1.018c', 'AIM.EN.A1.019a', 'AIM.EN.A1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.017b', 'AIM.EN.A2.018c', 'AIM.EN.A1.011b', 'AIM.EN.A1.012c', 'AIM.EN.A1.013a', 'AIM.EN.A1.014b', 'AIM.EN.A1.015c', 'AIM.EN.A1.016a', 'AIM.EN.A1.019a', 'AIM.EN.A1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.018c', 'AIM.EN.A2.019a', 'AIM.EN.A1.011b', 'AIM.EN.A1.012c', 'AIM.EN.A1.013a', 'AIM.EN.A1.014b', 'AIM.EN.A1.015c', 'AIM.EN.A1.016a', 'AIM.EN.A1.017b', 'AIM.EN.A1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.019a', 'AIM.EN.A2.020b', 'AIM.EN.A1.011b', 'AIM.EN.A1.012c', 'AIM.EN.A1.013a', 'AIM.EN.A1.014b', 'AIM.EN.A1.015c', 'AIM.EN.A1.016a', 'AIM.EN.A1.017b', 'AIM.EN.A1.018c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.020b', 'AIM.EN.A2.021c', 'AIM.EN.A1.022a', 'AIM.EN.A1.023b', 'AIM.EN.A1.024c', 'AIM.EN.A1.025a', 'AIM.EN.A1.026b', 'AIM.EN.A1.027c', 'AIM.EN.A1.028a', 'AIM.EN.A1.029b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.021c', 'AIM.EN.A2.022a', 'AIM.EN.A1.023b', 'AIM.EN.A1.024c', 'AIM.EN.A1.025a', 'AIM.EN.A1.026b', 'AIM.EN.A1.027c', 'AIM.EN.A1.028a', 'AIM.EN.A1.029b', 'AIM.EN.A1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.022a', 'AIM.EN.A2.023b', 'AIM.EN.A1.021c', 'AIM.EN.A1.024c', 'AIM.EN.A1.025a', 'AIM.EN.A1.026b', 'AIM.EN.A1.027c', 'AIM.EN.A1.028a', 'AIM.EN.A1.029b', 'AIM.EN.A1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.023b', 'AIM.EN.A2.024c', 'AIM.EN.A1.021c', 'AIM.EN.A1.022a', 'AIM.EN.A1.025a', 'AIM.EN.A1.026b', 'AIM.EN.A1.027c', 'AIM.EN.A1.028a', 'AIM.EN.A1.029b', 'AIM.EN.A1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.024c', 'AIM.EN.A2.025a', 'AIM.EN.A1.021c', 'AIM.EN.A1.022a', 'AIM.EN.A1.023b', 'AIM.EN.A1.026b', 'AIM.EN.A1.027c', 'AIM.EN.A1.028a', 'AIM.EN.A1.029b', 'AIM.EN.A1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.025a', 'AIM.EN.A2.026b', 'AIM.EN.A1.021c', 'AIM.EN.A1.022a', 'AIM.EN.A1.023b', 'AIM.EN.A1.024c', 'AIM.EN.A1.027c', 'AIM.EN.A1.028a', 'AIM.EN.A1.029b', 'AIM.EN.A1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.026b', 'AIM.EN.A2.027c', 'AIM.EN.A1.021c', 'AIM.EN.A1.022a', 'AIM.EN.A1.023b', 'AIM.EN.A1.024c', 'AIM.EN.A1.025a', 'AIM.EN.A1.028a', 'AIM.EN.A1.029b', 'AIM.EN.A1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.027c', 'AIM.EN.A2.028a', 'AIM.EN.A1.021c', 'AIM.EN.A1.022a', 'AIM.EN.A1.023b', 'AIM.EN.A1.024c', 'AIM.EN.A1.025a', 'AIM.EN.A1.026b', 'AIM.EN.A1.029b', 'AIM.EN.A1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.028a', 'AIM.EN.A2.029b', 'AIM.EN.A1.021c', 'AIM.EN.A1.022a', 'AIM.EN.A1.023b', 'AIM.EN.A1.024c', 'AIM.EN.A1.025a', 'AIM.EN.A1.026b', 'AIM.EN.A1.027c', 'AIM.EN.A1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.029b', 'AIM.EN.A2.030c', 'AIM.EN.A1.021c', 'AIM.EN.A1.022a', 'AIM.EN.A1.023b', 'AIM.EN.A1.024c', 'AIM.EN.A1.025a', 'AIM.EN.A1.026b', 'AIM.EN.A1.027c', 'AIM.EN.A1.028a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.030c', 'AIM.EN.A2.031a', 'AIM.EN.A1.032b', 'AIM.EN.A1.033c', 'AIM.EN.A1.034a', 'AIM.EN.A1.035b', 'AIM.EN.A1.036c', 'AIM.EN.A1.037a', 'AIM.EN.A1.038b', 'AIM.EN.A1.039c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.031a', 'AIM.EN.A2.032b', 'AIM.EN.A1.033c', 'AIM.EN.A1.034a', 'AIM.EN.A1.035b', 'AIM.EN.A1.036c', 'AIM.EN.A1.037a', 'AIM.EN.A1.038b', 'AIM.EN.A1.039c', 'AIM.EN.A1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.032b', 'AIM.EN.A2.033c', 'AIM.EN.A1.031a', 'AIM.EN.A1.034a', 'AIM.EN.A1.035b', 'AIM.EN.A1.036c', 'AIM.EN.A1.037a', 'AIM.EN.A1.038b', 'AIM.EN.A1.039c', 'AIM.EN.A1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.033c', 'AIM.EN.A2.034a', 'AIM.EN.A1.031a', 'AIM.EN.A1.032b', 'AIM.EN.A1.035b', 'AIM.EN.A1.036c', 'AIM.EN.A1.037a', 'AIM.EN.A1.038b', 'AIM.EN.A1.039c', 'AIM.EN.A1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.034a', 'AIM.EN.A2.035b', 'AIM.EN.A1.031a', 'AIM.EN.A1.032b', 'AIM.EN.A1.033c', 'AIM.EN.A1.036c', 'AIM.EN.A1.037a', 'AIM.EN.A1.038b', 'AIM.EN.A1.039c', 'AIM.EN.A1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.035b', 'AIM.EN.A2.036c', 'AIM.EN.A1.031a', 'AIM.EN.A1.032b', 'AIM.EN.A1.033c', 'AIM.EN.A1.034a', 'AIM.EN.A1.037a', 'AIM.EN.A1.038b', 'AIM.EN.A1.039c', 'AIM.EN.A1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.036c', 'AIM.EN.A2.037a', 'AIM.EN.A1.031a', 'AIM.EN.A1.032b', 'AIM.EN.A1.033c', 'AIM.EN.A1.034a', 'AIM.EN.A1.035b', 'AIM.EN.A1.038b', 'AIM.EN.A1.039c', 'AIM.EN.A1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.037a', 'AIM.EN.A2.038b', 'AIM.EN.A1.031a', 'AIM.EN.A1.032b', 'AIM.EN.A1.033c', 'AIM.EN.A1.034a', 'AIM.EN.A1.035b', 'AIM.EN.A1.036c', 'AIM.EN.A1.039c', 'AIM.EN.A1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.038b', 'AIM.EN.A2.039c', 'AIM.EN.A1.031a', 'AIM.EN.A1.032b', 'AIM.EN.A1.033c', 'AIM.EN.A1.034a', 'AIM.EN.A1.035b', 'AIM.EN.A1.036c', 'AIM.EN.A1.037a', 'AIM.EN.A1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.039c', 'AIM.EN.A2.040a', 'AIM.EN.A1.031a', 'AIM.EN.A1.032b', 'AIM.EN.A1.033c', 'AIM.EN.A1.034a', 'AIM.EN.A1.035b', 'AIM.EN.A1.036c', 'AIM.EN.A1.037a', 'AIM.EN.A1.038b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.040a', 'AIM.EN.A2.041b', 'AIM.EN.A1.042c', 'AIM.EN.A1.043a', 'AIM.EN.A1.044b', 'AIM.EN.A1.045c', 'AIM.EN.A1.046a', 'AIM.EN.A1.047b', 'AIM.EN.A1.048c', 'AIM.EN.A1.049a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.041b', 'AIM.EN.A2.042c', 'AIM.EN.A1.043a', 'AIM.EN.A1.044b', 'AIM.EN.A1.045c', 'AIM.EN.A1.046a', 'AIM.EN.A1.047b', 'AIM.EN.A1.048c', 'AIM.EN.A1.049a', 'AIM.EN.A1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.042c', 'AIM.EN.A2.043a', 'AIM.EN.A1.041b', 'AIM.EN.A1.044b', 'AIM.EN.A1.045c', 'AIM.EN.A1.046a', 'AIM.EN.A1.047b', 'AIM.EN.A1.048c', 'AIM.EN.A1.049a', 'AIM.EN.A1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.043a', 'AIM.EN.A2.044b', 'AIM.EN.A1.041b', 'AIM.EN.A1.042c', 'AIM.EN.A1.045c', 'AIM.EN.A1.046a', 'AIM.EN.A1.047b', 'AIM.EN.A1.048c', 'AIM.EN.A1.049a', 'AIM.EN.A1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.044b', 'AIM.EN.A2.045c', 'AIM.EN.A1.041b', 'AIM.EN.A1.042c', 'AIM.EN.A1.043a', 'AIM.EN.A1.046a', 'AIM.EN.A1.047b', 'AIM.EN.A1.048c', 'AIM.EN.A1.049a', 'AIM.EN.A1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.045c', 'AIM.EN.A2.046a', 'AIM.EN.A1.041b', 'AIM.EN.A1.042c', 'AIM.EN.A1.043a', 'AIM.EN.A1.044b', 'AIM.EN.A1.047b', 'AIM.EN.A1.048c', 'AIM.EN.A1.049a', 'AIM.EN.A1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.046a', 'AIM.EN.A2.047b', 'AIM.EN.A1.041b', 'AIM.EN.A1.042c', 'AIM.EN.A1.043a', 'AIM.EN.A1.044b', 'AIM.EN.A1.045c', 'AIM.EN.A1.048c', 'AIM.EN.A1.049a', 'AIM.EN.A1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.047b', 'AIM.EN.A2.048c', 'AIM.EN.A1.041b', 'AIM.EN.A1.042c', 'AIM.EN.A1.043a', 'AIM.EN.A1.044b', 'AIM.EN.A1.045c', 'AIM.EN.A1.046a', 'AIM.EN.A1.049a', 'AIM.EN.A1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.048c', 'AIM.EN.A2.049a', 'AIM.EN.A1.041b', 'AIM.EN.A1.042c', 'AIM.EN.A1.043a', 'AIM.EN.A1.044b', 'AIM.EN.A1.045c', 'AIM.EN.A1.046a', 'AIM.EN.A1.047b', 'AIM.EN.A1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.049a', 'AIM.EN.A2.050b', 'AIM.EN.A1.041b', 'AIM.EN.A1.042c', 'AIM.EN.A1.043a', 'AIM.EN.A1.044b', 'AIM.EN.A1.045c', 'AIM.EN.A1.046a', 'AIM.EN.A1.047b', 'AIM.EN.A1.048c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.050b', 'AIM.EN.A2.051c', 'AIM.EN.A1.052a', 'AIM.EN.A1.053b', 'AIM.EN.A1.054c', 'AIM.EN.A1.055a', 'AIM.EN.A1.056b', 'AIM.EN.A1.057c', 'AIM.EN.A1.058a', 'AIM.EN.A1.059b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.051c', 'AIM.EN.A2.052a', 'AIM.EN.A1.053b', 'AIM.EN.A1.054c', 'AIM.EN.A1.055a', 'AIM.EN.A1.056b', 'AIM.EN.A1.057c', 'AIM.EN.A1.058a', 'AIM.EN.A1.059b', 'AIM.EN.A1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.052a', 'AIM.EN.A2.053b', 'AIM.EN.A1.051c', 'AIM.EN.A1.054c', 'AIM.EN.A1.055a', 'AIM.EN.A1.056b', 'AIM.EN.A1.057c', 'AIM.EN.A1.058a', 'AIM.EN.A1.059b', 'AIM.EN.A1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.053b', 'AIM.EN.A2.054c', 'AIM.EN.A1.051c', 'AIM.EN.A1.052a', 'AIM.EN.A1.055a', 'AIM.EN.A1.056b', 'AIM.EN.A1.057c', 'AIM.EN.A1.058a', 'AIM.EN.A1.059b', 'AIM.EN.A1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.054c', 'AIM.EN.A2.055a', 'AIM.EN.A1.051c', 'AIM.EN.A1.052a', 'AIM.EN.A1.053b', 'AIM.EN.A1.056b', 'AIM.EN.A1.057c', 'AIM.EN.A1.058a', 'AIM.EN.A1.059b', 'AIM.EN.A1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.055a', 'AIM.EN.A2.056b', 'AIM.EN.A1.051c', 'AIM.EN.A1.052a', 'AIM.EN.A1.053b', 'AIM.EN.A1.054c', 'AIM.EN.A1.057c', 'AIM.EN.A1.058a', 'AIM.EN.A1.059b', 'AIM.EN.A1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.056b', 'AIM.EN.A2.057c', 'AIM.EN.A1.051c', 'AIM.EN.A1.052a', 'AIM.EN.A1.053b', 'AIM.EN.A1.054c', 'AIM.EN.A1.055a', 'AIM.EN.A1.058a', 'AIM.EN.A1.059b', 'AIM.EN.A1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.057c', 'AIM.EN.A2.058a', 'AIM.EN.A1.051c', 'AIM.EN.A1.052a', 'AIM.EN.A1.053b', 'AIM.EN.A1.054c', 'AIM.EN.A1.055a', 'AIM.EN.A1.056b', 'AIM.EN.A1.059b', 'AIM.EN.A1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.058a', 'AIM.EN.A2.059b', 'AIM.EN.A1.051c', 'AIM.EN.A1.052a', 'AIM.EN.A1.053b', 'AIM.EN.A1.054c', 'AIM.EN.A1.055a', 'AIM.EN.A1.056b', 'AIM.EN.A1.057c', 'AIM.EN.A1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A1.059b', 'AIM.EN.A2.060c', 'AIM.EN.A1.051c', 'AIM.EN.A1.052a', 'AIM.EN.A1.053b', 'AIM.EN.A1.054c', 'AIM.EN.A1.055a', 'AIM.EN.A1.056b', 'AIM.EN.A1.057c', 'AIM.EN.A1.058a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.001a', 'AIM.EN.A2.002b', 'AIM.EN.A2.003c', 'AIM.EN.A2.004a', 'AIM.EN.A2.005b', 'AIM.EN.A2.006c', 'AIM.EN.A2.007a', 'AIM.EN.A2.008b', 'AIM.EN.A2.009c', 'AIM.EN.A2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.001a', 'AIM.EN.B1.002b', 'AIM.EN.A2.003c', 'AIM.EN.A2.004a', 'AIM.EN.A2.005b', 'AIM.EN.A2.006c', 'AIM.EN.A2.007a', 'AIM.EN.A2.008b', 'AIM.EN.A2.009c', 'AIM.EN.A2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.002b', 'AIM.EN.B1.003c', 'AIM.EN.A2.001a', 'AIM.EN.A2.004a', 'AIM.EN.A2.005b', 'AIM.EN.A2.006c', 'AIM.EN.A2.007a', 'AIM.EN.A2.008b', 'AIM.EN.A2.009c', 'AIM.EN.A2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.003c', 'AIM.EN.B1.004a', 'AIM.EN.A2.001a', 'AIM.EN.A2.002b', 'AIM.EN.A2.005b', 'AIM.EN.A2.006c', 'AIM.EN.A2.007a', 'AIM.EN.A2.008b', 'AIM.EN.A2.009c', 'AIM.EN.A2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.004a', 'AIM.EN.B1.005b', 'AIM.EN.A2.001a', 'AIM.EN.A2.002b', 'AIM.EN.A2.003c', 'AIM.EN.A2.006c', 'AIM.EN.A2.007a', 'AIM.EN.A2.008b', 'AIM.EN.A2.009c', 'AIM.EN.A2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.005b', 'AIM.EN.B1.006c', 'AIM.EN.A2.001a', 'AIM.EN.A2.002b', 'AIM.EN.A2.003c', 'AIM.EN.A2.004a', 'AIM.EN.A2.007a', 'AIM.EN.A2.008b', 'AIM.EN.A2.009c', 'AIM.EN.A2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.006c', 'AIM.EN.B1.007a', 'AIM.EN.A2.001a', 'AIM.EN.A2.002b', 'AIM.EN.A2.003c', 'AIM.EN.A2.004a', 'AIM.EN.A2.005b', 'AIM.EN.A2.008b', 'AIM.EN.A2.009c', 'AIM.EN.A2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.007a', 'AIM.EN.B1.008b', 'AIM.EN.A2.001a', 'AIM.EN.A2.002b', 'AIM.EN.A2.003c', 'AIM.EN.A2.004a', 'AIM.EN.A2.005b', 'AIM.EN.A2.006c', 'AIM.EN.A2.009c', 'AIM.EN.A2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.008b', 'AIM.EN.B1.009c', 'AIM.EN.A2.001a', 'AIM.EN.A2.002b', 'AIM.EN.A2.003c', 'AIM.EN.A2.004a', 'AIM.EN.A2.005b', 'AIM.EN.A2.006c', 'AIM.EN.A2.007a', 'AIM.EN.A2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.009c', 'AIM.EN.B1.010a', 'AIM.EN.A2.001a', 'AIM.EN.A2.002b', 'AIM.EN.A2.003c', 'AIM.EN.A2.004a', 'AIM.EN.A2.005b', 'AIM.EN.A2.006c', 'AIM.EN.A2.007a', 'AIM.EN.A2.008b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.010a', 'AIM.EN.B1.011b', 'AIM.EN.A2.012c', 'AIM.EN.A2.013a', 'AIM.EN.A2.014b', 'AIM.EN.A2.015c', 'AIM.EN.A2.016a', 'AIM.EN.A2.017b', 'AIM.EN.A2.018c', 'AIM.EN.A2.019a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.011b', 'AIM.EN.B1.012c', 'AIM.EN.A2.013a', 'AIM.EN.A2.014b', 'AIM.EN.A2.015c', 'AIM.EN.A2.016a', 'AIM.EN.A2.017b', 'AIM.EN.A2.018c', 'AIM.EN.A2.019a', 'AIM.EN.A2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.012c', 'AIM.EN.B1.013a', 'AIM.EN.A2.011b', 'AIM.EN.A2.014b', 'AIM.EN.A2.015c', 'AIM.EN.A2.016a', 'AIM.EN.A2.017b', 'AIM.EN.A2.018c', 'AIM.EN.A2.019a', 'AIM.EN.A2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.013a', 'AIM.EN.B1.014b', 'AIM.EN.A2.011b', 'AIM.EN.A2.012c', 'AIM.EN.A2.015c', 'AIM.EN.A2.016a', 'AIM.EN.A2.017b', 'AIM.EN.A2.018c', 'AIM.EN.A2.019a', 'AIM.EN.A2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.014b', 'AIM.EN.B1.015c', 'AIM.EN.A2.011b', 'AIM.EN.A2.012c', 'AIM.EN.A2.013a', 'AIM.EN.A2.016a', 'AIM.EN.A2.017b', 'AIM.EN.A2.018c', 'AIM.EN.A2.019a', 'AIM.EN.A2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.015c', 'AIM.EN.B1.016a', 'AIM.EN.A2.011b', 'AIM.EN.A2.012c', 'AIM.EN.A2.013a', 'AIM.EN.A2.014b', 'AIM.EN.A2.017b', 'AIM.EN.A2.018c', 'AIM.EN.A2.019a', 'AIM.EN.A2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.016a', 'AIM.EN.B1.017b', 'AIM.EN.A2.011b', 'AIM.EN.A2.012c', 'AIM.EN.A2.013a', 'AIM.EN.A2.014b', 'AIM.EN.A2.015c', 'AIM.EN.A2.018c', 'AIM.EN.A2.019a', 'AIM.EN.A2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.017b', 'AIM.EN.B1.018c', 'AIM.EN.A2.011b', 'AIM.EN.A2.012c', 'AIM.EN.A2.013a', 'AIM.EN.A2.014b', 'AIM.EN.A2.015c', 'AIM.EN.A2.016a', 'AIM.EN.A2.019a', 'AIM.EN.A2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.018c', 'AIM.EN.B1.019a', 'AIM.EN.A2.011b', 'AIM.EN.A2.012c', 'AIM.EN.A2.013a', 'AIM.EN.A2.014b', 'AIM.EN.A2.015c', 'AIM.EN.A2.016a', 'AIM.EN.A2.017b', 'AIM.EN.A2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.019a', 'AIM.EN.B1.020b', 'AIM.EN.A2.011b', 'AIM.EN.A2.012c', 'AIM.EN.A2.013a', 'AIM.EN.A2.014b', 'AIM.EN.A2.015c', 'AIM.EN.A2.016a', 'AIM.EN.A2.017b', 'AIM.EN.A2.018c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.020b', 'AIM.EN.B1.021c', 'AIM.EN.A2.022a', 'AIM.EN.A2.023b', 'AIM.EN.A2.024c', 'AIM.EN.A2.025a', 'AIM.EN.A2.026b', 'AIM.EN.A2.027c', 'AIM.EN.A2.028a', 'AIM.EN.A2.029b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.021c', 'AIM.EN.B1.022a', 'AIM.EN.A2.023b', 'AIM.EN.A2.024c', 'AIM.EN.A2.025a', 'AIM.EN.A2.026b', 'AIM.EN.A2.027c', 'AIM.EN.A2.028a', 'AIM.EN.A2.029b', 'AIM.EN.A2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.022a', 'AIM.EN.B1.023b', 'AIM.EN.A2.021c', 'AIM.EN.A2.024c', 'AIM.EN.A2.025a', 'AIM.EN.A2.026b', 'AIM.EN.A2.027c', 'AIM.EN.A2.028a', 'AIM.EN.A2.029b', 'AIM.EN.A2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.023b', 'AIM.EN.B1.024c', 'AIM.EN.A2.021c', 'AIM.EN.A2.022a', 'AIM.EN.A2.025a', 'AIM.EN.A2.026b', 'AIM.EN.A2.027c', 'AIM.EN.A2.028a', 'AIM.EN.A2.029b', 'AIM.EN.A2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.024c', 'AIM.EN.B1.025a', 'AIM.EN.A2.021c', 'AIM.EN.A2.022a', 'AIM.EN.A2.023b', 'AIM.EN.A2.026b', 'AIM.EN.A2.027c', 'AIM.EN.A2.028a', 'AIM.EN.A2.029b', 'AIM.EN.A2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.025a', 'AIM.EN.B1.026b', 'AIM.EN.A2.021c', 'AIM.EN.A2.022a', 'AIM.EN.A2.023b', 'AIM.EN.A2.024c', 'AIM.EN.A2.027c', 'AIM.EN.A2.028a', 'AIM.EN.A2.029b', 'AIM.EN.A2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.026b', 'AIM.EN.B1.027c', 'AIM.EN.A2.021c', 'AIM.EN.A2.022a', 'AIM.EN.A2.023b', 'AIM.EN.A2.024c', 'AIM.EN.A2.025a', 'AIM.EN.A2.028a', 'AIM.EN.A2.029b', 'AIM.EN.A2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.027c', 'AIM.EN.B1.028a', 'AIM.EN.A2.021c', 'AIM.EN.A2.022a', 'AIM.EN.A2.023b', 'AIM.EN.A2.024c', 'AIM.EN.A2.025a', 'AIM.EN.A2.026b', 'AIM.EN.A2.029b', 'AIM.EN.A2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.028a', 'AIM.EN.B1.029b', 'AIM.EN.A2.021c', 'AIM.EN.A2.022a', 'AIM.EN.A2.023b', 'AIM.EN.A2.024c', 'AIM.EN.A2.025a', 'AIM.EN.A2.026b', 'AIM.EN.A2.027c', 'AIM.EN.A2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.029b', 'AIM.EN.B1.030c', 'AIM.EN.A2.021c', 'AIM.EN.A2.022a', 'AIM.EN.A2.023b', 'AIM.EN.A2.024c', 'AIM.EN.A2.025a', 'AIM.EN.A2.026b', 'AIM.EN.A2.027c', 'AIM.EN.A2.028a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.030c', 'AIM.EN.B1.031a', 'AIM.EN.A2.032b', 'AIM.EN.A2.033c', 'AIM.EN.A2.034a', 'AIM.EN.A2.035b', 'AIM.EN.A2.036c', 'AIM.EN.A2.037a', 'AIM.EN.A2.038b', 'AIM.EN.A2.039c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.031a', 'AIM.EN.B1.032b', 'AIM.EN.A2.033c', 'AIM.EN.A2.034a', 'AIM.EN.A2.035b', 'AIM.EN.A2.036c', 'AIM.EN.A2.037a', 'AIM.EN.A2.038b', 'AIM.EN.A2.039c', 'AIM.EN.A2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.032b', 'AIM.EN.B1.033c', 'AIM.EN.A2.031a', 'AIM.EN.A2.034a', 'AIM.EN.A2.035b', 'AIM.EN.A2.036c', 'AIM.EN.A2.037a', 'AIM.EN.A2.038b', 'AIM.EN.A2.039c', 'AIM.EN.A2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.033c', 'AIM.EN.B1.034a', 'AIM.EN.A2.031a', 'AIM.EN.A2.032b', 'AIM.EN.A2.035b', 'AIM.EN.A2.036c', 'AIM.EN.A2.037a', 'AIM.EN.A2.038b', 'AIM.EN.A2.039c', 'AIM.EN.A2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.034a', 'AIM.EN.B1.035b', 'AIM.EN.A2.031a', 'AIM.EN.A2.032b', 'AIM.EN.A2.033c', 'AIM.EN.A2.036c', 'AIM.EN.A2.037a', 'AIM.EN.A2.038b', 'AIM.EN.A2.039c', 'AIM.EN.A2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.035b', 'AIM.EN.B1.036c', 'AIM.EN.A2.031a', 'AIM.EN.A2.032b', 'AIM.EN.A2.033c', 'AIM.EN.A2.034a', 'AIM.EN.A2.037a', 'AIM.EN.A2.038b', 'AIM.EN.A2.039c', 'AIM.EN.A2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.036c', 'AIM.EN.B1.037a', 'AIM.EN.A2.031a', 'AIM.EN.A2.032b', 'AIM.EN.A2.033c', 'AIM.EN.A2.034a', 'AIM.EN.A2.035b', 'AIM.EN.A2.038b', 'AIM.EN.A2.039c', 'AIM.EN.A2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.037a', 'AIM.EN.B1.038b', 'AIM.EN.A2.031a', 'AIM.EN.A2.032b', 'AIM.EN.A2.033c', 'AIM.EN.A2.034a', 'AIM.EN.A2.035b', 'AIM.EN.A2.036c', 'AIM.EN.A2.039c', 'AIM.EN.A2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.038b', 'AIM.EN.B1.039c', 'AIM.EN.A2.031a', 'AIM.EN.A2.032b', 'AIM.EN.A2.033c', 'AIM.EN.A2.034a', 'AIM.EN.A2.035b', 'AIM.EN.A2.036c', 'AIM.EN.A2.037a', 'AIM.EN.A2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.039c', 'AIM.EN.B1.040a', 'AIM.EN.A2.031a', 'AIM.EN.A2.032b', 'AIM.EN.A2.033c', 'AIM.EN.A2.034a', 'AIM.EN.A2.035b', 'AIM.EN.A2.036c', 'AIM.EN.A2.037a', 'AIM.EN.A2.038b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.040a', 'AIM.EN.B1.041b', 'AIM.EN.A2.042c', 'AIM.EN.A2.043a', 'AIM.EN.A2.044b', 'AIM.EN.A2.045c', 'AIM.EN.A2.046a', 'AIM.EN.A2.047b', 'AIM.EN.A2.048c', 'AIM.EN.A2.049a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.041b', 'AIM.EN.B1.042c', 'AIM.EN.A2.043a', 'AIM.EN.A2.044b', 'AIM.EN.A2.045c', 'AIM.EN.A2.046a', 'AIM.EN.A2.047b', 'AIM.EN.A2.048c', 'AIM.EN.A2.049a', 'AIM.EN.A2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.042c', 'AIM.EN.B1.043a', 'AIM.EN.A2.041b', 'AIM.EN.A2.044b', 'AIM.EN.A2.045c', 'AIM.EN.A2.046a', 'AIM.EN.A2.047b', 'AIM.EN.A2.048c', 'AIM.EN.A2.049a', 'AIM.EN.A2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.043a', 'AIM.EN.B1.044b', 'AIM.EN.A2.041b', 'AIM.EN.A2.042c', 'AIM.EN.A2.045c', 'AIM.EN.A2.046a', 'AIM.EN.A2.047b', 'AIM.EN.A2.048c', 'AIM.EN.A2.049a', 'AIM.EN.A2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.044b', 'AIM.EN.B1.045c', 'AIM.EN.A2.041b', 'AIM.EN.A2.042c', 'AIM.EN.A2.043a', 'AIM.EN.A2.046a', 'AIM.EN.A2.047b', 'AIM.EN.A2.048c', 'AIM.EN.A2.049a', 'AIM.EN.A2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.045c', 'AIM.EN.B1.046a', 'AIM.EN.A2.041b', 'AIM.EN.A2.042c', 'AIM.EN.A2.043a', 'AIM.EN.A2.044b', 'AIM.EN.A2.047b', 'AIM.EN.A2.048c', 'AIM.EN.A2.049a', 'AIM.EN.A2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.046a', 'AIM.EN.B1.047b', 'AIM.EN.A2.041b', 'AIM.EN.A2.042c', 'AIM.EN.A2.043a', 'AIM.EN.A2.044b', 'AIM.EN.A2.045c', 'AIM.EN.A2.048c', 'AIM.EN.A2.049a', 'AIM.EN.A2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.047b', 'AIM.EN.B1.048c', 'AIM.EN.A2.041b', 'AIM.EN.A2.042c', 'AIM.EN.A2.043a', 'AIM.EN.A2.044b', 'AIM.EN.A2.045c', 'AIM.EN.A2.046a', 'AIM.EN.A2.049a', 'AIM.EN.A2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.048c', 'AIM.EN.B1.049a', 'AIM.EN.A2.041b', 'AIM.EN.A2.042c', 'AIM.EN.A2.043a', 'AIM.EN.A2.044b', 'AIM.EN.A2.045c', 'AIM.EN.A2.046a', 'AIM.EN.A2.047b', 'AIM.EN.A2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.049a', 'AIM.EN.B1.050b', 'AIM.EN.A2.041b', 'AIM.EN.A2.042c', 'AIM.EN.A2.043a', 'AIM.EN.A2.044b', 'AIM.EN.A2.045c', 'AIM.EN.A2.046a', 'AIM.EN.A2.047b', 'AIM.EN.A2.048c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.050b', 'AIM.EN.B1.051c', 'AIM.EN.A2.052a', 'AIM.EN.A2.053b', 'AIM.EN.A2.054c', 'AIM.EN.A2.055a', 'AIM.EN.A2.056b', 'AIM.EN.A2.057c', 'AIM.EN.A2.058a', 'AIM.EN.A2.059b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.051c', 'AIM.EN.B1.052a', 'AIM.EN.A2.053b', 'AIM.EN.A2.054c', 'AIM.EN.A2.055a', 'AIM.EN.A2.056b', 'AIM.EN.A2.057c', 'AIM.EN.A2.058a', 'AIM.EN.A2.059b', 'AIM.EN.A2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.052a', 'AIM.EN.B1.053b', 'AIM.EN.A2.051c', 'AIM.EN.A2.054c', 'AIM.EN.A2.055a', 'AIM.EN.A2.056b', 'AIM.EN.A2.057c', 'AIM.EN.A2.058a', 'AIM.EN.A2.059b', 'AIM.EN.A2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.053b', 'AIM.EN.B1.054c', 'AIM.EN.A2.051c', 'AIM.EN.A2.052a', 'AIM.EN.A2.055a', 'AIM.EN.A2.056b', 'AIM.EN.A2.057c', 'AIM.EN.A2.058a', 'AIM.EN.A2.059b', 'AIM.EN.A2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.054c', 'AIM.EN.B1.055a', 'AIM.EN.A2.051c', 'AIM.EN.A2.052a', 'AIM.EN.A2.053b', 'AIM.EN.A2.056b', 'AIM.EN.A2.057c', 'AIM.EN.A2.058a', 'AIM.EN.A2.059b', 'AIM.EN.A2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.055a', 'AIM.EN.B1.056b', 'AIM.EN.A2.051c', 'AIM.EN.A2.052a', 'AIM.EN.A2.053b', 'AIM.EN.A2.054c', 'AIM.EN.A2.057c', 'AIM.EN.A2.058a', 'AIM.EN.A2.059b', 'AIM.EN.A2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.056b', 'AIM.EN.B1.057c', 'AIM.EN.A2.051c', 'AIM.EN.A2.052a', 'AIM.EN.A2.053b', 'AIM.EN.A2.054c', 'AIM.EN.A2.055a', 'AIM.EN.A2.058a', 'AIM.EN.A2.059b', 'AIM.EN.A2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.057c', 'AIM.EN.B1.058a', 'AIM.EN.A2.051c', 'AIM.EN.A2.052a', 'AIM.EN.A2.053b', 'AIM.EN.A2.054c', 'AIM.EN.A2.055a', 'AIM.EN.A2.056b', 'AIM.EN.A2.059b', 'AIM.EN.A2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.058a', 'AIM.EN.B1.059b', 'AIM.EN.A2.051c', 'AIM.EN.A2.052a', 'AIM.EN.A2.053b', 'AIM.EN.A2.054c', 'AIM.EN.A2.055a', 'AIM.EN.A2.056b', 'AIM.EN.A2.057c', 'AIM.EN.A2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.A2.059b', 'AIM.EN.B1.060c', 'AIM.EN.A2.051c', 'AIM.EN.A2.052a', 'AIM.EN.A2.053b', 'AIM.EN.A2.054c', 'AIM.EN.A2.055a', 'AIM.EN.A2.056b', 'AIM.EN.A2.057c', 'AIM.EN.A2.058a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.001a', 'AIM.EN.B1.002b', 'AIM.EN.B1.003c', 'AIM.EN.B1.004a', 'AIM.EN.B1.005b', 'AIM.EN.B1.006c', 'AIM.EN.B1.007a', 'AIM.EN.B1.008b', 'AIM.EN.B1.009c', 'AIM.EN.B1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.001a', 'AIM.EN.B2.002b', 'AIM.EN.B1.003c', 'AIM.EN.B1.004a', 'AIM.EN.B1.005b', 'AIM.EN.B1.006c', 'AIM.EN.B1.007a', 'AIM.EN.B1.008b', 'AIM.EN.B1.009c', 'AIM.EN.B1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.002b', 'AIM.EN.B2.003c', 'AIM.EN.B1.001a', 'AIM.EN.B1.004a', 'AIM.EN.B1.005b', 'AIM.EN.B1.006c', 'AIM.EN.B1.007a', 'AIM.EN.B1.008b', 'AIM.EN.B1.009c', 'AIM.EN.B1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.003c', 'AIM.EN.B2.004a', 'AIM.EN.B1.001a', 'AIM.EN.B1.002b', 'AIM.EN.B1.005b', 'AIM.EN.B1.006c', 'AIM.EN.B1.007a', 'AIM.EN.B1.008b', 'AIM.EN.B1.009c', 'AIM.EN.B1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.004a', 'AIM.EN.B2.005b', 'AIM.EN.B1.001a', 'AIM.EN.B1.002b', 'AIM.EN.B1.003c', 'AIM.EN.B1.006c', 'AIM.EN.B1.007a', 'AIM.EN.B1.008b', 'AIM.EN.B1.009c', 'AIM.EN.B1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.005b', 'AIM.EN.B2.006c', 'AIM.EN.B1.001a', 'AIM.EN.B1.002b', 'AIM.EN.B1.003c', 'AIM.EN.B1.004a', 'AIM.EN.B1.007a', 'AIM.EN.B1.008b', 'AIM.EN.B1.009c', 'AIM.EN.B1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.006c', 'AIM.EN.B2.007a', 'AIM.EN.B1.001a', 'AIM.EN.B1.002b', 'AIM.EN.B1.003c', 'AIM.EN.B1.004a', 'AIM.EN.B1.005b', 'AIM.EN.B1.008b', 'AIM.EN.B1.009c', 'AIM.EN.B1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.007a', 'AIM.EN.B2.008b', 'AIM.EN.B1.001a', 'AIM.EN.B1.002b', 'AIM.EN.B1.003c', 'AIM.EN.B1.004a', 'AIM.EN.B1.005b', 'AIM.EN.B1.006c', 'AIM.EN.B1.009c', 'AIM.EN.B1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.008b', 'AIM.EN.B2.009c', 'AIM.EN.B1.001a', 'AIM.EN.B1.002b', 'AIM.EN.B1.003c', 'AIM.EN.B1.004a', 'AIM.EN.B1.005b', 'AIM.EN.B1.006c', 'AIM.EN.B1.007a', 'AIM.EN.B1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.009c', 'AIM.EN.B2.010a', 'AIM.EN.B1.001a', 'AIM.EN.B1.002b', 'AIM.EN.B1.003c', 'AIM.EN.B1.004a', 'AIM.EN.B1.005b', 'AIM.EN.B1.006c', 'AIM.EN.B1.007a', 'AIM.EN.B1.008b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.010a', 'AIM.EN.B2.011b', 'AIM.EN.B1.012c', 'AIM.EN.B1.013a', 'AIM.EN.B1.014b', 'AIM.EN.B1.015c', 'AIM.EN.B1.016a', 'AIM.EN.B1.017b', 'AIM.EN.B1.018c', 'AIM.EN.B1.019a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.011b', 'AIM.EN.B2.012c', 'AIM.EN.B1.013a', 'AIM.EN.B1.014b', 'AIM.EN.B1.015c', 'AIM.EN.B1.016a', 'AIM.EN.B1.017b', 'AIM.EN.B1.018c', 'AIM.EN.B1.019a', 'AIM.EN.B1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.012c', 'AIM.EN.B2.013a', 'AIM.EN.B1.011b', 'AIM.EN.B1.014b', 'AIM.EN.B1.015c', 'AIM.EN.B1.016a', 'AIM.EN.B1.017b', 'AIM.EN.B1.018c', 'AIM.EN.B1.019a', 'AIM.EN.B1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.013a', 'AIM.EN.B2.014b', 'AIM.EN.B1.011b', 'AIM.EN.B1.012c', 'AIM.EN.B1.015c', 'AIM.EN.B1.016a', 'AIM.EN.B1.017b', 'AIM.EN.B1.018c', 'AIM.EN.B1.019a', 'AIM.EN.B1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.014b', 'AIM.EN.B2.015c', 'AIM.EN.B1.011b', 'AIM.EN.B1.012c', 'AIM.EN.B1.013a', 'AIM.EN.B1.016a', 'AIM.EN.B1.017b', 'AIM.EN.B1.018c', 'AIM.EN.B1.019a', 'AIM.EN.B1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.015c', 'AIM.EN.B2.016a', 'AIM.EN.B1.011b', 'AIM.EN.B1.012c', 'AIM.EN.B1.013a', 'AIM.EN.B1.014b', 'AIM.EN.B1.017b', 'AIM.EN.B1.018c', 'AIM.EN.B1.019a', 'AIM.EN.B1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.016a', 'AIM.EN.B2.017b', 'AIM.EN.B1.011b', 'AIM.EN.B1.012c', 'AIM.EN.B1.013a', 'AIM.EN.B1.014b', 'AIM.EN.B1.015c', 'AIM.EN.B1.018c', 'AIM.EN.B1.019a', 'AIM.EN.B1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.017b', 'AIM.EN.B2.018c', 'AIM.EN.B1.011b', 'AIM.EN.B1.012c', 'AIM.EN.B1.013a', 'AIM.EN.B1.014b', 'AIM.EN.B1.015c', 'AIM.EN.B1.016a', 'AIM.EN.B1.019a', 'AIM.EN.B1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.018c', 'AIM.EN.B2.019a', 'AIM.EN.B1.011b', 'AIM.EN.B1.012c', 'AIM.EN.B1.013a', 'AIM.EN.B1.014b', 'AIM.EN.B1.015c', 'AIM.EN.B1.016a', 'AIM.EN.B1.017b', 'AIM.EN.B1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.019a', 'AIM.EN.B2.020b', 'AIM.EN.B1.011b', 'AIM.EN.B1.012c', 'AIM.EN.B1.013a', 'AIM.EN.B1.014b', 'AIM.EN.B1.015c', 'AIM.EN.B1.016a', 'AIM.EN.B1.017b', 'AIM.EN.B1.018c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.020b', 'AIM.EN.B2.021c', 'AIM.EN.B1.022a', 'AIM.EN.B1.023b', 'AIM.EN.B1.024c', 'AIM.EN.B1.025a', 'AIM.EN.B1.026b', 'AIM.EN.B1.027c', 'AIM.EN.B1.028a', 'AIM.EN.B1.029b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.021c', 'AIM.EN.B2.022a', 'AIM.EN.B1.023b', 'AIM.EN.B1.024c', 'AIM.EN.B1.025a', 'AIM.EN.B1.026b', 'AIM.EN.B1.027c', 'AIM.EN.B1.028a', 'AIM.EN.B1.029b', 'AIM.EN.B1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.022a', 'AIM.EN.B2.023b', 'AIM.EN.B1.021c', 'AIM.EN.B1.024c', 'AIM.EN.B1.025a', 'AIM.EN.B1.026b', 'AIM.EN.B1.027c', 'AIM.EN.B1.028a', 'AIM.EN.B1.029b', 'AIM.EN.B1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.023b', 'AIM.EN.B2.024c', 'AIM.EN.B1.021c', 'AIM.EN.B1.022a', 'AIM.EN.B1.025a', 'AIM.EN.B1.026b', 'AIM.EN.B1.027c', 'AIM.EN.B1.028a', 'AIM.EN.B1.029b', 'AIM.EN.B1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.024c', 'AIM.EN.B2.025a', 'AIM.EN.B1.021c', 'AIM.EN.B1.022a', 'AIM.EN.B1.023b', 'AIM.EN.B1.026b', 'AIM.EN.B1.027c', 'AIM.EN.B1.028a', 'AIM.EN.B1.029b', 'AIM.EN.B1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.025a', 'AIM.EN.B2.026b', 'AIM.EN.B1.021c', 'AIM.EN.B1.022a', 'AIM.EN.B1.023b', 'AIM.EN.B1.024c', 'AIM.EN.B1.027c', 'AIM.EN.B1.028a', 'AIM.EN.B1.029b', 'AIM.EN.B1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.026b', 'AIM.EN.B2.027c', 'AIM.EN.B1.021c', 'AIM.EN.B1.022a', 'AIM.EN.B1.023b', 'AIM.EN.B1.024c', 'AIM.EN.B1.025a', 'AIM.EN.B1.028a', 'AIM.EN.B1.029b', 'AIM.EN.B1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.027c', 'AIM.EN.B2.028a', 'AIM.EN.B1.021c', 'AIM.EN.B1.022a', 'AIM.EN.B1.023b', 'AIM.EN.B1.024c', 'AIM.EN.B1.025a', 'AIM.EN.B1.026b', 'AIM.EN.B1.029b', 'AIM.EN.B1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.028a', 'AIM.EN.B2.029b', 'AIM.EN.B1.021c', 'AIM.EN.B1.022a', 'AIM.EN.B1.023b', 'AIM.EN.B1.024c', 'AIM.EN.B1.025a', 'AIM.EN.B1.026b', 'AIM.EN.B1.027c', 'AIM.EN.B1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.029b', 'AIM.EN.B2.030c', 'AIM.EN.B1.021c', 'AIM.EN.B1.022a', 'AIM.EN.B1.023b', 'AIM.EN.B1.024c', 'AIM.EN.B1.025a', 'AIM.EN.B1.026b', 'AIM.EN.B1.027c', 'AIM.EN.B1.028a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.030c', 'AIM.EN.B2.031a', 'AIM.EN.B1.032b', 'AIM.EN.B1.033c', 'AIM.EN.B1.034a', 'AIM.EN.B1.035b', 'AIM.EN.B1.036c', 'AIM.EN.B1.037a', 'AIM.EN.B1.038b', 'AIM.EN.B1.039c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.031a', 'AIM.EN.B2.032b', 'AIM.EN.B1.033c', 'AIM.EN.B1.034a', 'AIM.EN.B1.035b', 'AIM.EN.B1.036c', 'AIM.EN.B1.037a', 'AIM.EN.B1.038b', 'AIM.EN.B1.039c', 'AIM.EN.B1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.032b', 'AIM.EN.B2.033c', 'AIM.EN.B1.031a', 'AIM.EN.B1.034a', 'AIM.EN.B1.035b', 'AIM.EN.B1.036c', 'AIM.EN.B1.037a', 'AIM.EN.B1.038b', 'AIM.EN.B1.039c', 'AIM.EN.B1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.033c', 'AIM.EN.B2.034a', 'AIM.EN.B1.031a', 'AIM.EN.B1.032b', 'AIM.EN.B1.035b', 'AIM.EN.B1.036c', 'AIM.EN.B1.037a', 'AIM.EN.B1.038b', 'AIM.EN.B1.039c', 'AIM.EN.B1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.034a', 'AIM.EN.B2.035b', 'AIM.EN.B1.031a', 'AIM.EN.B1.032b', 'AIM.EN.B1.033c', 'AIM.EN.B1.036c', 'AIM.EN.B1.037a', 'AIM.EN.B1.038b', 'AIM.EN.B1.039c', 'AIM.EN.B1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.035b', 'AIM.EN.B2.036c', 'AIM.EN.B1.031a', 'AIM.EN.B1.032b', 'AIM.EN.B1.033c', 'AIM.EN.B1.034a', 'AIM.EN.B1.037a', 'AIM.EN.B1.038b', 'AIM.EN.B1.039c', 'AIM.EN.B1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.036c', 'AIM.EN.B2.037a', 'AIM.EN.B1.031a', 'AIM.EN.B1.032b', 'AIM.EN.B1.033c', 'AIM.EN.B1.034a', 'AIM.EN.B1.035b', 'AIM.EN.B1.038b', 'AIM.EN.B1.039c', 'AIM.EN.B1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.037a', 'AIM.EN.B2.038b', 'AIM.EN.B1.031a', 'AIM.EN.B1.032b', 'AIM.EN.B1.033c', 'AIM.EN.B1.034a', 'AIM.EN.B1.035b', 'AIM.EN.B1.036c', 'AIM.EN.B1.039c', 'AIM.EN.B1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.038b', 'AIM.EN.B2.039c', 'AIM.EN.B1.031a', 'AIM.EN.B1.032b', 'AIM.EN.B1.033c', 'AIM.EN.B1.034a', 'AIM.EN.B1.035b', 'AIM.EN.B1.036c', 'AIM.EN.B1.037a', 'AIM.EN.B1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.039c', 'AIM.EN.B2.040a', 'AIM.EN.B1.031a', 'AIM.EN.B1.032b', 'AIM.EN.B1.033c', 'AIM.EN.B1.034a', 'AIM.EN.B1.035b', 'AIM.EN.B1.036c', 'AIM.EN.B1.037a', 'AIM.EN.B1.038b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.040a', 'AIM.EN.B2.041b', 'AIM.EN.B1.042c', 'AIM.EN.B1.043a', 'AIM.EN.B1.044b', 'AIM.EN.B1.045c', 'AIM.EN.B1.046a', 'AIM.EN.B1.047b', 'AIM.EN.B1.048c', 'AIM.EN.B1.049a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.041b', 'AIM.EN.B2.042c', 'AIM.EN.B1.043a', 'AIM.EN.B1.044b', 'AIM.EN.B1.045c', 'AIM.EN.B1.046a', 'AIM.EN.B1.047b', 'AIM.EN.B1.048c', 'AIM.EN.B1.049a', 'AIM.EN.B1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.042c', 'AIM.EN.B2.043a', 'AIM.EN.B1.041b', 'AIM.EN.B1.044b', 'AIM.EN.B1.045c', 'AIM.EN.B1.046a', 'AIM.EN.B1.047b', 'AIM.EN.B1.048c', 'AIM.EN.B1.049a', 'AIM.EN.B1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.043a', 'AIM.EN.B2.044b', 'AIM.EN.B1.041b', 'AIM.EN.B1.042c', 'AIM.EN.B1.045c', 'AIM.EN.B1.046a', 'AIM.EN.B1.047b', 'AIM.EN.B1.048c', 'AIM.EN.B1.049a', 'AIM.EN.B1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.044b', 'AIM.EN.B2.045c', 'AIM.EN.B1.041b', 'AIM.EN.B1.042c', 'AIM.EN.B1.043a', 'AIM.EN.B1.046a', 'AIM.EN.B1.047b', 'AIM.EN.B1.048c', 'AIM.EN.B1.049a', 'AIM.EN.B1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.045c', 'AIM.EN.B2.046a', 'AIM.EN.B1.041b', 'AIM.EN.B1.042c', 'AIM.EN.B1.043a', 'AIM.EN.B1.044b', 'AIM.EN.B1.047b', 'AIM.EN.B1.048c', 'AIM.EN.B1.049a', 'AIM.EN.B1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.046a', 'AIM.EN.B2.047b', 'AIM.EN.B1.041b', 'AIM.EN.B1.042c', 'AIM.EN.B1.043a', 'AIM.EN.B1.044b', 'AIM.EN.B1.045c', 'AIM.EN.B1.048c', 'AIM.EN.B1.049a', 'AIM.EN.B1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.047b', 'AIM.EN.B2.048c', 'AIM.EN.B1.041b', 'AIM.EN.B1.042c', 'AIM.EN.B1.043a', 'AIM.EN.B1.044b', 'AIM.EN.B1.045c', 'AIM.EN.B1.046a', 'AIM.EN.B1.049a', 'AIM.EN.B1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.048c', 'AIM.EN.B2.049a', 'AIM.EN.B1.041b', 'AIM.EN.B1.042c', 'AIM.EN.B1.043a', 'AIM.EN.B1.044b', 'AIM.EN.B1.045c', 'AIM.EN.B1.046a', 'AIM.EN.B1.047b', 'AIM.EN.B1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.049a', 'AIM.EN.B2.050b', 'AIM.EN.B1.041b', 'AIM.EN.B1.042c', 'AIM.EN.B1.043a', 'AIM.EN.B1.044b', 'AIM.EN.B1.045c', 'AIM.EN.B1.046a', 'AIM.EN.B1.047b', 'AIM.EN.B1.048c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.050b', 'AIM.EN.B2.051c', 'AIM.EN.B1.052a', 'AIM.EN.B1.053b', 'AIM.EN.B1.054c', 'AIM.EN.B1.055a', 'AIM.EN.B1.056b', 'AIM.EN.B1.057c', 'AIM.EN.B1.058a', 'AIM.EN.B1.059b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.051c', 'AIM.EN.B2.052a', 'AIM.EN.B1.053b', 'AIM.EN.B1.054c', 'AIM.EN.B1.055a', 'AIM.EN.B1.056b', 'AIM.EN.B1.057c', 'AIM.EN.B1.058a', 'AIM.EN.B1.059b', 'AIM.EN.B1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.052a', 'AIM.EN.B2.053b', 'AIM.EN.B1.051c', 'AIM.EN.B1.054c', 'AIM.EN.B1.055a', 'AIM.EN.B1.056b', 'AIM.EN.B1.057c', 'AIM.EN.B1.058a', 'AIM.EN.B1.059b', 'AIM.EN.B1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.053b', 'AIM.EN.B2.054c', 'AIM.EN.B1.051c', 'AIM.EN.B1.052a', 'AIM.EN.B1.055a', 'AIM.EN.B1.056b', 'AIM.EN.B1.057c', 'AIM.EN.B1.058a', 'AIM.EN.B1.059b', 'AIM.EN.B1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.054c', 'AIM.EN.B2.055a', 'AIM.EN.B1.051c', 'AIM.EN.B1.052a', 'AIM.EN.B1.053b', 'AIM.EN.B1.056b', 'AIM.EN.B1.057c', 'AIM.EN.B1.058a', 'AIM.EN.B1.059b', 'AIM.EN.B1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.055a', 'AIM.EN.B2.056b', 'AIM.EN.B1.051c', 'AIM.EN.B1.052a', 'AIM.EN.B1.053b', 'AIM.EN.B1.054c', 'AIM.EN.B1.057c', 'AIM.EN.B1.058a', 'AIM.EN.B1.059b', 'AIM.EN.B1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.056b', 'AIM.EN.B2.057c', 'AIM.EN.B1.051c', 'AIM.EN.B1.052a', 'AIM.EN.B1.053b', 'AIM.EN.B1.054c', 'AIM.EN.B1.055a', 'AIM.EN.B1.058a', 'AIM.EN.B1.059b', 'AIM.EN.B1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.057c', 'AIM.EN.B2.058a', 'AIM.EN.B1.051c', 'AIM.EN.B1.052a', 'AIM.EN.B1.053b', 'AIM.EN.B1.054c', 'AIM.EN.B1.055a', 'AIM.EN.B1.056b', 'AIM.EN.B1.059b', 'AIM.EN.B1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.058a', 'AIM.EN.B2.059b', 'AIM.EN.B1.051c', 'AIM.EN.B1.052a', 'AIM.EN.B1.053b', 'AIM.EN.B1.054c', 'AIM.EN.B1.055a', 'AIM.EN.B1.056b', 'AIM.EN.B1.057c', 'AIM.EN.B1.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B1.059b', 'AIM.EN.B2.060c', 'AIM.EN.B1.051c', 'AIM.EN.B1.052a', 'AIM.EN.B1.053b', 'AIM.EN.B1.054c', 'AIM.EN.B1.055a', 'AIM.EN.B1.056b', 'AIM.EN.B1.057c', 'AIM.EN.B1.058a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.001a', 'AIM.EN.B2.002b', 'AIM.EN.B2.003c', 'AIM.EN.B2.004a', 'AIM.EN.B2.005b', 'AIM.EN.B2.006c', 'AIM.EN.B2.007a', 'AIM.EN.B2.008b', 'AIM.EN.B2.009c', 'AIM.EN.B2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.001a', 'AIM.EN.C1.002b', 'AIM.EN.B2.003c', 'AIM.EN.B2.004a', 'AIM.EN.B2.005b', 'AIM.EN.B2.006c', 'AIM.EN.B2.007a', 'AIM.EN.B2.008b', 'AIM.EN.B2.009c', 'AIM.EN.B2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.002b', 'AIM.EN.C1.003c', 'AIM.EN.B2.001a', 'AIM.EN.B2.004a', 'AIM.EN.B2.005b', 'AIM.EN.B2.006c', 'AIM.EN.B2.007a', 'AIM.EN.B2.008b', 'AIM.EN.B2.009c', 'AIM.EN.B2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.003c', 'AIM.EN.C1.004a', 'AIM.EN.B2.001a', 'AIM.EN.B2.002b', 'AIM.EN.B2.005b', 'AIM.EN.B2.006c', 'AIM.EN.B2.007a', 'AIM.EN.B2.008b', 'AIM.EN.B2.009c', 'AIM.EN.B2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.004a', 'AIM.EN.C1.005b', 'AIM.EN.B2.001a', 'AIM.EN.B2.002b', 'AIM.EN.B2.003c', 'AIM.EN.B2.006c', 'AIM.EN.B2.007a', 'AIM.EN.B2.008b', 'AIM.EN.B2.009c', 'AIM.EN.B2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.005b', 'AIM.EN.C1.006c', 'AIM.EN.B2.001a', 'AIM.EN.B2.002b', 'AIM.EN.B2.003c', 'AIM.EN.B2.004a', 'AIM.EN.B2.007a', 'AIM.EN.B2.008b', 'AIM.EN.B2.009c', 'AIM.EN.B2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.006c', 'AIM.EN.C1.007a', 'AIM.EN.B2.001a', 'AIM.EN.B2.002b', 'AIM.EN.B2.003c', 'AIM.EN.B2.004a', 'AIM.EN.B2.005b', 'AIM.EN.B2.008b', 'AIM.EN.B2.009c', 'AIM.EN.B2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.007a', 'AIM.EN.C1.008b', 'AIM.EN.B2.001a', 'AIM.EN.B2.002b', 'AIM.EN.B2.003c', 'AIM.EN.B2.004a', 'AIM.EN.B2.005b', 'AIM.EN.B2.006c', 'AIM.EN.B2.009c', 'AIM.EN.B2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.008b', 'AIM.EN.C1.009c', 'AIM.EN.B2.001a', 'AIM.EN.B2.002b', 'AIM.EN.B2.003c', 'AIM.EN.B2.004a', 'AIM.EN.B2.005b', 'AIM.EN.B2.006c', 'AIM.EN.B2.007a', 'AIM.EN.B2.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.009c', 'AIM.EN.C1.010a', 'AIM.EN.B2.001a', 'AIM.EN.B2.002b', 'AIM.EN.B2.003c', 'AIM.EN.B2.004a', 'AIM.EN.B2.005b', 'AIM.EN.B2.006c', 'AIM.EN.B2.007a', 'AIM.EN.B2.008b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.010a', 'AIM.EN.C1.011b', 'AIM.EN.B2.012c', 'AIM.EN.B2.013a', 'AIM.EN.B2.014b', 'AIM.EN.B2.015c', 'AIM.EN.B2.016a', 'AIM.EN.B2.017b', 'AIM.EN.B2.018c', 'AIM.EN.B2.019a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.011b', 'AIM.EN.C1.012c', 'AIM.EN.B2.013a', 'AIM.EN.B2.014b', 'AIM.EN.B2.015c', 'AIM.EN.B2.016a', 'AIM.EN.B2.017b', 'AIM.EN.B2.018c', 'AIM.EN.B2.019a', 'AIM.EN.B2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.012c', 'AIM.EN.C1.013a', 'AIM.EN.B2.011b', 'AIM.EN.B2.014b', 'AIM.EN.B2.015c', 'AIM.EN.B2.016a', 'AIM.EN.B2.017b', 'AIM.EN.B2.018c', 'AIM.EN.B2.019a', 'AIM.EN.B2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.013a', 'AIM.EN.C1.014b', 'AIM.EN.B2.011b', 'AIM.EN.B2.012c', 'AIM.EN.B2.015c', 'AIM.EN.B2.016a', 'AIM.EN.B2.017b', 'AIM.EN.B2.018c', 'AIM.EN.B2.019a', 'AIM.EN.B2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.014b', 'AIM.EN.C1.015c', 'AIM.EN.B2.011b', 'AIM.EN.B2.012c', 'AIM.EN.B2.013a', 'AIM.EN.B2.016a', 'AIM.EN.B2.017b', 'AIM.EN.B2.018c', 'AIM.EN.B2.019a', 'AIM.EN.B2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.015c', 'AIM.EN.C1.016a', 'AIM.EN.B2.011b', 'AIM.EN.B2.012c', 'AIM.EN.B2.013a', 'AIM.EN.B2.014b', 'AIM.EN.B2.017b', 'AIM.EN.B2.018c', 'AIM.EN.B2.019a', 'AIM.EN.B2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.016a', 'AIM.EN.C1.017b', 'AIM.EN.B2.011b', 'AIM.EN.B2.012c', 'AIM.EN.B2.013a', 'AIM.EN.B2.014b', 'AIM.EN.B2.015c', 'AIM.EN.B2.018c', 'AIM.EN.B2.019a', 'AIM.EN.B2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.017b', 'AIM.EN.C1.018c', 'AIM.EN.B2.011b', 'AIM.EN.B2.012c', 'AIM.EN.B2.013a', 'AIM.EN.B2.014b', 'AIM.EN.B2.015c', 'AIM.EN.B2.016a', 'AIM.EN.B2.019a', 'AIM.EN.B2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.018c', 'AIM.EN.C1.019a', 'AIM.EN.B2.011b', 'AIM.EN.B2.012c', 'AIM.EN.B2.013a', 'AIM.EN.B2.014b', 'AIM.EN.B2.015c', 'AIM.EN.B2.016a', 'AIM.EN.B2.017b', 'AIM.EN.B2.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.019a', 'AIM.EN.C1.020b', 'AIM.EN.B2.011b', 'AIM.EN.B2.012c', 'AIM.EN.B2.013a', 'AIM.EN.B2.014b', 'AIM.EN.B2.015c', 'AIM.EN.B2.016a', 'AIM.EN.B2.017b', 'AIM.EN.B2.018c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.020b', 'AIM.EN.C1.021c', 'AIM.EN.B2.022a', 'AIM.EN.B2.023b', 'AIM.EN.B2.024c', 'AIM.EN.B2.025a', 'AIM.EN.B2.026b', 'AIM.EN.B2.027c', 'AIM.EN.B2.028a', 'AIM.EN.B2.029b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.021c', 'AIM.EN.C1.022a', 'AIM.EN.B2.023b', 'AIM.EN.B2.024c', 'AIM.EN.B2.025a', 'AIM.EN.B2.026b', 'AIM.EN.B2.027c', 'AIM.EN.B2.028a', 'AIM.EN.B2.029b', 'AIM.EN.B2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.022a', 'AIM.EN.C1.023b', 'AIM.EN.B2.021c', 'AIM.EN.B2.024c', 'AIM.EN.B2.025a', 'AIM.EN.B2.026b', 'AIM.EN.B2.027c', 'AIM.EN.B2.028a', 'AIM.EN.B2.029b', 'AIM.EN.B2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.023b', 'AIM.EN.C1.024c', 'AIM.EN.B2.021c', 'AIM.EN.B2.022a', 'AIM.EN.B2.025a', 'AIM.EN.B2.026b', 'AIM.EN.B2.027c', 'AIM.EN.B2.028a', 'AIM.EN.B2.029b', 'AIM.EN.B2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.024c', 'AIM.EN.C1.025a', 'AIM.EN.B2.021c', 'AIM.EN.B2.022a', 'AIM.EN.B2.023b', 'AIM.EN.B2.026b', 'AIM.EN.B2.027c', 'AIM.EN.B2.028a', 'AIM.EN.B2.029b', 'AIM.EN.B2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.025a', 'AIM.EN.C1.026b', 'AIM.EN.B2.021c', 'AIM.EN.B2.022a', 'AIM.EN.B2.023b', 'AIM.EN.B2.024c', 'AIM.EN.B2.027c', 'AIM.EN.B2.028a', 'AIM.EN.B2.029b', 'AIM.EN.B2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.026b', 'AIM.EN.C1.027c', 'AIM.EN.B2.021c', 'AIM.EN.B2.022a', 'AIM.EN.B2.023b', 'AIM.EN.B2.024c', 'AIM.EN.B2.025a', 'AIM.EN.B2.028a', 'AIM.EN.B2.029b', 'AIM.EN.B2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.027c', 'AIM.EN.C1.028a', 'AIM.EN.B2.021c', 'AIM.EN.B2.022a', 'AIM.EN.B2.023b', 'AIM.EN.B2.024c', 'AIM.EN.B2.025a', 'AIM.EN.B2.026b', 'AIM.EN.B2.029b', 'AIM.EN.B2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.028a', 'AIM.EN.C1.029b', 'AIM.EN.B2.021c', 'AIM.EN.B2.022a', 'AIM.EN.B2.023b', 'AIM.EN.B2.024c', 'AIM.EN.B2.025a', 'AIM.EN.B2.026b', 'AIM.EN.B2.027c', 'AIM.EN.B2.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.029b', 'AIM.EN.C1.030c', 'AIM.EN.B2.021c', 'AIM.EN.B2.022a', 'AIM.EN.B2.023b', 'AIM.EN.B2.024c', 'AIM.EN.B2.025a', 'AIM.EN.B2.026b', 'AIM.EN.B2.027c', 'AIM.EN.B2.028a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.030c', 'AIM.EN.C1.031a', 'AIM.EN.B2.032b', 'AIM.EN.B2.033c', 'AIM.EN.B2.034a', 'AIM.EN.B2.035b', 'AIM.EN.B2.036c', 'AIM.EN.B2.037a', 'AIM.EN.B2.038b', 'AIM.EN.B2.039c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.031a', 'AIM.EN.C1.032b', 'AIM.EN.B2.033c', 'AIM.EN.B2.034a', 'AIM.EN.B2.035b', 'AIM.EN.B2.036c', 'AIM.EN.B2.037a', 'AIM.EN.B2.038b', 'AIM.EN.B2.039c', 'AIM.EN.B2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.032b', 'AIM.EN.C1.033c', 'AIM.EN.B2.031a', 'AIM.EN.B2.034a', 'AIM.EN.B2.035b', 'AIM.EN.B2.036c', 'AIM.EN.B2.037a', 'AIM.EN.B2.038b', 'AIM.EN.B2.039c', 'AIM.EN.B2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.033c', 'AIM.EN.C1.034a', 'AIM.EN.B2.031a', 'AIM.EN.B2.032b', 'AIM.EN.B2.035b', 'AIM.EN.B2.036c', 'AIM.EN.B2.037a', 'AIM.EN.B2.038b', 'AIM.EN.B2.039c', 'AIM.EN.B2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.034a', 'AIM.EN.C1.035b', 'AIM.EN.B2.031a', 'AIM.EN.B2.032b', 'AIM.EN.B2.033c', 'AIM.EN.B2.036c', 'AIM.EN.B2.037a', 'AIM.EN.B2.038b', 'AIM.EN.B2.039c', 'AIM.EN.B2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.035b', 'AIM.EN.C1.036c', 'AIM.EN.B2.031a', 'AIM.EN.B2.032b', 'AIM.EN.B2.033c', 'AIM.EN.B2.034a', 'AIM.EN.B2.037a', 'AIM.EN.B2.038b', 'AIM.EN.B2.039c', 'AIM.EN.B2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.036c', 'AIM.EN.C1.037a', 'AIM.EN.B2.031a', 'AIM.EN.B2.032b', 'AIM.EN.B2.033c', 'AIM.EN.B2.034a', 'AIM.EN.B2.035b', 'AIM.EN.B2.038b', 'AIM.EN.B2.039c', 'AIM.EN.B2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.037a', 'AIM.EN.C1.038b', 'AIM.EN.B2.031a', 'AIM.EN.B2.032b', 'AIM.EN.B2.033c', 'AIM.EN.B2.034a', 'AIM.EN.B2.035b', 'AIM.EN.B2.036c', 'AIM.EN.B2.039c', 'AIM.EN.B2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.038b', 'AIM.EN.C1.039c', 'AIM.EN.B2.031a', 'AIM.EN.B2.032b', 'AIM.EN.B2.033c', 'AIM.EN.B2.034a', 'AIM.EN.B2.035b', 'AIM.EN.B2.036c', 'AIM.EN.B2.037a', 'AIM.EN.B2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.039c', 'AIM.EN.C1.040a', 'AIM.EN.B2.031a', 'AIM.EN.B2.032b', 'AIM.EN.B2.033c', 'AIM.EN.B2.034a', 'AIM.EN.B2.035b', 'AIM.EN.B2.036c', 'AIM.EN.B2.037a', 'AIM.EN.B2.038b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.040a', 'AIM.EN.C1.041b', 'AIM.EN.B2.042c', 'AIM.EN.B2.043a', 'AIM.EN.B2.044b', 'AIM.EN.B2.045c', 'AIM.EN.B2.046a', 'AIM.EN.B2.047b', 'AIM.EN.B2.048c', 'AIM.EN.B2.049a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.041b', 'AIM.EN.C1.042c', 'AIM.EN.B2.043a', 'AIM.EN.B2.044b', 'AIM.EN.B2.045c', 'AIM.EN.B2.046a', 'AIM.EN.B2.047b', 'AIM.EN.B2.048c', 'AIM.EN.B2.049a', 'AIM.EN.B2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.042c', 'AIM.EN.C1.043a', 'AIM.EN.B2.041b', 'AIM.EN.B2.044b', 'AIM.EN.B2.045c', 'AIM.EN.B2.046a', 'AIM.EN.B2.047b', 'AIM.EN.B2.048c', 'AIM.EN.B2.049a', 'AIM.EN.B2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.043a', 'AIM.EN.C1.044b', 'AIM.EN.B2.041b', 'AIM.EN.B2.042c', 'AIM.EN.B2.045c', 'AIM.EN.B2.046a', 'AIM.EN.B2.047b', 'AIM.EN.B2.048c', 'AIM.EN.B2.049a', 'AIM.EN.B2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.044b', 'AIM.EN.C1.045c', 'AIM.EN.B2.041b', 'AIM.EN.B2.042c', 'AIM.EN.B2.043a', 'AIM.EN.B2.046a', 'AIM.EN.B2.047b', 'AIM.EN.B2.048c', 'AIM.EN.B2.049a', 'AIM.EN.B2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.045c', 'AIM.EN.C1.046a', 'AIM.EN.B2.041b', 'AIM.EN.B2.042c', 'AIM.EN.B2.043a', 'AIM.EN.B2.044b', 'AIM.EN.B2.047b', 'AIM.EN.B2.048c', 'AIM.EN.B2.049a', 'AIM.EN.B2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.046a', 'AIM.EN.C1.047b', 'AIM.EN.B2.041b', 'AIM.EN.B2.042c', 'AIM.EN.B2.043a', 'AIM.EN.B2.044b', 'AIM.EN.B2.045c', 'AIM.EN.B2.048c', 'AIM.EN.B2.049a', 'AIM.EN.B2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.047b', 'AIM.EN.C1.048c', 'AIM.EN.B2.041b', 'AIM.EN.B2.042c', 'AIM.EN.B2.043a', 'AIM.EN.B2.044b', 'AIM.EN.B2.045c', 'AIM.EN.B2.046a', 'AIM.EN.B2.049a', 'AIM.EN.B2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.048c', 'AIM.EN.C1.049a', 'AIM.EN.B2.041b', 'AIM.EN.B2.042c', 'AIM.EN.B2.043a', 'AIM.EN.B2.044b', 'AIM.EN.B2.045c', 'AIM.EN.B2.046a', 'AIM.EN.B2.047b', 'AIM.EN.B2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.049a', 'AIM.EN.C1.050b', 'AIM.EN.B2.041b', 'AIM.EN.B2.042c', 'AIM.EN.B2.043a', 'AIM.EN.B2.044b', 'AIM.EN.B2.045c', 'AIM.EN.B2.046a', 'AIM.EN.B2.047b', 'AIM.EN.B2.048c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.050b', 'AIM.EN.C1.051c', 'AIM.EN.B2.052a', 'AIM.EN.B2.053b', 'AIM.EN.B2.054c', 'AIM.EN.B2.055a', 'AIM.EN.B2.056b', 'AIM.EN.B2.057c', 'AIM.EN.B2.058a', 'AIM.EN.B2.059b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.051c', 'AIM.EN.C1.052a', 'AIM.EN.B2.053b', 'AIM.EN.B2.054c', 'AIM.EN.B2.055a', 'AIM.EN.B2.056b', 'AIM.EN.B2.057c', 'AIM.EN.B2.058a', 'AIM.EN.B2.059b', 'AIM.EN.B2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.052a', 'AIM.EN.C1.053b', 'AIM.EN.B2.051c', 'AIM.EN.B2.054c', 'AIM.EN.B2.055a', 'AIM.EN.B2.056b', 'AIM.EN.B2.057c', 'AIM.EN.B2.058a', 'AIM.EN.B2.059b', 'AIM.EN.B2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.053b', 'AIM.EN.C1.054c', 'AIM.EN.B2.051c', 'AIM.EN.B2.052a', 'AIM.EN.B2.055a', 'AIM.EN.B2.056b', 'AIM.EN.B2.057c', 'AIM.EN.B2.058a', 'AIM.EN.B2.059b', 'AIM.EN.B2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.054c', 'AIM.EN.C1.055a', 'AIM.EN.B2.051c', 'AIM.EN.B2.052a', 'AIM.EN.B2.053b', 'AIM.EN.B2.056b', 'AIM.EN.B2.057c', 'AIM.EN.B2.058a', 'AIM.EN.B2.059b', 'AIM.EN.B2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.055a', 'AIM.EN.C1.056b', 'AIM.EN.B2.051c', 'AIM.EN.B2.052a', 'AIM.EN.B2.053b', 'AIM.EN.B2.054c', 'AIM.EN.B2.057c', 'AIM.EN.B2.058a', 'AIM.EN.B2.059b', 'AIM.EN.B2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.056b', 'AIM.EN.C1.057c', 'AIM.EN.B2.051c', 'AIM.EN.B2.052a', 'AIM.EN.B2.053b', 'AIM.EN.B2.054c', 'AIM.EN.B2.055a', 'AIM.EN.B2.058a', 'AIM.EN.B2.059b', 'AIM.EN.B2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.057c', 'AIM.EN.C1.058a', 'AIM.EN.B2.051c', 'AIM.EN.B2.052a', 'AIM.EN.B2.053b', 'AIM.EN.B2.054c', 'AIM.EN.B2.055a', 'AIM.EN.B2.056b', 'AIM.EN.B2.059b', 'AIM.EN.B2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.058a', 'AIM.EN.C1.059b', 'AIM.EN.B2.051c', 'AIM.EN.B2.052a', 'AIM.EN.B2.053b', 'AIM.EN.B2.054c', 'AIM.EN.B2.055a', 'AIM.EN.B2.056b', 'AIM.EN.B2.057c', 'AIM.EN.B2.060c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.B2.059b', 'AIM.EN.C1.060c', 'AIM.EN.B2.051c', 'AIM.EN.B2.052a', 'AIM.EN.B2.053b', 'AIM.EN.B2.054c', 'AIM.EN.B2.055a', 'AIM.EN.B2.056b', 'AIM.EN.B2.057c', 'AIM.EN.B2.058a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.001a', 'AIM.EN.C1.002b', 'AIM.EN.C1.003c', 'AIM.EN.C1.004a', 'AIM.EN.C1.005b', 'AIM.EN.C1.006c', 'AIM.EN.C1.007a', 'AIM.EN.C1.008b', 'AIM.EN.C1.009c', 'AIM.EN.C1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.001a', 'AIM.EN.C2.002b', 'AIM.EN.C1.003c', 'AIM.EN.C1.004a', 'AIM.EN.C1.005b', 'AIM.EN.C1.006c', 'AIM.EN.C1.007a', 'AIM.EN.C1.008b', 'AIM.EN.C1.009c', 'AIM.EN.C1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.002b', 'AIM.EN.C2.003c', 'AIM.EN.C1.001a', 'AIM.EN.C1.004a', 'AIM.EN.C1.005b', 'AIM.EN.C1.006c', 'AIM.EN.C1.007a', 'AIM.EN.C1.008b', 'AIM.EN.C1.009c', 'AIM.EN.C1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.003c', 'AIM.EN.C2.004a', 'AIM.EN.C1.001a', 'AIM.EN.C1.002b', 'AIM.EN.C1.005b', 'AIM.EN.C1.006c', 'AIM.EN.C1.007a', 'AIM.EN.C1.008b', 'AIM.EN.C1.009c', 'AIM.EN.C1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.004a', 'AIM.EN.C2.005b', 'AIM.EN.C1.001a', 'AIM.EN.C1.002b', 'AIM.EN.C1.003c', 'AIM.EN.C1.006c', 'AIM.EN.C1.007a', 'AIM.EN.C1.008b', 'AIM.EN.C1.009c', 'AIM.EN.C1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.005b', 'AIM.EN.C2.006c', 'AIM.EN.C1.001a', 'AIM.EN.C1.002b', 'AIM.EN.C1.003c', 'AIM.EN.C1.004a', 'AIM.EN.C1.007a', 'AIM.EN.C1.008b', 'AIM.EN.C1.009c', 'AIM.EN.C1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.006c', 'AIM.EN.C2.007a', 'AIM.EN.C1.001a', 'AIM.EN.C1.002b', 'AIM.EN.C1.003c', 'AIM.EN.C1.004a', 'AIM.EN.C1.005b', 'AIM.EN.C1.008b', 'AIM.EN.C1.009c', 'AIM.EN.C1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.007a', 'AIM.EN.C2.008b', 'AIM.EN.C1.001a', 'AIM.EN.C1.002b', 'AIM.EN.C1.003c', 'AIM.EN.C1.004a', 'AIM.EN.C1.005b', 'AIM.EN.C1.006c', 'AIM.EN.C1.009c', 'AIM.EN.C1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.008b', 'AIM.EN.C2.009c', 'AIM.EN.C1.001a', 'AIM.EN.C1.002b', 'AIM.EN.C1.003c', 'AIM.EN.C1.004a', 'AIM.EN.C1.005b', 'AIM.EN.C1.006c', 'AIM.EN.C1.007a', 'AIM.EN.C1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.009c', 'AIM.EN.C2.010a', 'AIM.EN.C1.001a', 'AIM.EN.C1.002b', 'AIM.EN.C1.003c', 'AIM.EN.C1.004a', 'AIM.EN.C1.005b', 'AIM.EN.C1.006c', 'AIM.EN.C1.007a', 'AIM.EN.C1.008b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.010a', 'AIM.EN.C2.011b', 'AIM.EN.C1.012c', 'AIM.EN.C1.013a', 'AIM.EN.C1.014b', 'AIM.EN.C1.015c', 'AIM.EN.C1.016a', 'AIM.EN.C1.017b', 'AIM.EN.C1.018c', 'AIM.EN.C1.019a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.011b', 'AIM.EN.C2.012c', 'AIM.EN.C1.013a', 'AIM.EN.C1.014b', 'AIM.EN.C1.015c', 'AIM.EN.C1.016a', 'AIM.EN.C1.017b', 'AIM.EN.C1.018c', 'AIM.EN.C1.019a', 'AIM.EN.C1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.012c', 'AIM.EN.C2.013a', 'AIM.EN.C1.011b', 'AIM.EN.C1.014b', 'AIM.EN.C1.015c', 'AIM.EN.C1.016a', 'AIM.EN.C1.017b', 'AIM.EN.C1.018c', 'AIM.EN.C1.019a', 'AIM.EN.C1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.013a', 'AIM.EN.C2.014b', 'AIM.EN.C1.011b', 'AIM.EN.C1.012c', 'AIM.EN.C1.015c', 'AIM.EN.C1.016a', 'AIM.EN.C1.017b', 'AIM.EN.C1.018c', 'AIM.EN.C1.019a', 'AIM.EN.C1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.014b', 'AIM.EN.C2.015c', 'AIM.EN.C1.011b', 'AIM.EN.C1.012c', 'AIM.EN.C1.013a', 'AIM.EN.C1.016a', 'AIM.EN.C1.017b', 'AIM.EN.C1.018c', 'AIM.EN.C1.019a', 'AIM.EN.C1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.015c', 'AIM.EN.C2.016a', 'AIM.EN.C1.011b', 'AIM.EN.C1.012c', 'AIM.EN.C1.013a', 'AIM.EN.C1.014b', 'AIM.EN.C1.017b', 'AIM.EN.C1.018c', 'AIM.EN.C1.019a', 'AIM.EN.C1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.016a', 'AIM.EN.C2.017b', 'AIM.EN.C1.011b', 'AIM.EN.C1.012c', 'AIM.EN.C1.013a', 'AIM.EN.C1.014b', 'AIM.EN.C1.015c', 'AIM.EN.C1.018c', 'AIM.EN.C1.019a', 'AIM.EN.C1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.017b', 'AIM.EN.C2.018c', 'AIM.EN.C1.011b', 'AIM.EN.C1.012c', 'AIM.EN.C1.013a', 'AIM.EN.C1.014b', 'AIM.EN.C1.015c', 'AIM.EN.C1.016a', 'AIM.EN.C1.019a', 'AIM.EN.C1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.018c', 'AIM.EN.C2.019a', 'AIM.EN.C1.011b', 'AIM.EN.C1.012c', 'AIM.EN.C1.013a', 'AIM.EN.C1.014b', 'AIM.EN.C1.015c', 'AIM.EN.C1.016a', 'AIM.EN.C1.017b', 'AIM.EN.C1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.019a', 'AIM.EN.C2.020b', 'AIM.EN.C1.011b', 'AIM.EN.C1.012c', 'AIM.EN.C1.013a', 'AIM.EN.C1.014b', 'AIM.EN.C1.015c', 'AIM.EN.C1.016a', 'AIM.EN.C1.017b', 'AIM.EN.C1.018c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.020b', 'AIM.EN.C2.021c', 'AIM.EN.C1.022a', 'AIM.EN.C1.023b', 'AIM.EN.C1.024c', 'AIM.EN.C1.025a', 'AIM.EN.C1.026b', 'AIM.EN.C1.027c', 'AIM.EN.C1.028a', 'AIM.EN.C1.029b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.021c', 'AIM.EN.C2.022a', 'AIM.EN.C1.023b', 'AIM.EN.C1.024c', 'AIM.EN.C1.025a', 'AIM.EN.C1.026b', 'AIM.EN.C1.027c', 'AIM.EN.C1.028a', 'AIM.EN.C1.029b', 'AIM.EN.B2.022a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.022a', 'AIM.EN.C2.023b', 'AIM.EN.C1.021c', 'AIM.EN.C1.024c', 'AIM.EN.C1.025a', 'AIM.EN.C1.026b', 'AIM.EN.C1.027c', 'AIM.EN.C1.028a', 'AIM.EN.C1.029b', 'AIM.EN.B2.023b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.023b', 'AIM.EN.C2.024c', 'AIM.EN.C1.021c', 'AIM.EN.C1.022a', 'AIM.EN.C1.025a', 'AIM.EN.C1.026b', 'AIM.EN.C1.027c', 'AIM.EN.C1.028a', 'AIM.EN.C1.029b', 'AIM.EN.B2.024c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.024c', 'AIM.EN.C2.025a', 'AIM.EN.C1.021c', 'AIM.EN.C1.022a', 'AIM.EN.C1.023b', 'AIM.EN.C1.026b', 'AIM.EN.C1.027c', 'AIM.EN.C1.028a', 'AIM.EN.C1.029b', 'AIM.EN.B2.025a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.025a', 'AIM.EN.C2.026b', 'AIM.EN.C1.021c', 'AIM.EN.C1.022a', 'AIM.EN.C1.023b', 'AIM.EN.C1.024c', 'AIM.EN.C1.027c', 'AIM.EN.C1.028a', 'AIM.EN.C1.029b', 'AIM.EN.B2.026b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.026b', 'AIM.EN.C2.027c', 'AIM.EN.C1.021c', 'AIM.EN.C1.022a', 'AIM.EN.C1.023b', 'AIM.EN.C1.024c', 'AIM.EN.C1.025a', 'AIM.EN.C1.028a', 'AIM.EN.C1.029b', 'AIM.EN.B2.027c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.027c', 'AIM.EN.C2.028a', 'AIM.EN.C1.021c', 'AIM.EN.C1.022a', 'AIM.EN.C1.023b', 'AIM.EN.C1.024c', 'AIM.EN.C1.025a', 'AIM.EN.C1.026b', 'AIM.EN.C1.029b', 'AIM.EN.B2.028a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.028a', 'AIM.EN.C2.029b', 'AIM.EN.C1.021c', 'AIM.EN.C1.022a', 'AIM.EN.C1.023b', 'AIM.EN.C1.024c', 'AIM.EN.C1.025a', 'AIM.EN.C1.026b', 'AIM.EN.C1.027c', 'AIM.EN.C1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.029b', 'AIM.EN.C2.030c', 'AIM.EN.C1.031a', 'AIM.EN.C1.032b', 'AIM.EN.C1.033c', 'AIM.EN.C1.034a', 'AIM.EN.C1.035b', 'AIM.EN.C1.036c', 'AIM.EN.C1.037a', 'AIM.EN.C1.038b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.030c', 'AIM.EN.C2.031a', 'AIM.EN.C1.032b', 'AIM.EN.C1.033c', 'AIM.EN.C1.034a', 'AIM.EN.C1.035b', 'AIM.EN.C1.036c', 'AIM.EN.C1.037a', 'AIM.EN.C1.038b', 'AIM.EN.B2.031a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.031a', 'AIM.EN.C2.032b', 'AIM.EN.C1.030c', 'AIM.EN.C1.033c', 'AIM.EN.C1.034a', 'AIM.EN.C1.035b', 'AIM.EN.C1.036c', 'AIM.EN.C1.037a', 'AIM.EN.C1.038b', 'AIM.EN.B2.032b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.032b', 'AIM.EN.C2.033c', 'AIM.EN.C1.030c', 'AIM.EN.C1.031a', 'AIM.EN.C1.034a', 'AIM.EN.C1.035b', 'AIM.EN.C1.036c', 'AIM.EN.C1.037a', 'AIM.EN.C1.038b', 'AIM.EN.B2.033c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.033c', 'AIM.EN.C2.034a', 'AIM.EN.C1.030c', 'AIM.EN.C1.031a', 'AIM.EN.C1.032b', 'AIM.EN.C1.035b', 'AIM.EN.C1.036c', 'AIM.EN.C1.037a', 'AIM.EN.C1.038b', 'AIM.EN.B2.034a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.034a', 'AIM.EN.C2.035b', 'AIM.EN.C1.030c', 'AIM.EN.C1.031a', 'AIM.EN.C1.032b', 'AIM.EN.C1.033c', 'AIM.EN.C1.036c', 'AIM.EN.C1.037a', 'AIM.EN.C1.038b', 'AIM.EN.B2.035b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.035b', 'AIM.EN.C2.036c', 'AIM.EN.C1.030c', 'AIM.EN.C1.031a', 'AIM.EN.C1.032b', 'AIM.EN.C1.033c', 'AIM.EN.C1.034a', 'AIM.EN.C1.037a', 'AIM.EN.C1.038b', 'AIM.EN.B2.036c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.036c', 'AIM.EN.C2.037a', 'AIM.EN.C1.030c', 'AIM.EN.C1.031a', 'AIM.EN.C1.032b', 'AIM.EN.C1.033c', 'AIM.EN.C1.034a', 'AIM.EN.C1.035b', 'AIM.EN.C1.038b', 'AIM.EN.B2.037a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.037a', 'AIM.EN.C2.038b', 'AIM.EN.C1.030c', 'AIM.EN.C1.031a', 'AIM.EN.C1.032b', 'AIM.EN.C1.033c', 'AIM.EN.C1.034a', 'AIM.EN.C1.035b', 'AIM.EN.C1.036c', 'AIM.EN.C1.039c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.038b', 'AIM.EN.C2.039c', 'AIM.EN.C1.040a', 'AIM.EN.C1.041b', 'AIM.EN.C1.042c', 'AIM.EN.C1.043a', 'AIM.EN.C1.044b', 'AIM.EN.C1.045c', 'AIM.EN.C1.046a', 'AIM.EN.C1.047b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.039c', 'AIM.EN.C2.040a', 'AIM.EN.C1.041b', 'AIM.EN.C1.042c', 'AIM.EN.C1.043a', 'AIM.EN.C1.044b', 'AIM.EN.C1.045c', 'AIM.EN.C1.046a', 'AIM.EN.C1.047b', 'AIM.EN.B2.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.040a', 'AIM.EN.C2.041b', 'AIM.EN.C1.039c', 'AIM.EN.C1.042c', 'AIM.EN.C1.043a', 'AIM.EN.C1.044b', 'AIM.EN.C1.045c', 'AIM.EN.C1.046a', 'AIM.EN.C1.047b', 'AIM.EN.B2.041b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.041b', 'AIM.EN.C2.042c', 'AIM.EN.C1.039c', 'AIM.EN.C1.040a', 'AIM.EN.C1.043a', 'AIM.EN.C1.044b', 'AIM.EN.C1.045c', 'AIM.EN.C1.046a', 'AIM.EN.C1.047b', 'AIM.EN.B2.042c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.042c', 'AIM.EN.C2.043a', 'AIM.EN.C1.039c', 'AIM.EN.C1.040a', 'AIM.EN.C1.041b', 'AIM.EN.C1.044b', 'AIM.EN.C1.045c', 'AIM.EN.C1.046a', 'AIM.EN.C1.047b', 'AIM.EN.B2.043a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.043a', 'AIM.EN.C2.044b', 'AIM.EN.C1.039c', 'AIM.EN.C1.040a', 'AIM.EN.C1.041b', 'AIM.EN.C1.042c', 'AIM.EN.C1.045c', 'AIM.EN.C1.046a', 'AIM.EN.C1.047b', 'AIM.EN.B2.044b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.044b', 'AIM.EN.C2.045c', 'AIM.EN.C1.039c', 'AIM.EN.C1.040a', 'AIM.EN.C1.041b', 'AIM.EN.C1.042c', 'AIM.EN.C1.043a', 'AIM.EN.C1.046a', 'AIM.EN.C1.047b', 'AIM.EN.B2.045c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.045c', 'AIM.EN.C2.046a', 'AIM.EN.C1.039c', 'AIM.EN.C1.040a', 'AIM.EN.C1.041b', 'AIM.EN.C1.042c', 'AIM.EN.C1.043a', 'AIM.EN.C1.044b', 'AIM.EN.C1.047b', 'AIM.EN.B2.046a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.046a', 'AIM.EN.C2.047b', 'AIM.EN.C1.039c', 'AIM.EN.C1.040a', 'AIM.EN.C1.041b', 'AIM.EN.C1.042c', 'AIM.EN.C1.043a', 'AIM.EN.C1.044b', 'AIM.EN.C1.045c', 'AIM.EN.C1.048c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.047b', 'AIM.EN.C2.048c', 'AIM.EN.C1.049a', 'AIM.EN.C1.050b', 'AIM.EN.C1.051c', 'AIM.EN.C1.052a', 'AIM.EN.C1.053b', 'AIM.EN.C1.054c', 'AIM.EN.C1.055a', 'AIM.EN.C1.056b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.048c', 'AIM.EN.C2.049a', 'AIM.EN.C1.050b', 'AIM.EN.C1.051c', 'AIM.EN.C1.052a', 'AIM.EN.C1.053b', 'AIM.EN.C1.054c', 'AIM.EN.C1.055a', 'AIM.EN.C1.056b', 'AIM.EN.B2.049a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.049a', 'AIM.EN.C2.050b', 'AIM.EN.C1.048c', 'AIM.EN.C1.051c', 'AIM.EN.C1.052a', 'AIM.EN.C1.053b', 'AIM.EN.C1.054c', 'AIM.EN.C1.055a', 'AIM.EN.C1.056b', 'AIM.EN.B2.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.050b', 'AIM.EN.C2.051c', 'AIM.EN.C1.048c', 'AIM.EN.C1.049a', 'AIM.EN.C1.052a', 'AIM.EN.C1.053b', 'AIM.EN.C1.054c', 'AIM.EN.C1.055a', 'AIM.EN.C1.056b', 'AIM.EN.B2.051c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.051c', 'AIM.EN.C2.052a', 'AIM.EN.C1.048c', 'AIM.EN.C1.049a', 'AIM.EN.C1.050b', 'AIM.EN.C1.053b', 'AIM.EN.C1.054c', 'AIM.EN.C1.055a', 'AIM.EN.C1.056b', 'AIM.EN.B2.052a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.052a', 'AIM.EN.C2.053b', 'AIM.EN.C1.048c', 'AIM.EN.C1.049a', 'AIM.EN.C1.050b', 'AIM.EN.C1.051c', 'AIM.EN.C1.054c', 'AIM.EN.C1.055a', 'AIM.EN.C1.056b', 'AIM.EN.B2.053b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.053b', 'AIM.EN.C2.054c', 'AIM.EN.C1.048c', 'AIM.EN.C1.049a', 'AIM.EN.C1.050b', 'AIM.EN.C1.051c', 'AIM.EN.C1.052a', 'AIM.EN.C1.055a', 'AIM.EN.C1.056b', 'AIM.EN.B2.054c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.054c', 'AIM.EN.C2.055a', 'AIM.EN.C1.048c', 'AIM.EN.C1.049a', 'AIM.EN.C1.050b', 'AIM.EN.C1.051c', 'AIM.EN.C1.052a', 'AIM.EN.C1.053b', 'AIM.EN.C1.056b', 'AIM.EN.B2.055a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C1.055a', 'AIM.EN.C2.056b', 'AIM.EN.C1.048c', 'AIM.EN.C1.049a', 'AIM.EN.C1.050b', 'AIM.EN.C1.051c', 'AIM.EN.C1.052a', 'AIM.EN.C1.053b', 'AIM.EN.C1.054c', 'AIM.EN.B2.056b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.002b', 'AIM.EN.C2.003c', 'AIM.EN.C2.004a', 'AIM.EN.C2.005b', 'AIM.EN.C2.006c', 'AIM.EN.C2.007a', 'AIM.EN.C2.008b', 'AIM.EN.C2.009c', 'AIM.EN.C1.001a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.001a', 'AIM.EN.C2.003c', 'AIM.EN.C2.004a', 'AIM.EN.C2.005b', 'AIM.EN.C2.006c', 'AIM.EN.C2.007a', 'AIM.EN.C2.008b', 'AIM.EN.C2.009c', 'AIM.EN.C1.002b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.002b', 'AIM.EN.C2.001a', 'AIM.EN.C2.004a', 'AIM.EN.C2.005b', 'AIM.EN.C2.006c', 'AIM.EN.C2.007a', 'AIM.EN.C2.008b', 'AIM.EN.C2.009c', 'AIM.EN.C1.003c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.003c', 'AIM.EN.C2.001a', 'AIM.EN.C2.002b', 'AIM.EN.C2.005b', 'AIM.EN.C2.006c', 'AIM.EN.C2.007a', 'AIM.EN.C2.008b', 'AIM.EN.C2.009c', 'AIM.EN.C1.004a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.004a', 'AIM.EN.C2.001a', 'AIM.EN.C2.002b', 'AIM.EN.C2.003c', 'AIM.EN.C2.006c', 'AIM.EN.C2.007a', 'AIM.EN.C2.008b', 'AIM.EN.C2.009c', 'AIM.EN.C1.005b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.005b', 'AIM.EN.C2.001a', 'AIM.EN.C2.002b', 'AIM.EN.C2.003c', 'AIM.EN.C2.004a', 'AIM.EN.C2.007a', 'AIM.EN.C2.008b', 'AIM.EN.C2.009c', 'AIM.EN.C1.006c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.006c', 'AIM.EN.C2.001a', 'AIM.EN.C2.002b', 'AIM.EN.C2.003c', 'AIM.EN.C2.004a', 'AIM.EN.C2.005b', 'AIM.EN.C2.008b', 'AIM.EN.C2.009c', 'AIM.EN.C1.007a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.007a', 'AIM.EN.C2.001a', 'AIM.EN.C2.002b', 'AIM.EN.C2.003c', 'AIM.EN.C2.004a', 'AIM.EN.C2.005b', 'AIM.EN.C2.006c', 'AIM.EN.C2.009c', 'AIM.EN.C1.008b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.008b', 'AIM.EN.C2.001a', 'AIM.EN.C2.002b', 'AIM.EN.C2.003c', 'AIM.EN.C2.004a', 'AIM.EN.C2.005b', 'AIM.EN.C2.006c', 'AIM.EN.C2.007a', 'AIM.EN.C2.010a', 'AIM.EN.C1.009c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.009c', 'AIM.EN.C2.011b', 'AIM.EN.C2.012c', 'AIM.EN.C2.013a', 'AIM.EN.C2.014b', 'AIM.EN.C2.015c', 'AIM.EN.C2.016a', 'AIM.EN.C2.017b', 'AIM.EN.C2.018c', 'AIM.EN.C1.010a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.010a', 'AIM.EN.C2.012c', 'AIM.EN.C2.013a', 'AIM.EN.C2.014b', 'AIM.EN.C2.015c', 'AIM.EN.C2.016a', 'AIM.EN.C2.017b', 'AIM.EN.C2.018c', 'AIM.EN.C1.011b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.011b', 'AIM.EN.C2.010a', 'AIM.EN.C2.013a', 'AIM.EN.C2.014b', 'AIM.EN.C2.015c', 'AIM.EN.C2.016a', 'AIM.EN.C2.017b', 'AIM.EN.C2.018c', 'AIM.EN.C1.012c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.012c', 'AIM.EN.C2.010a', 'AIM.EN.C2.011b', 'AIM.EN.C2.014b', 'AIM.EN.C2.015c', 'AIM.EN.C2.016a', 'AIM.EN.C2.017b', 'AIM.EN.C2.018c', 'AIM.EN.C1.013a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.013a', 'AIM.EN.C2.010a', 'AIM.EN.C2.011b', 'AIM.EN.C2.012c', 'AIM.EN.C2.015c', 'AIM.EN.C2.016a', 'AIM.EN.C2.017b', 'AIM.EN.C2.018c', 'AIM.EN.C1.014b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.014b', 'AIM.EN.C2.010a', 'AIM.EN.C2.011b', 'AIM.EN.C2.012c', 'AIM.EN.C2.013a', 'AIM.EN.C2.016a', 'AIM.EN.C2.017b', 'AIM.EN.C2.018c', 'AIM.EN.C1.015c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.015c', 'AIM.EN.C2.010a', 'AIM.EN.C2.011b', 'AIM.EN.C2.012c', 'AIM.EN.C2.013a', 'AIM.EN.C2.014b', 'AIM.EN.C2.017b', 'AIM.EN.C2.018c', 'AIM.EN.C1.016a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.016a', 'AIM.EN.C2.010a', 'AIM.EN.C2.011b', 'AIM.EN.C2.012c', 'AIM.EN.C2.013a', 'AIM.EN.C2.014b', 'AIM.EN.C2.015c', 'AIM.EN.C2.018c', 'AIM.EN.C1.017b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.017b', 'AIM.EN.C2.010a', 'AIM.EN.C2.011b', 'AIM.EN.C2.012c', 'AIM.EN.C2.013a', 'AIM.EN.C2.014b', 'AIM.EN.C2.015c', 'AIM.EN.C2.016a', 'AIM.EN.C2.019a', 'AIM.EN.C1.018c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.018c', 'AIM.EN.C2.020b', 'AIM.EN.C2.021c', 'AIM.EN.C2.022a', 'AIM.EN.C2.023b', 'AIM.EN.C2.024c', 'AIM.EN.C2.025a', 'AIM.EN.C2.026b', 'AIM.EN.C2.027c', 'AIM.EN.C1.019a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.019a', 'AIM.EN.C2.021c', 'AIM.EN.C2.022a', 'AIM.EN.C2.023b', 'AIM.EN.C2.024c', 'AIM.EN.C2.025a', 'AIM.EN.C2.026b', 'AIM.EN.C2.027c', 'AIM.EN.C1.020b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.020b', 'AIM.EN.C2.019a', 'AIM.EN.C2.022a', 'AIM.EN.C2.023b', 'AIM.EN.C2.024c', 'AIM.EN.C2.025a', 'AIM.EN.C2.026b', 'AIM.EN.C2.027c', 'AIM.EN.C1.021c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.021c', 'AIM.EN.C2.019a', 'AIM.EN.C2.020b', 'AIM.EN.C2.023b', 'AIM.EN.C2.024c', 'AIM.EN.C2.025a', 'AIM.EN.C2.026b', 'AIM.EN.C2.027c', 'AIM.EN.C1.022a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.022a', 'AIM.EN.C2.019a', 'AIM.EN.C2.020b', 'AIM.EN.C2.021c', 'AIM.EN.C2.024c', 'AIM.EN.C2.025a', 'AIM.EN.C2.026b', 'AIM.EN.C2.027c', 'AIM.EN.C1.023b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.023b', 'AIM.EN.C2.019a', 'AIM.EN.C2.020b', 'AIM.EN.C2.021c', 'AIM.EN.C2.022a', 'AIM.EN.C2.025a', 'AIM.EN.C2.026b', 'AIM.EN.C2.027c', 'AIM.EN.C1.024c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.024c', 'AIM.EN.C2.019a', 'AIM.EN.C2.020b', 'AIM.EN.C2.021c', 'AIM.EN.C2.022a', 'AIM.EN.C2.023b', 'AIM.EN.C2.026b', 'AIM.EN.C2.027c', 'AIM.EN.C1.025a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.025a', 'AIM.EN.C2.019a', 'AIM.EN.C2.020b', 'AIM.EN.C2.021c', 'AIM.EN.C2.022a', 'AIM.EN.C2.023b', 'AIM.EN.C2.024c', 'AIM.EN.C2.027c', 'AIM.EN.C1.026b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.026b', 'AIM.EN.C2.019a', 'AIM.EN.C2.020b', 'AIM.EN.C2.021c', 'AIM.EN.C2.022a', 'AIM.EN.C2.023b', 'AIM.EN.C2.024c', 'AIM.EN.C2.025a', 'AIM.EN.C2.028a', 'AIM.EN.C1.027c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.027c', 'AIM.EN.C2.029b', 'AIM.EN.C2.030c', 'AIM.EN.C2.031a', 'AIM.EN.C2.032b', 'AIM.EN.C2.033c', 'AIM.EN.C2.034a', 'AIM.EN.C2.035b', 'AIM.EN.C2.036c', 'AIM.EN.C1.028a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.028a', 'AIM.EN.C2.030c', 'AIM.EN.C2.031a', 'AIM.EN.C2.032b', 'AIM.EN.C2.033c', 'AIM.EN.C2.034a', 'AIM.EN.C2.035b', 'AIM.EN.C2.036c', 'AIM.EN.C1.029b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.029b', 'AIM.EN.C2.028a', 'AIM.EN.C2.031a', 'AIM.EN.C2.032b', 'AIM.EN.C2.033c', 'AIM.EN.C2.034a', 'AIM.EN.C2.035b', 'AIM.EN.C2.036c', 'AIM.EN.C1.030c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.030c', 'AIM.EN.C2.028a', 'AIM.EN.C2.029b', 'AIM.EN.C2.032b', 'AIM.EN.C2.033c', 'AIM.EN.C2.034a', 'AIM.EN.C2.035b', 'AIM.EN.C2.036c', 'AIM.EN.C1.031a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.031a', 'AIM.EN.C2.028a', 'AIM.EN.C2.029b', 'AIM.EN.C2.030c', 'AIM.EN.C2.033c', 'AIM.EN.C2.034a', 'AIM.EN.C2.035b', 'AIM.EN.C2.036c', 'AIM.EN.C1.032b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.032b', 'AIM.EN.C2.028a', 'AIM.EN.C2.029b', 'AIM.EN.C2.030c', 'AIM.EN.C2.031a', 'AIM.EN.C2.034a', 'AIM.EN.C2.035b', 'AIM.EN.C2.036c', 'AIM.EN.C1.033c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.033c', 'AIM.EN.C2.028a', 'AIM.EN.C2.029b', 'AIM.EN.C2.030c', 'AIM.EN.C2.031a', 'AIM.EN.C2.032b', 'AIM.EN.C2.035b', 'AIM.EN.C2.036c', 'AIM.EN.C1.034a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.034a', 'AIM.EN.C2.028a', 'AIM.EN.C2.029b', 'AIM.EN.C2.030c', 'AIM.EN.C2.031a', 'AIM.EN.C2.032b', 'AIM.EN.C2.033c', 'AIM.EN.C2.036c', 'AIM.EN.C1.035b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.035b', 'AIM.EN.C2.028a', 'AIM.EN.C2.029b', 'AIM.EN.C2.030c', 'AIM.EN.C2.031a', 'AIM.EN.C2.032b', 'AIM.EN.C2.033c', 'AIM.EN.C2.034a', 'AIM.EN.C2.037a', 'AIM.EN.C1.036c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.036c', 'AIM.EN.C2.038b', 'AIM.EN.C2.039c', 'AIM.EN.C2.040a', 'AIM.EN.C2.041b', 'AIM.EN.C2.042c', 'AIM.EN.C2.043a', 'AIM.EN.C2.044b', 'AIM.EN.C2.045c', 'AIM.EN.C1.037a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.037a', 'AIM.EN.C2.039c', 'AIM.EN.C2.040a', 'AIM.EN.C2.041b', 'AIM.EN.C2.042c', 'AIM.EN.C2.043a', 'AIM.EN.C2.044b', 'AIM.EN.C2.045c', 'AIM.EN.C1.038b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.038b', 'AIM.EN.C2.037a', 'AIM.EN.C2.040a', 'AIM.EN.C2.041b', 'AIM.EN.C2.042c', 'AIM.EN.C2.043a', 'AIM.EN.C2.044b', 'AIM.EN.C2.045c', 'AIM.EN.C1.039c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.039c', 'AIM.EN.C2.037a', 'AIM.EN.C2.038b', 'AIM.EN.C2.041b', 'AIM.EN.C2.042c', 'AIM.EN.C2.043a', 'AIM.EN.C2.044b', 'AIM.EN.C2.045c', 'AIM.EN.C1.040a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.040a', 'AIM.EN.C2.037a', 'AIM.EN.C2.038b', 'AIM.EN.C2.039c', 'AIM.EN.C2.042c', 'AIM.EN.C2.043a', 'AIM.EN.C2.044b', 'AIM.EN.C2.045c', 'AIM.EN.C1.041b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.041b', 'AIM.EN.C2.037a', 'AIM.EN.C2.038b', 'AIM.EN.C2.039c', 'AIM.EN.C2.040a', 'AIM.EN.C2.043a', 'AIM.EN.C2.044b', 'AIM.EN.C2.045c', 'AIM.EN.C1.042c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.042c', 'AIM.EN.C2.037a', 'AIM.EN.C2.038b', 'AIM.EN.C2.039c', 'AIM.EN.C2.040a', 'AIM.EN.C2.041b', 'AIM.EN.C2.044b', 'AIM.EN.C2.045c', 'AIM.EN.C1.043a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.043a', 'AIM.EN.C2.037a', 'AIM.EN.C2.038b', 'AIM.EN.C2.039c', 'AIM.EN.C2.040a', 'AIM.EN.C2.041b', 'AIM.EN.C2.042c', 'AIM.EN.C2.045c', 'AIM.EN.C1.044b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.044b', 'AIM.EN.C2.037a', 'AIM.EN.C2.038b', 'AIM.EN.C2.039c', 'AIM.EN.C2.040a', 'AIM.EN.C2.041b', 'AIM.EN.C2.042c', 'AIM.EN.C2.043a', 'AIM.EN.C2.046a', 'AIM.EN.C1.045c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.045c', 'AIM.EN.C2.047b', 'AIM.EN.C2.048c', 'AIM.EN.C2.049a', 'AIM.EN.C2.050b', 'AIM.EN.C2.051c', 'AIM.EN.C2.052a', 'AIM.EN.C2.053b', 'AIM.EN.C2.054c', 'AIM.EN.C1.046a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.046a', 'AIM.EN.C2.048c', 'AIM.EN.C2.049a', 'AIM.EN.C2.050b', 'AIM.EN.C2.051c', 'AIM.EN.C2.052a', 'AIM.EN.C2.053b', 'AIM.EN.C2.054c', 'AIM.EN.C1.047b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.047b', 'AIM.EN.C2.046a', 'AIM.EN.C2.049a', 'AIM.EN.C2.050b', 'AIM.EN.C2.051c', 'AIM.EN.C2.052a', 'AIM.EN.C2.053b', 'AIM.EN.C2.054c', 'AIM.EN.C1.048c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.048c', 'AIM.EN.C2.046a', 'AIM.EN.C2.047b', 'AIM.EN.C2.050b', 'AIM.EN.C2.051c', 'AIM.EN.C2.052a', 'AIM.EN.C2.053b', 'AIM.EN.C2.054c', 'AIM.EN.C1.049a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.049a', 'AIM.EN.C2.046a', 'AIM.EN.C2.047b', 'AIM.EN.C2.048c', 'AIM.EN.C2.051c', 'AIM.EN.C2.052a', 'AIM.EN.C2.053b', 'AIM.EN.C2.054c', 'AIM.EN.C1.050b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.050b', 'AIM.EN.C2.046a', 'AIM.EN.C2.047b', 'AIM.EN.C2.048c', 'AIM.EN.C2.049a', 'AIM.EN.C2.052a', 'AIM.EN.C2.053b', 'AIM.EN.C2.054c', 'AIM.EN.C1.051c']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.051c', 'AIM.EN.C2.046a', 'AIM.EN.C2.047b', 'AIM.EN.C2.048c', 'AIM.EN.C2.049a', 'AIM.EN.C2.050b', 'AIM.EN.C2.053b', 'AIM.EN.C2.054c', 'AIM.EN.C1.052a']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.052a', 'AIM.EN.C2.046a', 'AIM.EN.C2.047b', 'AIM.EN.C2.048c', 'AIM.EN.C2.049a', 'AIM.EN.C2.050b', 'AIM.EN.C2.051c', 'AIM.EN.C2.054c', 'AIM.EN.C1.053b']</t>
-  </si>
-  <si>
-    <t>['AIM.EN.C2.053b', 'AIM.EN.C2.046a', 'AIM.EN.C2.047b', 'AIM.EN.C2.048c', 'AIM.EN.C2.049a', 'AIM.EN.C2.050b', 'AIM.EN.C2.051c', 'AIM.EN.C2.052a', 'AIM.EN.C1.054c']</t>
   </si>
   <si>
     <t>lessonId</t>
@@ -5778,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F349" workbookViewId="0">
-      <selection activeCell="K350" sqref="K350"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5832,11 +4779,9 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="11" t="s">
         <v>1325</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>1676</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -5874,11 +4819,9 @@
       <c r="I2" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="13" t="s">
         <v>1326</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>1677</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -5909,11 +4852,9 @@
       <c r="I3" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="13" t="s">
         <v>1327</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -5944,11 +4885,9 @@
       <c r="I4" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="12"/>
+      <c r="K4" s="13" t="s">
         <v>1328</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>1679</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -5979,11 +4918,9 @@
       <c r="I5" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="13" t="s">
         <v>1329</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -6014,11 +4951,9 @@
       <c r="I6" s="7" t="s">
         <v>984</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="13" t="s">
         <v>1330</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>1681</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -6049,11 +4984,9 @@
       <c r="I7" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="12"/>
+      <c r="K7" s="13" t="s">
         <v>1331</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -6084,11 +5017,9 @@
       <c r="I8" s="7" t="s">
         <v>986</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>1332</v>
-      </c>
+      <c r="J8" s="12"/>
       <c r="K8" s="13" t="s">
-        <v>1677</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -6119,11 +5050,9 @@
       <c r="I9" s="7" t="s">
         <v>987</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>1333</v>
-      </c>
+      <c r="J9" s="12"/>
       <c r="K9" s="13" t="s">
-        <v>1678</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -6154,11 +5083,9 @@
       <c r="I10" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>1334</v>
-      </c>
+      <c r="J10" s="12"/>
       <c r="K10" s="13" t="s">
-        <v>1679</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -6189,11 +5116,9 @@
       <c r="I11" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>1335</v>
-      </c>
+      <c r="J11" s="12"/>
       <c r="K11" s="13" t="s">
-        <v>1680</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -6224,11 +5149,9 @@
       <c r="I12" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>1336</v>
-      </c>
+      <c r="J12" s="12"/>
       <c r="K12" s="13" t="s">
-        <v>1681</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -6259,11 +5182,9 @@
       <c r="I13" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>1337</v>
-      </c>
+      <c r="J13" s="12"/>
       <c r="K13" s="13" t="s">
-        <v>1682</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -6294,11 +5215,9 @@
       <c r="I14" s="7" t="s">
         <v>992</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>1338</v>
-      </c>
+      <c r="J14" s="12"/>
       <c r="K14" s="13" t="s">
-        <v>1677</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -6329,11 +5248,9 @@
       <c r="I15" s="7" t="s">
         <v>993</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>1339</v>
-      </c>
+      <c r="J15" s="12"/>
       <c r="K15" s="13" t="s">
-        <v>1678</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
@@ -6364,11 +5281,9 @@
       <c r="I16" s="7" t="s">
         <v>994</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>1340</v>
-      </c>
+      <c r="J16" s="12"/>
       <c r="K16" s="13" t="s">
-        <v>1679</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -6399,11 +5314,9 @@
       <c r="I17" s="7" t="s">
         <v>995</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>1341</v>
-      </c>
+      <c r="J17" s="12"/>
       <c r="K17" s="13" t="s">
-        <v>1680</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -6434,11 +5347,9 @@
       <c r="I18" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>1342</v>
-      </c>
+      <c r="J18" s="12"/>
       <c r="K18" s="13" t="s">
-        <v>1681</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -6469,11 +5380,9 @@
       <c r="I19" s="7" t="s">
         <v>997</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>1343</v>
-      </c>
+      <c r="J19" s="12"/>
       <c r="K19" s="13" t="s">
-        <v>1682</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -6504,11 +5413,9 @@
       <c r="I20" s="7" t="s">
         <v>998</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>1344</v>
-      </c>
+      <c r="J20" s="12"/>
       <c r="K20" s="13" t="s">
-        <v>1677</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -6539,11 +5446,9 @@
       <c r="I21" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>1345</v>
-      </c>
+      <c r="J21" s="12"/>
       <c r="K21" s="13" t="s">
-        <v>1678</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6574,11 +5479,9 @@
       <c r="I22" s="7" t="s">
         <v>1000</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>1346</v>
-      </c>
+      <c r="J22" s="12"/>
       <c r="K22" s="13" t="s">
-        <v>1679</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6609,11 +5512,9 @@
       <c r="I23" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>1347</v>
-      </c>
+      <c r="J23" s="12"/>
       <c r="K23" s="13" t="s">
-        <v>1680</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6644,11 +5545,9 @@
       <c r="I24" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>1348</v>
-      </c>
+      <c r="J24" s="12"/>
       <c r="K24" s="13" t="s">
-        <v>1681</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6679,11 +5578,9 @@
       <c r="I25" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>1349</v>
-      </c>
+      <c r="J25" s="12"/>
       <c r="K25" s="13" t="s">
-        <v>1682</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6714,11 +5611,9 @@
       <c r="I26" s="7" t="s">
         <v>1004</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>1350</v>
-      </c>
+      <c r="J26" s="12"/>
       <c r="K26" s="13" t="s">
-        <v>1677</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6749,11 +5644,9 @@
       <c r="I27" s="7" t="s">
         <v>1005</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>1351</v>
-      </c>
+      <c r="J27" s="12"/>
       <c r="K27" s="13" t="s">
-        <v>1678</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6784,11 +5677,9 @@
       <c r="I28" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>1352</v>
-      </c>
+      <c r="J28" s="12"/>
       <c r="K28" s="13" t="s">
-        <v>1679</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6819,11 +5710,9 @@
       <c r="I29" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>1353</v>
-      </c>
+      <c r="J29" s="12"/>
       <c r="K29" s="13" t="s">
-        <v>1680</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6854,11 +5743,9 @@
       <c r="I30" s="7" t="s">
         <v>1008</v>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>1354</v>
-      </c>
+      <c r="J30" s="12"/>
       <c r="K30" s="13" t="s">
-        <v>1681</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6889,11 +5776,9 @@
       <c r="I31" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>1355</v>
-      </c>
+      <c r="J31" s="12"/>
       <c r="K31" s="13" t="s">
-        <v>1682</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6924,11 +5809,9 @@
       <c r="I32" s="7" t="s">
         <v>1010</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>1356</v>
-      </c>
+      <c r="J32" s="12"/>
       <c r="K32" s="13" t="s">
-        <v>1677</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6959,11 +5842,9 @@
       <c r="I33" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>1357</v>
-      </c>
+      <c r="J33" s="12"/>
       <c r="K33" s="13" t="s">
-        <v>1678</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -6994,11 +5875,9 @@
       <c r="I34" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>1358</v>
-      </c>
+      <c r="J34" s="12"/>
       <c r="K34" s="13" t="s">
-        <v>1679</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7029,11 +5908,9 @@
       <c r="I35" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>1359</v>
-      </c>
+      <c r="J35" s="12"/>
       <c r="K35" s="13" t="s">
-        <v>1680</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7064,11 +5941,9 @@
       <c r="I36" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>1360</v>
-      </c>
+      <c r="J36" s="12"/>
       <c r="K36" s="13" t="s">
-        <v>1681</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7099,11 +5974,9 @@
       <c r="I37" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="J37" s="12" t="s">
-        <v>1361</v>
-      </c>
+      <c r="J37" s="12"/>
       <c r="K37" s="13" t="s">
-        <v>1682</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7134,11 +6007,9 @@
       <c r="I38" s="7" t="s">
         <v>1016</v>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>1362</v>
-      </c>
+      <c r="J38" s="12"/>
       <c r="K38" s="13" t="s">
-        <v>1677</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7169,11 +6040,9 @@
       <c r="I39" s="7" t="s">
         <v>1017</v>
       </c>
-      <c r="J39" s="12" t="s">
-        <v>1363</v>
-      </c>
+      <c r="J39" s="12"/>
       <c r="K39" s="13" t="s">
-        <v>1678</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7204,11 +6073,9 @@
       <c r="I40" s="7" t="s">
         <v>1018</v>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>1364</v>
-      </c>
+      <c r="J40" s="12"/>
       <c r="K40" s="13" t="s">
-        <v>1679</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7239,11 +6106,9 @@
       <c r="I41" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="J41" s="12" t="s">
-        <v>1365</v>
-      </c>
+      <c r="J41" s="12"/>
       <c r="K41" s="13" t="s">
-        <v>1680</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -7274,11 +6139,9 @@
       <c r="I42" s="7" t="s">
         <v>1020</v>
       </c>
-      <c r="J42" s="12" t="s">
-        <v>1366</v>
-      </c>
+      <c r="J42" s="12"/>
       <c r="K42" s="13" t="s">
-        <v>1681</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -7309,11 +6172,9 @@
       <c r="I43" s="7" t="s">
         <v>1021</v>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>1367</v>
-      </c>
+      <c r="J43" s="12"/>
       <c r="K43" s="13" t="s">
-        <v>1682</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -7344,11 +6205,9 @@
       <c r="I44" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>1368</v>
-      </c>
+      <c r="J44" s="12"/>
       <c r="K44" s="13" t="s">
-        <v>1677</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -7379,11 +6238,9 @@
       <c r="I45" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>1369</v>
-      </c>
+      <c r="J45" s="12"/>
       <c r="K45" s="13" t="s">
-        <v>1678</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -7414,11 +6271,9 @@
       <c r="I46" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>1370</v>
-      </c>
+      <c r="J46" s="12"/>
       <c r="K46" s="13" t="s">
-        <v>1679</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -7449,11 +6304,9 @@
       <c r="I47" s="7" t="s">
         <v>1025</v>
       </c>
-      <c r="J47" s="12" t="s">
-        <v>1371</v>
-      </c>
+      <c r="J47" s="12"/>
       <c r="K47" s="13" t="s">
-        <v>1680</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -7484,11 +6337,9 @@
       <c r="I48" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>1372</v>
-      </c>
+      <c r="J48" s="12"/>
       <c r="K48" s="13" t="s">
-        <v>1681</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -7519,11 +6370,9 @@
       <c r="I49" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="J49" s="12" t="s">
-        <v>1373</v>
-      </c>
+      <c r="J49" s="12"/>
       <c r="K49" s="13" t="s">
-        <v>1682</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -7554,11 +6403,9 @@
       <c r="I50" s="7" t="s">
         <v>1028</v>
       </c>
-      <c r="J50" s="12" t="s">
-        <v>1374</v>
-      </c>
+      <c r="J50" s="12"/>
       <c r="K50" s="13" t="s">
-        <v>1677</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -7589,11 +6436,9 @@
       <c r="I51" s="7" t="s">
         <v>1029</v>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>1375</v>
-      </c>
+      <c r="J51" s="12"/>
       <c r="K51" s="13" t="s">
-        <v>1678</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7624,11 +6469,9 @@
       <c r="I52" s="7" t="s">
         <v>1030</v>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>1376</v>
-      </c>
+      <c r="J52" s="12"/>
       <c r="K52" s="13" t="s">
-        <v>1679</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7659,11 +6502,9 @@
       <c r="I53" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="J53" s="12" t="s">
-        <v>1377</v>
-      </c>
+      <c r="J53" s="12"/>
       <c r="K53" s="13" t="s">
-        <v>1680</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7694,11 +6535,9 @@
       <c r="I54" s="7" t="s">
         <v>1032</v>
       </c>
-      <c r="J54" s="12" t="s">
-        <v>1378</v>
-      </c>
+      <c r="J54" s="12"/>
       <c r="K54" s="13" t="s">
-        <v>1681</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7729,11 +6568,9 @@
       <c r="I55" s="7" t="s">
         <v>1033</v>
       </c>
-      <c r="J55" s="12" t="s">
-        <v>1379</v>
-      </c>
+      <c r="J55" s="12"/>
       <c r="K55" s="13" t="s">
-        <v>1682</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7764,11 +6601,9 @@
       <c r="I56" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="J56" s="12" t="s">
-        <v>1380</v>
-      </c>
+      <c r="J56" s="12"/>
       <c r="K56" s="13" t="s">
-        <v>1677</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7799,11 +6634,9 @@
       <c r="I57" s="7" t="s">
         <v>1035</v>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>1381</v>
-      </c>
+      <c r="J57" s="12"/>
       <c r="K57" s="13" t="s">
-        <v>1678</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7834,11 +6667,9 @@
       <c r="I58" s="7" t="s">
         <v>1036</v>
       </c>
-      <c r="J58" s="12" t="s">
-        <v>1382</v>
-      </c>
+      <c r="J58" s="12"/>
       <c r="K58" s="13" t="s">
-        <v>1679</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7869,11 +6700,9 @@
       <c r="I59" s="7" t="s">
         <v>1037</v>
       </c>
-      <c r="J59" s="12" t="s">
-        <v>1383</v>
-      </c>
+      <c r="J59" s="12"/>
       <c r="K59" s="13" t="s">
-        <v>1680</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7904,11 +6733,9 @@
       <c r="I60" s="7" t="s">
         <v>1038</v>
       </c>
-      <c r="J60" s="12" t="s">
-        <v>1384</v>
-      </c>
+      <c r="J60" s="12"/>
       <c r="K60" s="13" t="s">
-        <v>1681</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -7939,11 +6766,9 @@
       <c r="I61" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="J61" s="12" t="s">
-        <v>1385</v>
-      </c>
+      <c r="J61" s="12"/>
       <c r="K61" s="13" t="s">
-        <v>1682</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -7974,11 +6799,9 @@
       <c r="I62" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="J62" s="12" t="s">
-        <v>1386</v>
-      </c>
+      <c r="J62" s="12"/>
       <c r="K62" s="13" t="s">
-        <v>1683</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8009,11 +6832,9 @@
       <c r="I63" s="7" t="s">
         <v>1040</v>
       </c>
-      <c r="J63" s="12" t="s">
-        <v>1387</v>
-      </c>
+      <c r="J63" s="12"/>
       <c r="K63" s="13" t="s">
-        <v>1684</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8044,11 +6865,9 @@
       <c r="I64" s="7" t="s">
         <v>1041</v>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>1388</v>
-      </c>
+      <c r="J64" s="12"/>
       <c r="K64" s="13" t="s">
-        <v>1685</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8079,11 +6898,9 @@
       <c r="I65" s="7" t="s">
         <v>1042</v>
       </c>
-      <c r="J65" s="12" t="s">
-        <v>1389</v>
-      </c>
+      <c r="J65" s="12"/>
       <c r="K65" s="13" t="s">
-        <v>1686</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8114,11 +6931,9 @@
       <c r="I66" s="7" t="s">
         <v>1043</v>
       </c>
-      <c r="J66" s="12" t="s">
-        <v>1390</v>
-      </c>
+      <c r="J66" s="12"/>
       <c r="K66" s="13" t="s">
-        <v>1687</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8149,11 +6964,9 @@
       <c r="I67" s="7" t="s">
         <v>1044</v>
       </c>
-      <c r="J67" s="12" t="s">
-        <v>1391</v>
-      </c>
+      <c r="J67" s="12"/>
       <c r="K67" s="13" t="s">
-        <v>1688</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8184,11 +6997,9 @@
       <c r="I68" s="7" t="s">
         <v>1045</v>
       </c>
-      <c r="J68" s="12" t="s">
-        <v>1392</v>
-      </c>
+      <c r="J68" s="12"/>
       <c r="K68" s="13" t="s">
-        <v>1683</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8219,11 +7030,9 @@
       <c r="I69" s="7" t="s">
         <v>1046</v>
       </c>
-      <c r="J69" s="12" t="s">
-        <v>1393</v>
-      </c>
+      <c r="J69" s="12"/>
       <c r="K69" s="13" t="s">
-        <v>1684</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8254,11 +7063,9 @@
       <c r="I70" s="7" t="s">
         <v>1047</v>
       </c>
-      <c r="J70" s="12" t="s">
-        <v>1394</v>
-      </c>
+      <c r="J70" s="12"/>
       <c r="K70" s="13" t="s">
-        <v>1685</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8289,11 +7096,9 @@
       <c r="I71" s="7" t="s">
         <v>1048</v>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>1395</v>
-      </c>
+      <c r="J71" s="12"/>
       <c r="K71" s="13" t="s">
-        <v>1686</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8324,11 +7129,9 @@
       <c r="I72" s="7" t="s">
         <v>1049</v>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>1396</v>
-      </c>
+      <c r="J72" s="12"/>
       <c r="K72" s="13" t="s">
-        <v>1687</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8359,11 +7162,9 @@
       <c r="I73" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="J73" s="12" t="s">
-        <v>1397</v>
-      </c>
+      <c r="J73" s="12"/>
       <c r="K73" s="13" t="s">
-        <v>1688</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8394,11 +7195,9 @@
       <c r="I74" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>1398</v>
-      </c>
+      <c r="J74" s="12"/>
       <c r="K74" s="13" t="s">
-        <v>1683</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8429,11 +7228,9 @@
       <c r="I75" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="J75" s="12" t="s">
-        <v>1399</v>
-      </c>
+      <c r="J75" s="12"/>
       <c r="K75" s="13" t="s">
-        <v>1684</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8464,11 +7261,9 @@
       <c r="I76" s="7" t="s">
         <v>1053</v>
       </c>
-      <c r="J76" s="12" t="s">
-        <v>1400</v>
-      </c>
+      <c r="J76" s="12"/>
       <c r="K76" s="13" t="s">
-        <v>1685</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8499,11 +7294,9 @@
       <c r="I77" s="7" t="s">
         <v>1054</v>
       </c>
-      <c r="J77" s="12" t="s">
-        <v>1401</v>
-      </c>
+      <c r="J77" s="12"/>
       <c r="K77" s="13" t="s">
-        <v>1686</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8534,11 +7327,9 @@
       <c r="I78" s="7" t="s">
         <v>1055</v>
       </c>
-      <c r="J78" s="12" t="s">
-        <v>1402</v>
-      </c>
+      <c r="J78" s="12"/>
       <c r="K78" s="13" t="s">
-        <v>1687</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8569,11 +7360,9 @@
       <c r="I79" s="7" t="s">
         <v>1056</v>
       </c>
-      <c r="J79" s="12" t="s">
-        <v>1403</v>
-      </c>
+      <c r="J79" s="12"/>
       <c r="K79" s="13" t="s">
-        <v>1688</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8604,11 +7393,9 @@
       <c r="I80" s="7" t="s">
         <v>1057</v>
       </c>
-      <c r="J80" s="12" t="s">
-        <v>1404</v>
-      </c>
+      <c r="J80" s="12"/>
       <c r="K80" s="13" t="s">
-        <v>1683</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -8639,11 +7426,9 @@
       <c r="I81" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="J81" s="12" t="s">
-        <v>1405</v>
-      </c>
+      <c r="J81" s="12"/>
       <c r="K81" s="13" t="s">
-        <v>1684</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -8674,11 +7459,9 @@
       <c r="I82" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="J82" s="12" t="s">
-        <v>1406</v>
-      </c>
+      <c r="J82" s="12"/>
       <c r="K82" s="13" t="s">
-        <v>1685</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -8709,11 +7492,9 @@
       <c r="I83" s="7" t="s">
         <v>1060</v>
       </c>
-      <c r="J83" s="12" t="s">
-        <v>1407</v>
-      </c>
+      <c r="J83" s="12"/>
       <c r="K83" s="13" t="s">
-        <v>1686</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -8744,11 +7525,9 @@
       <c r="I84" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="J84" s="12" t="s">
-        <v>1408</v>
-      </c>
+      <c r="J84" s="12"/>
       <c r="K84" s="13" t="s">
-        <v>1687</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -8779,11 +7558,9 @@
       <c r="I85" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="J85" s="12" t="s">
-        <v>1409</v>
-      </c>
+      <c r="J85" s="12"/>
       <c r="K85" s="13" t="s">
-        <v>1688</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -8814,11 +7591,9 @@
       <c r="I86" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="J86" s="12" t="s">
-        <v>1410</v>
-      </c>
+      <c r="J86" s="12"/>
       <c r="K86" s="13" t="s">
-        <v>1683</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -8849,11 +7624,9 @@
       <c r="I87" s="7" t="s">
         <v>1064</v>
       </c>
-      <c r="J87" s="12" t="s">
-        <v>1411</v>
-      </c>
+      <c r="J87" s="12"/>
       <c r="K87" s="13" t="s">
-        <v>1684</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -8884,11 +7657,9 @@
       <c r="I88" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>1412</v>
-      </c>
+      <c r="J88" s="12"/>
       <c r="K88" s="13" t="s">
-        <v>1685</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -8919,11 +7690,9 @@
       <c r="I89" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="J89" s="12" t="s">
-        <v>1413</v>
-      </c>
+      <c r="J89" s="12"/>
       <c r="K89" s="13" t="s">
-        <v>1686</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -8954,11 +7723,9 @@
       <c r="I90" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="J90" s="12" t="s">
-        <v>1414</v>
-      </c>
+      <c r="J90" s="12"/>
       <c r="K90" s="13" t="s">
-        <v>1687</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -8989,11 +7756,9 @@
       <c r="I91" s="7" t="s">
         <v>1068</v>
       </c>
-      <c r="J91" s="12" t="s">
-        <v>1415</v>
-      </c>
+      <c r="J91" s="12"/>
       <c r="K91" s="13" t="s">
-        <v>1688</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9024,11 +7789,9 @@
       <c r="I92" s="7" t="s">
         <v>1069</v>
       </c>
-      <c r="J92" s="12" t="s">
-        <v>1416</v>
-      </c>
+      <c r="J92" s="12"/>
       <c r="K92" s="13" t="s">
-        <v>1683</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9059,11 +7822,9 @@
       <c r="I93" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="J93" s="12" t="s">
-        <v>1417</v>
-      </c>
+      <c r="J93" s="12"/>
       <c r="K93" s="13" t="s">
-        <v>1684</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9094,11 +7855,9 @@
       <c r="I94" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="J94" s="12" t="s">
-        <v>1418</v>
-      </c>
+      <c r="J94" s="12"/>
       <c r="K94" s="13" t="s">
-        <v>1685</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9129,11 +7888,9 @@
       <c r="I95" s="7" t="s">
         <v>1072</v>
       </c>
-      <c r="J95" s="12" t="s">
-        <v>1419</v>
-      </c>
+      <c r="J95" s="12"/>
       <c r="K95" s="13" t="s">
-        <v>1686</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9164,11 +7921,9 @@
       <c r="I96" s="7" t="s">
         <v>1073</v>
       </c>
-      <c r="J96" s="12" t="s">
-        <v>1420</v>
-      </c>
+      <c r="J96" s="12"/>
       <c r="K96" s="13" t="s">
-        <v>1687</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9199,11 +7954,9 @@
       <c r="I97" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="J97" s="12" t="s">
-        <v>1421</v>
-      </c>
+      <c r="J97" s="12"/>
       <c r="K97" s="13" t="s">
-        <v>1688</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9234,11 +7987,9 @@
       <c r="I98" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="J98" s="12" t="s">
-        <v>1422</v>
-      </c>
+      <c r="J98" s="12"/>
       <c r="K98" s="13" t="s">
-        <v>1683</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9269,11 +8020,9 @@
       <c r="I99" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="J99" s="12" t="s">
-        <v>1423</v>
-      </c>
+      <c r="J99" s="12"/>
       <c r="K99" s="13" t="s">
-        <v>1684</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9304,11 +8053,9 @@
       <c r="I100" s="7" t="s">
         <v>1077</v>
       </c>
-      <c r="J100" s="12" t="s">
-        <v>1424</v>
-      </c>
+      <c r="J100" s="12"/>
       <c r="K100" s="13" t="s">
-        <v>1685</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9339,11 +8086,9 @@
       <c r="I101" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="J101" s="12" t="s">
-        <v>1425</v>
-      </c>
+      <c r="J101" s="12"/>
       <c r="K101" s="13" t="s">
-        <v>1686</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -9374,11 +8119,9 @@
       <c r="I102" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="J102" s="12" t="s">
-        <v>1426</v>
-      </c>
+      <c r="J102" s="12"/>
       <c r="K102" s="13" t="s">
-        <v>1687</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -9409,11 +8152,9 @@
       <c r="I103" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="J103" s="12" t="s">
-        <v>1427</v>
-      </c>
+      <c r="J103" s="12"/>
       <c r="K103" s="13" t="s">
-        <v>1688</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -9444,11 +8185,9 @@
       <c r="I104" s="7" t="s">
         <v>1081</v>
       </c>
-      <c r="J104" s="12" t="s">
-        <v>1428</v>
-      </c>
+      <c r="J104" s="12"/>
       <c r="K104" s="13" t="s">
-        <v>1683</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -9479,11 +8218,9 @@
       <c r="I105" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="J105" s="12" t="s">
-        <v>1429</v>
-      </c>
+      <c r="J105" s="12"/>
       <c r="K105" s="13" t="s">
-        <v>1684</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -9514,11 +8251,9 @@
       <c r="I106" s="7" t="s">
         <v>1083</v>
       </c>
-      <c r="J106" s="12" t="s">
-        <v>1430</v>
-      </c>
+      <c r="J106" s="12"/>
       <c r="K106" s="13" t="s">
-        <v>1685</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -9549,11 +8284,9 @@
       <c r="I107" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="J107" s="12" t="s">
-        <v>1431</v>
-      </c>
+      <c r="J107" s="12"/>
       <c r="K107" s="13" t="s">
-        <v>1686</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -9584,11 +8317,9 @@
       <c r="I108" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="J108" s="12" t="s">
-        <v>1432</v>
-      </c>
+      <c r="J108" s="12"/>
       <c r="K108" s="13" t="s">
-        <v>1687</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -9619,11 +8350,9 @@
       <c r="I109" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="J109" s="12" t="s">
-        <v>1433</v>
-      </c>
+      <c r="J109" s="12"/>
       <c r="K109" s="13" t="s">
-        <v>1688</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -9654,11 +8383,9 @@
       <c r="I110" s="7" t="s">
         <v>1087</v>
       </c>
-      <c r="J110" s="12" t="s">
-        <v>1434</v>
-      </c>
+      <c r="J110" s="12"/>
       <c r="K110" s="13" t="s">
-        <v>1683</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -9689,11 +8416,9 @@
       <c r="I111" s="7" t="s">
         <v>1088</v>
       </c>
-      <c r="J111" s="12" t="s">
-        <v>1435</v>
-      </c>
+      <c r="J111" s="12"/>
       <c r="K111" s="13" t="s">
-        <v>1684</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9724,11 +8449,9 @@
       <c r="I112" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="J112" s="12" t="s">
-        <v>1436</v>
-      </c>
+      <c r="J112" s="12"/>
       <c r="K112" s="13" t="s">
-        <v>1685</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9759,11 +8482,9 @@
       <c r="I113" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="J113" s="12" t="s">
-        <v>1437</v>
-      </c>
+      <c r="J113" s="12"/>
       <c r="K113" s="13" t="s">
-        <v>1686</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9794,11 +8515,9 @@
       <c r="I114" s="7" t="s">
         <v>1091</v>
       </c>
-      <c r="J114" s="12" t="s">
-        <v>1438</v>
-      </c>
+      <c r="J114" s="12"/>
       <c r="K114" s="13" t="s">
-        <v>1687</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9829,11 +8548,9 @@
       <c r="I115" s="7" t="s">
         <v>1092</v>
       </c>
-      <c r="J115" s="12" t="s">
-        <v>1439</v>
-      </c>
+      <c r="J115" s="12"/>
       <c r="K115" s="13" t="s">
-        <v>1688</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9864,11 +8581,9 @@
       <c r="I116" s="7" t="s">
         <v>1093</v>
       </c>
-      <c r="J116" s="12" t="s">
-        <v>1440</v>
-      </c>
+      <c r="J116" s="12"/>
       <c r="K116" s="13" t="s">
-        <v>1683</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9899,11 +8614,9 @@
       <c r="I117" s="7" t="s">
         <v>1094</v>
       </c>
-      <c r="J117" s="12" t="s">
-        <v>1441</v>
-      </c>
+      <c r="J117" s="12"/>
       <c r="K117" s="13" t="s">
-        <v>1684</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9934,11 +8647,9 @@
       <c r="I118" s="7" t="s">
         <v>1095</v>
       </c>
-      <c r="J118" s="12" t="s">
-        <v>1442</v>
-      </c>
+      <c r="J118" s="12"/>
       <c r="K118" s="13" t="s">
-        <v>1685</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -9969,11 +8680,9 @@
       <c r="I119" s="7" t="s">
         <v>1096</v>
       </c>
-      <c r="J119" s="12" t="s">
-        <v>1443</v>
-      </c>
+      <c r="J119" s="12"/>
       <c r="K119" s="13" t="s">
-        <v>1686</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -10004,11 +8713,9 @@
       <c r="I120" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="J120" s="12" t="s">
-        <v>1444</v>
-      </c>
+      <c r="J120" s="12"/>
       <c r="K120" s="13" t="s">
-        <v>1687</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -10039,11 +8746,9 @@
       <c r="I121" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="J121" s="12" t="s">
-        <v>1445</v>
-      </c>
+      <c r="J121" s="12"/>
       <c r="K121" s="13" t="s">
-        <v>1688</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10074,11 +8779,9 @@
       <c r="I122" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="J122" s="12" t="s">
-        <v>1446</v>
-      </c>
+      <c r="J122" s="12"/>
       <c r="K122" s="13" t="s">
-        <v>1689</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10109,11 +8812,9 @@
       <c r="I123" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="J123" s="12" t="s">
-        <v>1447</v>
-      </c>
+      <c r="J123" s="12"/>
       <c r="K123" s="13" t="s">
-        <v>1690</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10144,11 +8845,9 @@
       <c r="I124" s="7" t="s">
         <v>1100</v>
       </c>
-      <c r="J124" s="12" t="s">
-        <v>1448</v>
-      </c>
+      <c r="J124" s="12"/>
       <c r="K124" s="13" t="s">
-        <v>1691</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10179,11 +8878,9 @@
       <c r="I125" s="7" t="s">
         <v>1101</v>
       </c>
-      <c r="J125" s="12" t="s">
-        <v>1449</v>
-      </c>
+      <c r="J125" s="12"/>
       <c r="K125" s="13" t="s">
-        <v>1692</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10214,11 +8911,9 @@
       <c r="I126" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="J126" s="12" t="s">
-        <v>1450</v>
-      </c>
+      <c r="J126" s="12"/>
       <c r="K126" s="13" t="s">
-        <v>1693</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10249,11 +8944,9 @@
       <c r="I127" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="J127" s="12" t="s">
-        <v>1451</v>
-      </c>
+      <c r="J127" s="12"/>
       <c r="K127" s="13" t="s">
-        <v>1694</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10284,11 +8977,9 @@
       <c r="I128" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="J128" s="12" t="s">
-        <v>1452</v>
-      </c>
+      <c r="J128" s="12"/>
       <c r="K128" s="13" t="s">
-        <v>1695</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10319,11 +9010,9 @@
       <c r="I129" s="7" t="s">
         <v>1105</v>
       </c>
-      <c r="J129" s="12" t="s">
-        <v>1453</v>
-      </c>
+      <c r="J129" s="12"/>
       <c r="K129" s="13" t="s">
-        <v>1696</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10354,11 +9043,9 @@
       <c r="I130" s="7" t="s">
         <v>1106</v>
       </c>
-      <c r="J130" s="12" t="s">
-        <v>1454</v>
-      </c>
+      <c r="J130" s="12"/>
       <c r="K130" s="13" t="s">
-        <v>1697</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10389,11 +9076,9 @@
       <c r="I131" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="J131" s="12" t="s">
-        <v>1455</v>
-      </c>
+      <c r="J131" s="12"/>
       <c r="K131" s="13" t="s">
-        <v>1698</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10424,11 +9109,9 @@
       <c r="I132" s="7" t="s">
         <v>1108</v>
       </c>
-      <c r="J132" s="12" t="s">
-        <v>1456</v>
-      </c>
+      <c r="J132" s="12"/>
       <c r="K132" s="13" t="s">
-        <v>1699</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10459,11 +9142,9 @@
       <c r="I133" s="7" t="s">
         <v>1109</v>
       </c>
-      <c r="J133" s="12" t="s">
-        <v>1457</v>
-      </c>
+      <c r="J133" s="12"/>
       <c r="K133" s="13" t="s">
-        <v>1700</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10494,11 +9175,9 @@
       <c r="I134" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="J134" s="12" t="s">
-        <v>1458</v>
-      </c>
+      <c r="J134" s="12"/>
       <c r="K134" s="13" t="s">
-        <v>1701</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10529,11 +9208,9 @@
       <c r="I135" s="7" t="s">
         <v>1111</v>
       </c>
-      <c r="J135" s="12" t="s">
-        <v>1459</v>
-      </c>
+      <c r="J135" s="12"/>
       <c r="K135" s="13" t="s">
-        <v>1702</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10564,11 +9241,9 @@
       <c r="I136" s="7" t="s">
         <v>1112</v>
       </c>
-      <c r="J136" s="12" t="s">
-        <v>1460</v>
-      </c>
+      <c r="J136" s="12"/>
       <c r="K136" s="13" t="s">
-        <v>1703</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10599,11 +9274,9 @@
       <c r="I137" s="7" t="s">
         <v>1113</v>
       </c>
-      <c r="J137" s="12" t="s">
-        <v>1461</v>
-      </c>
+      <c r="J137" s="12"/>
       <c r="K137" s="13" t="s">
-        <v>1704</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10634,11 +9307,9 @@
       <c r="I138" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="J138" s="12" t="s">
-        <v>1462</v>
-      </c>
+      <c r="J138" s="12"/>
       <c r="K138" s="13" t="s">
-        <v>1705</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10669,11 +9340,9 @@
       <c r="I139" s="7" t="s">
         <v>1115</v>
       </c>
-      <c r="J139" s="12" t="s">
-        <v>1463</v>
-      </c>
+      <c r="J139" s="12"/>
       <c r="K139" s="13" t="s">
-        <v>1706</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10704,11 +9373,9 @@
       <c r="I140" s="7" t="s">
         <v>1116</v>
       </c>
-      <c r="J140" s="12" t="s">
-        <v>1464</v>
-      </c>
+      <c r="J140" s="12"/>
       <c r="K140" s="13" t="s">
-        <v>1707</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -10739,11 +9406,9 @@
       <c r="I141" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="J141" s="12" t="s">
-        <v>1465</v>
-      </c>
+      <c r="J141" s="12"/>
       <c r="K141" s="13" t="s">
-        <v>1708</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -10774,11 +9439,9 @@
       <c r="I142" s="7" t="s">
         <v>1118</v>
       </c>
-      <c r="J142" s="12" t="s">
-        <v>1466</v>
-      </c>
+      <c r="J142" s="12"/>
       <c r="K142" s="13" t="s">
-        <v>1709</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -10809,11 +9472,9 @@
       <c r="I143" s="7" t="s">
         <v>1119</v>
       </c>
-      <c r="J143" s="12" t="s">
-        <v>1467</v>
-      </c>
+      <c r="J143" s="12"/>
       <c r="K143" s="13" t="s">
-        <v>1710</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -10844,11 +9505,9 @@
       <c r="I144" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>1468</v>
-      </c>
+      <c r="J144" s="12"/>
       <c r="K144" s="13" t="s">
-        <v>1711</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -10879,11 +9538,9 @@
       <c r="I145" s="7" t="s">
         <v>1121</v>
       </c>
-      <c r="J145" s="12" t="s">
-        <v>1469</v>
-      </c>
+      <c r="J145" s="12"/>
       <c r="K145" s="13" t="s">
-        <v>1712</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -10914,11 +9571,9 @@
       <c r="I146" s="7" t="s">
         <v>1122</v>
       </c>
-      <c r="J146" s="12" t="s">
-        <v>1470</v>
-      </c>
+      <c r="J146" s="12"/>
       <c r="K146" s="13" t="s">
-        <v>1713</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -10949,11 +9604,9 @@
       <c r="I147" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="J147" s="12" t="s">
-        <v>1471</v>
-      </c>
+      <c r="J147" s="12"/>
       <c r="K147" s="13" t="s">
-        <v>1714</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -10984,11 +9637,9 @@
       <c r="I148" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="J148" s="12" t="s">
-        <v>1472</v>
-      </c>
+      <c r="J148" s="12"/>
       <c r="K148" s="13" t="s">
-        <v>1715</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11019,11 +9670,9 @@
       <c r="I149" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="J149" s="12" t="s">
-        <v>1473</v>
-      </c>
+      <c r="J149" s="12"/>
       <c r="K149" s="13" t="s">
-        <v>1716</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11054,11 +9703,9 @@
       <c r="I150" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="J150" s="12" t="s">
-        <v>1474</v>
-      </c>
+      <c r="J150" s="12"/>
       <c r="K150" s="13" t="s">
-        <v>1771</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11089,11 +9736,9 @@
       <c r="I151" s="7" t="s">
         <v>1127</v>
       </c>
-      <c r="J151" s="12" t="s">
-        <v>1475</v>
-      </c>
+      <c r="J151" s="12"/>
       <c r="K151" s="13" t="s">
-        <v>1772</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11124,11 +9769,9 @@
       <c r="I152" s="7" t="s">
         <v>1128</v>
       </c>
-      <c r="J152" s="12" t="s">
-        <v>1476</v>
-      </c>
+      <c r="J152" s="12"/>
       <c r="K152" s="13" t="s">
-        <v>1773</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11159,11 +9802,9 @@
       <c r="I153" s="7" t="s">
         <v>1129</v>
       </c>
-      <c r="J153" s="12" t="s">
-        <v>1477</v>
-      </c>
+      <c r="J153" s="12"/>
       <c r="K153" s="13" t="s">
-        <v>1774</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11194,11 +9835,9 @@
       <c r="I154" s="7" t="s">
         <v>1130</v>
       </c>
-      <c r="J154" s="12" t="s">
-        <v>1478</v>
-      </c>
+      <c r="J154" s="12"/>
       <c r="K154" s="13" t="s">
-        <v>1775</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11229,11 +9868,9 @@
       <c r="I155" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="J155" s="12" t="s">
-        <v>1479</v>
-      </c>
+      <c r="J155" s="12"/>
       <c r="K155" s="13" t="s">
-        <v>1776</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11264,11 +9901,9 @@
       <c r="I156" s="7" t="s">
         <v>1132</v>
       </c>
-      <c r="J156" s="12" t="s">
-        <v>1480</v>
-      </c>
+      <c r="J156" s="12"/>
       <c r="K156" s="13" t="s">
-        <v>1777</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11299,11 +9934,9 @@
       <c r="I157" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="J157" s="12" t="s">
-        <v>1481</v>
-      </c>
+      <c r="J157" s="12"/>
       <c r="K157" s="13" t="s">
-        <v>1778</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11334,11 +9967,9 @@
       <c r="I158" s="7" t="s">
         <v>1134</v>
       </c>
-      <c r="J158" s="12" t="s">
-        <v>1482</v>
-      </c>
+      <c r="J158" s="12"/>
       <c r="K158" s="13" t="s">
-        <v>1779</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11369,11 +10000,9 @@
       <c r="I159" s="7" t="s">
         <v>1135</v>
       </c>
-      <c r="J159" s="12" t="s">
-        <v>1483</v>
-      </c>
+      <c r="J159" s="12"/>
       <c r="K159" s="13" t="s">
-        <v>1780</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11404,11 +10033,9 @@
       <c r="I160" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="J160" s="12" t="s">
-        <v>1484</v>
-      </c>
+      <c r="J160" s="12"/>
       <c r="K160" s="13" t="s">
-        <v>1781</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11439,11 +10066,9 @@
       <c r="I161" s="7" t="s">
         <v>1137</v>
       </c>
-      <c r="J161" s="12" t="s">
-        <v>1485</v>
-      </c>
+      <c r="J161" s="12"/>
       <c r="K161" s="13" t="s">
-        <v>1782</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -11474,11 +10099,9 @@
       <c r="I162" s="7" t="s">
         <v>1138</v>
       </c>
-      <c r="J162" s="12" t="s">
-        <v>1486</v>
-      </c>
+      <c r="J162" s="12"/>
       <c r="K162" s="13" t="s">
-        <v>1783</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -11509,11 +10132,9 @@
       <c r="I163" s="7" t="s">
         <v>1139</v>
       </c>
-      <c r="J163" s="12" t="s">
-        <v>1487</v>
-      </c>
+      <c r="J163" s="12"/>
       <c r="K163" s="13" t="s">
-        <v>1784</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -11544,11 +10165,9 @@
       <c r="I164" s="7" t="s">
         <v>1140</v>
       </c>
-      <c r="J164" s="12" t="s">
-        <v>1488</v>
-      </c>
+      <c r="J164" s="12"/>
       <c r="K164" s="13" t="s">
-        <v>1689</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -11579,11 +10198,9 @@
       <c r="I165" s="7" t="s">
         <v>1141</v>
       </c>
-      <c r="J165" s="12" t="s">
-        <v>1489</v>
-      </c>
+      <c r="J165" s="12"/>
       <c r="K165" s="13" t="s">
-        <v>1690</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -11614,11 +10231,9 @@
       <c r="I166" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="J166" s="12" t="s">
-        <v>1490</v>
-      </c>
+      <c r="J166" s="12"/>
       <c r="K166" s="13" t="s">
-        <v>1691</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -11649,11 +10264,9 @@
       <c r="I167" s="7" t="s">
         <v>1143</v>
       </c>
-      <c r="J167" s="12" t="s">
-        <v>1491</v>
-      </c>
+      <c r="J167" s="12"/>
       <c r="K167" s="13" t="s">
-        <v>1692</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -11684,11 +10297,9 @@
       <c r="I168" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>1492</v>
-      </c>
+      <c r="J168" s="12"/>
       <c r="K168" s="13" t="s">
-        <v>1693</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -11719,11 +10330,9 @@
       <c r="I169" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="J169" s="12" t="s">
-        <v>1493</v>
-      </c>
+      <c r="J169" s="12"/>
       <c r="K169" s="13" t="s">
-        <v>1694</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -11754,11 +10363,9 @@
       <c r="I170" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="J170" s="12" t="s">
-        <v>1494</v>
-      </c>
+      <c r="J170" s="12"/>
       <c r="K170" s="13" t="s">
-        <v>1695</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -11789,11 +10396,9 @@
       <c r="I171" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="J171" s="12" t="s">
-        <v>1495</v>
-      </c>
+      <c r="J171" s="12"/>
       <c r="K171" s="13" t="s">
-        <v>1696</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11824,11 +10429,9 @@
       <c r="I172" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="J172" s="12" t="s">
-        <v>1496</v>
-      </c>
+      <c r="J172" s="12"/>
       <c r="K172" s="13" t="s">
-        <v>1697</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11859,11 +10462,9 @@
       <c r="I173" s="7" t="s">
         <v>1149</v>
       </c>
-      <c r="J173" s="12" t="s">
-        <v>1497</v>
-      </c>
+      <c r="J173" s="12"/>
       <c r="K173" s="13" t="s">
-        <v>1698</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11894,11 +10495,9 @@
       <c r="I174" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="J174" s="12" t="s">
-        <v>1498</v>
-      </c>
+      <c r="J174" s="12"/>
       <c r="K174" s="13" t="s">
-        <v>1699</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11929,11 +10528,9 @@
       <c r="I175" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="J175" s="12" t="s">
-        <v>1499</v>
-      </c>
+      <c r="J175" s="12"/>
       <c r="K175" s="13" t="s">
-        <v>1700</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11964,11 +10561,9 @@
       <c r="I176" s="7" t="s">
         <v>1152</v>
       </c>
-      <c r="J176" s="12" t="s">
-        <v>1500</v>
-      </c>
+      <c r="J176" s="12"/>
       <c r="K176" s="13" t="s">
-        <v>1701</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -11999,11 +10594,9 @@
       <c r="I177" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="J177" s="12" t="s">
-        <v>1501</v>
-      </c>
+      <c r="J177" s="12"/>
       <c r="K177" s="13" t="s">
-        <v>1702</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -12034,11 +10627,9 @@
       <c r="I178" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="J178" s="12" t="s">
-        <v>1502</v>
-      </c>
+      <c r="J178" s="12"/>
       <c r="K178" s="13" t="s">
-        <v>1703</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -12069,11 +10660,9 @@
       <c r="I179" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="J179" s="12" t="s">
-        <v>1503</v>
-      </c>
+      <c r="J179" s="12"/>
       <c r="K179" s="13" t="s">
-        <v>1704</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -12104,11 +10693,9 @@
       <c r="I180" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="J180" s="12" t="s">
-        <v>1504</v>
-      </c>
+      <c r="J180" s="12"/>
       <c r="K180" s="13" t="s">
-        <v>1705</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -12139,11 +10726,9 @@
       <c r="I181" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="J181" s="12" t="s">
-        <v>1505</v>
-      </c>
+      <c r="J181" s="12"/>
       <c r="K181" s="13" t="s">
-        <v>1706</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12174,11 +10759,9 @@
       <c r="I182" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="J182" s="12" t="s">
-        <v>1506</v>
-      </c>
+      <c r="J182" s="12"/>
       <c r="K182" s="13" t="s">
-        <v>1717</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12209,11 +10792,9 @@
       <c r="I183" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="J183" s="12" t="s">
-        <v>1507</v>
-      </c>
+      <c r="J183" s="12"/>
       <c r="K183" s="13" t="s">
-        <v>1718</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12244,11 +10825,9 @@
       <c r="I184" s="7" t="s">
         <v>1159</v>
       </c>
-      <c r="J184" s="12" t="s">
-        <v>1508</v>
-      </c>
+      <c r="J184" s="12"/>
       <c r="K184" s="13" t="s">
-        <v>1719</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12279,11 +10858,9 @@
       <c r="I185" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="J185" s="12" t="s">
-        <v>1509</v>
-      </c>
+      <c r="J185" s="12"/>
       <c r="K185" s="13" t="s">
-        <v>1720</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12314,11 +10891,9 @@
       <c r="I186" s="7" t="s">
         <v>1161</v>
       </c>
-      <c r="J186" s="12" t="s">
-        <v>1510</v>
-      </c>
+      <c r="J186" s="12"/>
       <c r="K186" s="13" t="s">
-        <v>1721</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12349,11 +10924,9 @@
       <c r="I187" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="J187" s="12" t="s">
-        <v>1511</v>
-      </c>
+      <c r="J187" s="12"/>
       <c r="K187" s="13" t="s">
-        <v>1722</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12384,11 +10957,9 @@
       <c r="I188" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="J188" s="12" t="s">
-        <v>1512</v>
-      </c>
+      <c r="J188" s="12"/>
       <c r="K188" s="13" t="s">
-        <v>1723</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12419,11 +10990,9 @@
       <c r="I189" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="J189" s="12" t="s">
-        <v>1513</v>
-      </c>
+      <c r="J189" s="12"/>
       <c r="K189" s="13" t="s">
-        <v>1724</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12454,11 +11023,9 @@
       <c r="I190" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="J190" s="12" t="s">
-        <v>1514</v>
-      </c>
+      <c r="J190" s="12"/>
       <c r="K190" s="13" t="s">
-        <v>1725</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12489,11 +11056,9 @@
       <c r="I191" s="7" t="s">
         <v>1166</v>
       </c>
-      <c r="J191" s="12" t="s">
-        <v>1515</v>
-      </c>
+      <c r="J191" s="12"/>
       <c r="K191" s="13" t="s">
-        <v>1726</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12524,11 +11089,9 @@
       <c r="I192" s="7" t="s">
         <v>1167</v>
       </c>
-      <c r="J192" s="12" t="s">
-        <v>1516</v>
-      </c>
+      <c r="J192" s="12"/>
       <c r="K192" s="13" t="s">
-        <v>1727</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12559,11 +11122,9 @@
       <c r="I193" s="7" t="s">
         <v>1168</v>
       </c>
-      <c r="J193" s="12" t="s">
-        <v>1517</v>
-      </c>
+      <c r="J193" s="12"/>
       <c r="K193" s="13" t="s">
-        <v>1728</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12594,11 +11155,9 @@
       <c r="I194" s="7" t="s">
         <v>1169</v>
       </c>
-      <c r="J194" s="12" t="s">
-        <v>1518</v>
-      </c>
+      <c r="J194" s="12"/>
       <c r="K194" s="13" t="s">
-        <v>1729</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12629,11 +11188,9 @@
       <c r="I195" s="7" t="s">
         <v>1170</v>
       </c>
-      <c r="J195" s="12" t="s">
-        <v>1519</v>
-      </c>
+      <c r="J195" s="12"/>
       <c r="K195" s="13" t="s">
-        <v>1730</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12664,11 +11221,9 @@
       <c r="I196" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="J196" s="12" t="s">
-        <v>1520</v>
-      </c>
+      <c r="J196" s="12"/>
       <c r="K196" s="13" t="s">
-        <v>1731</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12699,11 +11254,9 @@
       <c r="I197" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="J197" s="12" t="s">
-        <v>1521</v>
-      </c>
+      <c r="J197" s="12"/>
       <c r="K197" s="13" t="s">
-        <v>1732</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12734,11 +11287,9 @@
       <c r="I198" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="J198" s="12" t="s">
-        <v>1522</v>
-      </c>
+      <c r="J198" s="12"/>
       <c r="K198" s="13" t="s">
-        <v>1733</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12769,11 +11320,9 @@
       <c r="I199" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="J199" s="12" t="s">
-        <v>1523</v>
-      </c>
+      <c r="J199" s="12"/>
       <c r="K199" s="13" t="s">
-        <v>1734</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12804,11 +11353,9 @@
       <c r="I200" s="7" t="s">
         <v>1175</v>
       </c>
-      <c r="J200" s="12" t="s">
-        <v>1524</v>
-      </c>
+      <c r="J200" s="12"/>
       <c r="K200" s="13" t="s">
-        <v>1735</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -12839,11 +11386,9 @@
       <c r="I201" s="7" t="s">
         <v>1176</v>
       </c>
-      <c r="J201" s="12" t="s">
-        <v>1525</v>
-      </c>
+      <c r="J201" s="12"/>
       <c r="K201" s="13" t="s">
-        <v>1736</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -12874,11 +11419,9 @@
       <c r="I202" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="J202" s="12" t="s">
-        <v>1526</v>
-      </c>
+      <c r="J202" s="12"/>
       <c r="K202" s="13" t="s">
-        <v>1737</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -12909,11 +11452,9 @@
       <c r="I203" s="7" t="s">
         <v>1178</v>
       </c>
-      <c r="J203" s="12" t="s">
-        <v>1527</v>
-      </c>
+      <c r="J203" s="12"/>
       <c r="K203" s="13" t="s">
-        <v>1738</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -12944,11 +11485,9 @@
       <c r="I204" s="7" t="s">
         <v>1179</v>
       </c>
-      <c r="J204" s="12" t="s">
-        <v>1528</v>
-      </c>
+      <c r="J204" s="12"/>
       <c r="K204" s="13" t="s">
-        <v>1739</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -12979,11 +11518,9 @@
       <c r="I205" s="7" t="s">
         <v>1180</v>
       </c>
-      <c r="J205" s="12" t="s">
-        <v>1529</v>
-      </c>
+      <c r="J205" s="12"/>
       <c r="K205" s="13" t="s">
-        <v>1740</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13014,11 +11551,9 @@
       <c r="I206" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="J206" s="12" t="s">
-        <v>1530</v>
-      </c>
+      <c r="J206" s="12"/>
       <c r="K206" s="13" t="s">
-        <v>1741</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13049,11 +11584,9 @@
       <c r="I207" s="7" t="s">
         <v>1182</v>
       </c>
-      <c r="J207" s="12" t="s">
-        <v>1531</v>
-      </c>
+      <c r="J207" s="12"/>
       <c r="K207" s="13" t="s">
-        <v>1742</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13084,11 +11617,9 @@
       <c r="I208" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="J208" s="12" t="s">
-        <v>1532</v>
-      </c>
+      <c r="J208" s="12"/>
       <c r="K208" s="13" t="s">
-        <v>1743</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13119,11 +11650,9 @@
       <c r="I209" s="7" t="s">
         <v>1184</v>
       </c>
-      <c r="J209" s="12" t="s">
-        <v>1533</v>
-      </c>
+      <c r="J209" s="12"/>
       <c r="K209" s="13" t="s">
-        <v>1744</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13154,11 +11683,9 @@
       <c r="I210" s="7" t="s">
         <v>1185</v>
       </c>
-      <c r="J210" s="12" t="s">
-        <v>1534</v>
-      </c>
+      <c r="J210" s="12"/>
       <c r="K210" s="13" t="s">
-        <v>1717</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13189,11 +11716,9 @@
       <c r="I211" s="7" t="s">
         <v>1186</v>
       </c>
-      <c r="J211" s="12" t="s">
-        <v>1535</v>
-      </c>
+      <c r="J211" s="12"/>
       <c r="K211" s="13" t="s">
-        <v>1718</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13224,11 +11749,9 @@
       <c r="I212" s="7" t="s">
         <v>1187</v>
       </c>
-      <c r="J212" s="12" t="s">
-        <v>1536</v>
-      </c>
+      <c r="J212" s="12"/>
       <c r="K212" s="13" t="s">
-        <v>1719</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13259,11 +11782,9 @@
       <c r="I213" s="7" t="s">
         <v>1188</v>
       </c>
-      <c r="J213" s="12" t="s">
-        <v>1537</v>
-      </c>
+      <c r="J213" s="12"/>
       <c r="K213" s="13" t="s">
-        <v>1720</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13294,11 +11815,9 @@
       <c r="I214" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="J214" s="12" t="s">
-        <v>1538</v>
-      </c>
+      <c r="J214" s="12"/>
       <c r="K214" s="13" t="s">
-        <v>1721</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13329,11 +11848,9 @@
       <c r="I215" s="7" t="s">
         <v>1190</v>
       </c>
-      <c r="J215" s="12" t="s">
-        <v>1539</v>
-      </c>
+      <c r="J215" s="12"/>
       <c r="K215" s="13" t="s">
-        <v>1722</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13364,11 +11881,9 @@
       <c r="I216" s="7" t="s">
         <v>1191</v>
       </c>
-      <c r="J216" s="12" t="s">
-        <v>1540</v>
-      </c>
+      <c r="J216" s="12"/>
       <c r="K216" s="13" t="s">
-        <v>1723</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13399,11 +11914,9 @@
       <c r="I217" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="J217" s="12" t="s">
-        <v>1541</v>
-      </c>
+      <c r="J217" s="12"/>
       <c r="K217" s="13" t="s">
-        <v>1724</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13434,11 +11947,9 @@
       <c r="I218" s="7" t="s">
         <v>1193</v>
       </c>
-      <c r="J218" s="12" t="s">
-        <v>1542</v>
-      </c>
+      <c r="J218" s="12"/>
       <c r="K218" s="13" t="s">
-        <v>1725</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13469,11 +11980,9 @@
       <c r="I219" s="7" t="s">
         <v>1194</v>
       </c>
-      <c r="J219" s="12" t="s">
-        <v>1543</v>
-      </c>
+      <c r="J219" s="12"/>
       <c r="K219" s="13" t="s">
-        <v>1726</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13504,11 +12013,9 @@
       <c r="I220" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="J220" s="12" t="s">
-        <v>1544</v>
-      </c>
+      <c r="J220" s="12"/>
       <c r="K220" s="13" t="s">
-        <v>1727</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13539,11 +12046,9 @@
       <c r="I221" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="J221" s="12" t="s">
-        <v>1545</v>
-      </c>
+      <c r="J221" s="12"/>
       <c r="K221" s="13" t="s">
-        <v>1728</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -13574,11 +12079,9 @@
       <c r="I222" s="7" t="s">
         <v>1197</v>
       </c>
-      <c r="J222" s="12" t="s">
-        <v>1546</v>
-      </c>
+      <c r="J222" s="12"/>
       <c r="K222" s="13" t="s">
-        <v>1729</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -13609,11 +12112,9 @@
       <c r="I223" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="J223" s="12" t="s">
-        <v>1547</v>
-      </c>
+      <c r="J223" s="12"/>
       <c r="K223" s="13" t="s">
-        <v>1730</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -13644,11 +12145,9 @@
       <c r="I224" s="7" t="s">
         <v>1199</v>
       </c>
-      <c r="J224" s="12" t="s">
-        <v>1548</v>
-      </c>
+      <c r="J224" s="12"/>
       <c r="K224" s="13" t="s">
-        <v>1731</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -13679,11 +12178,9 @@
       <c r="I225" s="7" t="s">
         <v>1200</v>
       </c>
-      <c r="J225" s="12" t="s">
-        <v>1549</v>
-      </c>
+      <c r="J225" s="12"/>
       <c r="K225" s="13" t="s">
-        <v>1732</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -13714,11 +12211,9 @@
       <c r="I226" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="J226" s="12" t="s">
-        <v>1550</v>
-      </c>
+      <c r="J226" s="12"/>
       <c r="K226" s="13" t="s">
-        <v>1733</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -13749,11 +12244,9 @@
       <c r="I227" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="J227" s="12" t="s">
-        <v>1551</v>
-      </c>
+      <c r="J227" s="12"/>
       <c r="K227" s="13" t="s">
-        <v>1734</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -13784,11 +12277,9 @@
       <c r="I228" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="J228" s="12" t="s">
-        <v>1552</v>
-      </c>
+      <c r="J228" s="12"/>
       <c r="K228" s="13" t="s">
-        <v>1735</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -13819,11 +12310,9 @@
       <c r="I229" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="J229" s="12" t="s">
-        <v>1553</v>
-      </c>
+      <c r="J229" s="12"/>
       <c r="K229" s="13" t="s">
-        <v>1736</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -13854,11 +12343,9 @@
       <c r="I230" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="J230" s="12" t="s">
-        <v>1554</v>
-      </c>
+      <c r="J230" s="12"/>
       <c r="K230" s="13" t="s">
-        <v>1737</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -13889,11 +12376,9 @@
       <c r="I231" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="J231" s="12" t="s">
-        <v>1555</v>
-      </c>
+      <c r="J231" s="12"/>
       <c r="K231" s="13" t="s">
-        <v>1738</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13924,11 +12409,9 @@
       <c r="I232" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="J232" s="12" t="s">
-        <v>1556</v>
-      </c>
+      <c r="J232" s="12"/>
       <c r="K232" s="13" t="s">
-        <v>1739</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13959,11 +12442,9 @@
       <c r="I233" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="J233" s="12" t="s">
-        <v>1557</v>
-      </c>
+      <c r="J233" s="12"/>
       <c r="K233" s="13" t="s">
-        <v>1740</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -13994,11 +12475,9 @@
       <c r="I234" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="J234" s="12" t="s">
-        <v>1558</v>
-      </c>
+      <c r="J234" s="12"/>
       <c r="K234" s="13" t="s">
-        <v>1741</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -14029,11 +12508,9 @@
       <c r="I235" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="J235" s="12" t="s">
-        <v>1559</v>
-      </c>
+      <c r="J235" s="12"/>
       <c r="K235" s="13" t="s">
-        <v>1742</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -14064,11 +12541,9 @@
       <c r="I236" s="7" t="s">
         <v>1211</v>
       </c>
-      <c r="J236" s="12" t="s">
-        <v>1560</v>
-      </c>
+      <c r="J236" s="12"/>
       <c r="K236" s="13" t="s">
-        <v>1743</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -14099,11 +12574,9 @@
       <c r="I237" s="7" t="s">
         <v>1212</v>
       </c>
-      <c r="J237" s="12" t="s">
-        <v>1561</v>
-      </c>
+      <c r="J237" s="12"/>
       <c r="K237" s="13" t="s">
-        <v>1744</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -14134,11 +12607,9 @@
       <c r="I238" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="J238" s="12" t="s">
-        <v>1562</v>
-      </c>
+      <c r="J238" s="12"/>
       <c r="K238" s="13" t="s">
-        <v>1717</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -14169,11 +12640,9 @@
       <c r="I239" s="7" t="s">
         <v>1214</v>
       </c>
-      <c r="J239" s="12" t="s">
-        <v>1563</v>
-      </c>
+      <c r="J239" s="12"/>
       <c r="K239" s="13" t="s">
-        <v>1718</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -14204,11 +12673,9 @@
       <c r="I240" s="7" t="s">
         <v>1215</v>
       </c>
-      <c r="J240" s="12" t="s">
-        <v>1564</v>
-      </c>
+      <c r="J240" s="12"/>
       <c r="K240" s="13" t="s">
-        <v>1719</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -14239,11 +12706,9 @@
       <c r="I241" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="J241" s="12" t="s">
-        <v>1565</v>
-      </c>
+      <c r="J241" s="12"/>
       <c r="K241" s="13" t="s">
-        <v>1720</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14274,11 +12739,9 @@
       <c r="I242" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="J242" s="12" t="s">
-        <v>1566</v>
-      </c>
+      <c r="J242" s="12"/>
       <c r="K242" s="13" t="s">
-        <v>1745</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14309,11 +12772,9 @@
       <c r="I243" s="7" t="s">
         <v>1217</v>
       </c>
-      <c r="J243" s="12" t="s">
-        <v>1567</v>
-      </c>
+      <c r="J243" s="12"/>
       <c r="K243" s="13" t="s">
-        <v>1746</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14344,11 +12805,9 @@
       <c r="I244" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="J244" s="12" t="s">
-        <v>1568</v>
-      </c>
+      <c r="J244" s="12"/>
       <c r="K244" s="13" t="s">
-        <v>1747</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14379,11 +12838,9 @@
       <c r="I245" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="J245" s="12" t="s">
-        <v>1569</v>
-      </c>
+      <c r="J245" s="12"/>
       <c r="K245" s="13" t="s">
-        <v>1748</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14414,11 +12871,9 @@
       <c r="I246" s="7" t="s">
         <v>1220</v>
       </c>
-      <c r="J246" s="12" t="s">
-        <v>1570</v>
-      </c>
+      <c r="J246" s="12"/>
       <c r="K246" s="13" t="s">
-        <v>1749</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14449,11 +12904,9 @@
       <c r="I247" s="7" t="s">
         <v>1221</v>
       </c>
-      <c r="J247" s="12" t="s">
-        <v>1571</v>
-      </c>
+      <c r="J247" s="12"/>
       <c r="K247" s="13" t="s">
-        <v>1750</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14484,11 +12937,9 @@
       <c r="I248" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="J248" s="12" t="s">
-        <v>1572</v>
-      </c>
+      <c r="J248" s="12"/>
       <c r="K248" s="13" t="s">
-        <v>1751</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14519,11 +12970,9 @@
       <c r="I249" s="7" t="s">
         <v>1223</v>
       </c>
-      <c r="J249" s="12" t="s">
-        <v>1573</v>
-      </c>
+      <c r="J249" s="12"/>
       <c r="K249" s="13" t="s">
-        <v>1752</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14554,11 +13003,9 @@
       <c r="I250" s="7" t="s">
         <v>1224</v>
       </c>
-      <c r="J250" s="12" t="s">
-        <v>1574</v>
-      </c>
+      <c r="J250" s="12"/>
       <c r="K250" s="13" t="s">
-        <v>1753</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14589,11 +13036,9 @@
       <c r="I251" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="J251" s="12" t="s">
-        <v>1575</v>
-      </c>
+      <c r="J251" s="12"/>
       <c r="K251" s="13" t="s">
-        <v>1754</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14624,11 +13069,9 @@
       <c r="I252" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="J252" s="12" t="s">
-        <v>1576</v>
-      </c>
+      <c r="J252" s="12"/>
       <c r="K252" s="13" t="s">
-        <v>1755</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14659,11 +13102,9 @@
       <c r="I253" s="7" t="s">
         <v>1227</v>
       </c>
-      <c r="J253" s="12" t="s">
-        <v>1577</v>
-      </c>
+      <c r="J253" s="12"/>
       <c r="K253" s="13" t="s">
-        <v>1756</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14694,11 +13135,9 @@
       <c r="I254" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="J254" s="12" t="s">
-        <v>1578</v>
-      </c>
+      <c r="J254" s="12"/>
       <c r="K254" s="13" t="s">
-        <v>1757</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14729,11 +13168,9 @@
       <c r="I255" s="7" t="s">
         <v>1229</v>
       </c>
-      <c r="J255" s="12" t="s">
-        <v>1579</v>
-      </c>
+      <c r="J255" s="12"/>
       <c r="K255" s="13" t="s">
-        <v>1745</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14764,11 +13201,9 @@
       <c r="I256" s="7" t="s">
         <v>1230</v>
       </c>
-      <c r="J256" s="12" t="s">
-        <v>1580</v>
-      </c>
+      <c r="J256" s="12"/>
       <c r="K256" s="13" t="s">
-        <v>1746</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14799,11 +13234,9 @@
       <c r="I257" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="J257" s="12" t="s">
-        <v>1581</v>
-      </c>
+      <c r="J257" s="12"/>
       <c r="K257" s="13" t="s">
-        <v>1747</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14834,11 +13267,9 @@
       <c r="I258" s="7" t="s">
         <v>1232</v>
       </c>
-      <c r="J258" s="12" t="s">
-        <v>1582</v>
-      </c>
+      <c r="J258" s="12"/>
       <c r="K258" s="13" t="s">
-        <v>1748</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14869,11 +13300,9 @@
       <c r="I259" s="7" t="s">
         <v>1233</v>
       </c>
-      <c r="J259" s="12" t="s">
-        <v>1583</v>
-      </c>
+      <c r="J259" s="12"/>
       <c r="K259" s="13" t="s">
-        <v>1749</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14904,11 +13333,9 @@
       <c r="I260" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="J260" s="12" t="s">
-        <v>1584</v>
-      </c>
+      <c r="J260" s="12"/>
       <c r="K260" s="13" t="s">
-        <v>1750</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -14939,11 +13366,9 @@
       <c r="I261" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="J261" s="12" t="s">
-        <v>1585</v>
-      </c>
+      <c r="J261" s="12"/>
       <c r="K261" s="13" t="s">
-        <v>1751</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -14974,11 +13399,9 @@
       <c r="I262" s="7" t="s">
         <v>1236</v>
       </c>
-      <c r="J262" s="12" t="s">
-        <v>1586</v>
-      </c>
+      <c r="J262" s="12"/>
       <c r="K262" s="13" t="s">
-        <v>1752</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="263" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15009,11 +13432,9 @@
       <c r="I263" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="J263" s="12" t="s">
-        <v>1587</v>
-      </c>
+      <c r="J263" s="12"/>
       <c r="K263" s="13" t="s">
-        <v>1753</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="264" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15044,11 +13465,9 @@
       <c r="I264" s="7" t="s">
         <v>1238</v>
       </c>
-      <c r="J264" s="12" t="s">
-        <v>1588</v>
-      </c>
+      <c r="J264" s="12"/>
       <c r="K264" s="13" t="s">
-        <v>1754</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="265" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15079,11 +13498,9 @@
       <c r="I265" s="7" t="s">
         <v>1239</v>
       </c>
-      <c r="J265" s="12" t="s">
-        <v>1589</v>
-      </c>
+      <c r="J265" s="12"/>
       <c r="K265" s="13" t="s">
-        <v>1755</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15114,11 +13531,9 @@
       <c r="I266" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="J266" s="12" t="s">
-        <v>1590</v>
-      </c>
+      <c r="J266" s="12"/>
       <c r="K266" s="13" t="s">
-        <v>1756</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="267" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15149,11 +13564,9 @@
       <c r="I267" s="7" t="s">
         <v>1241</v>
       </c>
-      <c r="J267" s="12" t="s">
-        <v>1591</v>
-      </c>
+      <c r="J267" s="12"/>
       <c r="K267" s="13" t="s">
-        <v>1757</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15184,11 +13597,9 @@
       <c r="I268" s="7" t="s">
         <v>1242</v>
       </c>
-      <c r="J268" s="12" t="s">
-        <v>1592</v>
-      </c>
+      <c r="J268" s="12"/>
       <c r="K268" s="13" t="s">
-        <v>1745</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="269" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15219,11 +13630,9 @@
       <c r="I269" s="7" t="s">
         <v>1243</v>
       </c>
-      <c r="J269" s="12" t="s">
-        <v>1593</v>
-      </c>
+      <c r="J269" s="12"/>
       <c r="K269" s="13" t="s">
-        <v>1746</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="270" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15254,11 +13663,9 @@
       <c r="I270" s="7" t="s">
         <v>1244</v>
       </c>
-      <c r="J270" s="12" t="s">
-        <v>1594</v>
-      </c>
+      <c r="J270" s="12"/>
       <c r="K270" s="13" t="s">
-        <v>1747</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="271" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15289,11 +13696,9 @@
       <c r="I271" s="7" t="s">
         <v>1245</v>
       </c>
-      <c r="J271" s="12" t="s">
-        <v>1595</v>
-      </c>
+      <c r="J271" s="12"/>
       <c r="K271" s="13" t="s">
-        <v>1748</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="272" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15324,11 +13729,9 @@
       <c r="I272" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="J272" s="12" t="s">
-        <v>1596</v>
-      </c>
+      <c r="J272" s="12"/>
       <c r="K272" s="13" t="s">
-        <v>1749</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="273" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15359,11 +13762,9 @@
       <c r="I273" s="7" t="s">
         <v>1247</v>
       </c>
-      <c r="J273" s="12" t="s">
-        <v>1597</v>
-      </c>
+      <c r="J273" s="12"/>
       <c r="K273" s="13" t="s">
-        <v>1750</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="274" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15394,11 +13795,9 @@
       <c r="I274" s="7" t="s">
         <v>1248</v>
       </c>
-      <c r="J274" s="12" t="s">
-        <v>1598</v>
-      </c>
+      <c r="J274" s="12"/>
       <c r="K274" s="13" t="s">
-        <v>1751</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="275" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15429,11 +13828,9 @@
       <c r="I275" s="7" t="s">
         <v>1249</v>
       </c>
-      <c r="J275" s="12" t="s">
-        <v>1599</v>
-      </c>
+      <c r="J275" s="12"/>
       <c r="K275" s="13" t="s">
-        <v>1752</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="276" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15464,11 +13861,9 @@
       <c r="I276" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="J276" s="12" t="s">
-        <v>1600</v>
-      </c>
+      <c r="J276" s="12"/>
       <c r="K276" s="13" t="s">
-        <v>1753</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="277" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15499,11 +13894,9 @@
       <c r="I277" s="7" t="s">
         <v>1251</v>
       </c>
-      <c r="J277" s="12" t="s">
-        <v>1601</v>
-      </c>
+      <c r="J277" s="12"/>
       <c r="K277" s="13" t="s">
-        <v>1754</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="278" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15534,11 +13927,9 @@
       <c r="I278" s="7" t="s">
         <v>1252</v>
       </c>
-      <c r="J278" s="12" t="s">
-        <v>1602</v>
-      </c>
+      <c r="J278" s="12"/>
       <c r="K278" s="13" t="s">
-        <v>1755</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="279" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15569,11 +13960,9 @@
       <c r="I279" s="7" t="s">
         <v>1253</v>
       </c>
-      <c r="J279" s="12" t="s">
-        <v>1603</v>
-      </c>
+      <c r="J279" s="12"/>
       <c r="K279" s="13" t="s">
-        <v>1756</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="280" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -15604,11 +13993,9 @@
       <c r="I280" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="J280" s="12" t="s">
-        <v>1604</v>
-      </c>
+      <c r="J280" s="12"/>
       <c r="K280" s="13" t="s">
-        <v>1757</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="281" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -15639,11 +14026,9 @@
       <c r="I281" s="7" t="s">
         <v>1255</v>
       </c>
-      <c r="J281" s="12" t="s">
-        <v>1605</v>
-      </c>
+      <c r="J281" s="12"/>
       <c r="K281" s="13" t="s">
-        <v>1745</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="282" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -15674,11 +14059,9 @@
       <c r="I282" s="7" t="s">
         <v>1256</v>
       </c>
-      <c r="J282" s="12" t="s">
-        <v>1606</v>
-      </c>
+      <c r="J282" s="12"/>
       <c r="K282" s="13" t="s">
-        <v>1746</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="283" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -15709,11 +14092,9 @@
       <c r="I283" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="J283" s="12" t="s">
-        <v>1607</v>
-      </c>
+      <c r="J283" s="12"/>
       <c r="K283" s="13" t="s">
-        <v>1747</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="284" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -15744,11 +14125,9 @@
       <c r="I284" s="7" t="s">
         <v>1258</v>
       </c>
-      <c r="J284" s="12" t="s">
-        <v>1608</v>
-      </c>
+      <c r="J284" s="12"/>
       <c r="K284" s="13" t="s">
-        <v>1748</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="285" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -15779,11 +14158,9 @@
       <c r="I285" s="7" t="s">
         <v>1259</v>
       </c>
-      <c r="J285" s="12" t="s">
-        <v>1609</v>
-      </c>
+      <c r="J285" s="12"/>
       <c r="K285" s="13" t="s">
-        <v>1749</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="286" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -15814,11 +14191,9 @@
       <c r="I286" s="7" t="s">
         <v>1260</v>
       </c>
-      <c r="J286" s="12" t="s">
-        <v>1610</v>
-      </c>
+      <c r="J286" s="12"/>
       <c r="K286" s="13" t="s">
-        <v>1750</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="287" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -15849,11 +14224,9 @@
       <c r="I287" s="7" t="s">
         <v>1261</v>
       </c>
-      <c r="J287" s="12" t="s">
-        <v>1611</v>
-      </c>
+      <c r="J287" s="12"/>
       <c r="K287" s="13" t="s">
-        <v>1751</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="288" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -15884,11 +14257,9 @@
       <c r="I288" s="7" t="s">
         <v>1262</v>
       </c>
-      <c r="J288" s="12" t="s">
-        <v>1612</v>
-      </c>
+      <c r="J288" s="12"/>
       <c r="K288" s="13" t="s">
-        <v>1752</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="289" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15919,11 +14290,9 @@
       <c r="I289" s="7" t="s">
         <v>1263</v>
       </c>
-      <c r="J289" s="12" t="s">
-        <v>1613</v>
-      </c>
+      <c r="J289" s="12"/>
       <c r="K289" s="13" t="s">
-        <v>1753</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="290" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15954,11 +14323,9 @@
       <c r="I290" s="7" t="s">
         <v>1264</v>
       </c>
-      <c r="J290" s="12" t="s">
-        <v>1614</v>
-      </c>
+      <c r="J290" s="12"/>
       <c r="K290" s="13" t="s">
-        <v>1754</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="291" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -15989,11 +14356,9 @@
       <c r="I291" s="7" t="s">
         <v>1265</v>
       </c>
-      <c r="J291" s="12" t="s">
-        <v>1615</v>
-      </c>
+      <c r="J291" s="12"/>
       <c r="K291" s="13" t="s">
-        <v>1755</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="292" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -16024,11 +14389,9 @@
       <c r="I292" s="7" t="s">
         <v>1266</v>
       </c>
-      <c r="J292" s="12" t="s">
-        <v>1616</v>
-      </c>
+      <c r="J292" s="12"/>
       <c r="K292" s="13" t="s">
-        <v>1756</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="293" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -16059,11 +14422,9 @@
       <c r="I293" s="7" t="s">
         <v>1267</v>
       </c>
-      <c r="J293" s="12" t="s">
-        <v>1617</v>
-      </c>
+      <c r="J293" s="12"/>
       <c r="K293" s="13" t="s">
-        <v>1757</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="294" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -16094,11 +14455,9 @@
       <c r="I294" s="7" t="s">
         <v>1268</v>
       </c>
-      <c r="J294" s="12" t="s">
-        <v>1618</v>
-      </c>
+      <c r="J294" s="12"/>
       <c r="K294" s="13" t="s">
-        <v>1745</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="295" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -16129,11 +14488,9 @@
       <c r="I295" s="7" t="s">
         <v>1269</v>
       </c>
-      <c r="J295" s="12" t="s">
-        <v>1619</v>
-      </c>
+      <c r="J295" s="12"/>
       <c r="K295" s="13" t="s">
-        <v>1746</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="296" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -16164,11 +14521,9 @@
       <c r="I296" s="7" t="s">
         <v>1270</v>
       </c>
-      <c r="J296" s="12" t="s">
-        <v>1620</v>
-      </c>
+      <c r="J296" s="12"/>
       <c r="K296" s="13" t="s">
-        <v>1747</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="297" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -16199,11 +14554,9 @@
       <c r="I297" s="7" t="s">
         <v>1271</v>
       </c>
-      <c r="J297" s="12" t="s">
-        <v>1621</v>
-      </c>
+      <c r="J297" s="12"/>
       <c r="K297" s="13" t="s">
-        <v>1748</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="298" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16234,11 +14587,9 @@
       <c r="I298" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="J298" s="12" t="s">
-        <v>1622</v>
-      </c>
+      <c r="J298" s="12"/>
       <c r="K298" s="13" t="s">
-        <v>1758</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="299" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16269,11 +14620,9 @@
       <c r="I299" s="7" t="s">
         <v>1272</v>
       </c>
-      <c r="J299" s="12" t="s">
-        <v>1623</v>
-      </c>
+      <c r="J299" s="12"/>
       <c r="K299" s="13" t="s">
-        <v>1759</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="300" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16304,11 +14653,9 @@
       <c r="I300" s="7" t="s">
         <v>1273</v>
       </c>
-      <c r="J300" s="12" t="s">
-        <v>1624</v>
-      </c>
+      <c r="J300" s="12"/>
       <c r="K300" s="13" t="s">
-        <v>1760</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="301" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16339,11 +14686,9 @@
       <c r="I301" s="7" t="s">
         <v>1274</v>
       </c>
-      <c r="J301" s="12" t="s">
-        <v>1625</v>
-      </c>
+      <c r="J301" s="12"/>
       <c r="K301" s="13" t="s">
-        <v>1761</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="302" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16374,11 +14719,9 @@
       <c r="I302" s="7" t="s">
         <v>1275</v>
       </c>
-      <c r="J302" s="12" t="s">
-        <v>1626</v>
-      </c>
+      <c r="J302" s="12"/>
       <c r="K302" s="13" t="s">
-        <v>1762</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="303" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16409,11 +14752,9 @@
       <c r="I303" s="7" t="s">
         <v>1276</v>
       </c>
-      <c r="J303" s="12" t="s">
-        <v>1627</v>
-      </c>
+      <c r="J303" s="12"/>
       <c r="K303" s="13" t="s">
-        <v>1763</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="304" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16444,11 +14785,9 @@
       <c r="I304" s="7" t="s">
         <v>1277</v>
       </c>
-      <c r="J304" s="12" t="s">
-        <v>1628</v>
-      </c>
+      <c r="J304" s="12"/>
       <c r="K304" s="13" t="s">
-        <v>1764</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="305" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16479,11 +14818,9 @@
       <c r="I305" s="7" t="s">
         <v>1278</v>
       </c>
-      <c r="J305" s="12" t="s">
-        <v>1629</v>
-      </c>
+      <c r="J305" s="12"/>
       <c r="K305" s="13" t="s">
-        <v>1765</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="306" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16514,11 +14851,9 @@
       <c r="I306" s="7" t="s">
         <v>1279</v>
       </c>
-      <c r="J306" s="12" t="s">
-        <v>1630</v>
-      </c>
+      <c r="J306" s="12"/>
       <c r="K306" s="13" t="s">
-        <v>1766</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="307" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16549,11 +14884,9 @@
       <c r="I307" s="7" t="s">
         <v>1280</v>
       </c>
-      <c r="J307" s="12" t="s">
-        <v>1631</v>
-      </c>
+      <c r="J307" s="12"/>
       <c r="K307" s="13" t="s">
-        <v>1767</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="308" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16584,11 +14917,9 @@
       <c r="I308" s="7" t="s">
         <v>1281</v>
       </c>
-      <c r="J308" s="12" t="s">
-        <v>1632</v>
-      </c>
+      <c r="J308" s="12"/>
       <c r="K308" s="13" t="s">
-        <v>1768</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="309" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16619,11 +14950,9 @@
       <c r="I309" s="7" t="s">
         <v>1282</v>
       </c>
-      <c r="J309" s="12" t="s">
-        <v>1633</v>
-      </c>
+      <c r="J309" s="12"/>
       <c r="K309" s="13" t="s">
-        <v>1769</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="310" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16654,11 +14983,9 @@
       <c r="I310" s="7" t="s">
         <v>1283</v>
       </c>
-      <c r="J310" s="12" t="s">
-        <v>1634</v>
-      </c>
+      <c r="J310" s="12"/>
       <c r="K310" s="13" t="s">
-        <v>1770</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="311" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16689,11 +15016,9 @@
       <c r="I311" s="7" t="s">
         <v>1284</v>
       </c>
-      <c r="J311" s="12" t="s">
-        <v>1635</v>
-      </c>
+      <c r="J311" s="12"/>
       <c r="K311" s="13" t="s">
-        <v>1758</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="312" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16724,11 +15049,9 @@
       <c r="I312" s="7" t="s">
         <v>1285</v>
       </c>
-      <c r="J312" s="12" t="s">
-        <v>1636</v>
-      </c>
+      <c r="J312" s="12"/>
       <c r="K312" s="13" t="s">
-        <v>1759</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="313" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16759,11 +15082,9 @@
       <c r="I313" s="7" t="s">
         <v>1286</v>
       </c>
-      <c r="J313" s="12" t="s">
-        <v>1637</v>
-      </c>
+      <c r="J313" s="12"/>
       <c r="K313" s="13" t="s">
-        <v>1760</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="314" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16794,11 +15115,9 @@
       <c r="I314" s="7" t="s">
         <v>1287</v>
       </c>
-      <c r="J314" s="12" t="s">
-        <v>1638</v>
-      </c>
+      <c r="J314" s="12"/>
       <c r="K314" s="13" t="s">
-        <v>1761</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="315" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -16829,11 +15148,9 @@
       <c r="I315" s="7" t="s">
         <v>1288</v>
       </c>
-      <c r="J315" s="12" t="s">
-        <v>1639</v>
-      </c>
+      <c r="J315" s="12"/>
       <c r="K315" s="13" t="s">
-        <v>1762</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="316" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -16864,11 +15181,9 @@
       <c r="I316" s="7" t="s">
         <v>1289</v>
       </c>
-      <c r="J316" s="12" t="s">
-        <v>1640</v>
-      </c>
+      <c r="J316" s="12"/>
       <c r="K316" s="13" t="s">
-        <v>1763</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="317" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -16899,11 +15214,9 @@
       <c r="I317" s="7" t="s">
         <v>1290</v>
       </c>
-      <c r="J317" s="12" t="s">
-        <v>1641</v>
-      </c>
+      <c r="J317" s="12"/>
       <c r="K317" s="13" t="s">
-        <v>1764</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="318" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -16934,11 +15247,9 @@
       <c r="I318" s="7" t="s">
         <v>1291</v>
       </c>
-      <c r="J318" s="12" t="s">
-        <v>1642</v>
-      </c>
+      <c r="J318" s="12"/>
       <c r="K318" s="13" t="s">
-        <v>1765</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="319" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -16969,11 +15280,9 @@
       <c r="I319" s="7" t="s">
         <v>1292</v>
       </c>
-      <c r="J319" s="12" t="s">
-        <v>1643</v>
-      </c>
+      <c r="J319" s="12"/>
       <c r="K319" s="13" t="s">
-        <v>1766</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="320" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17004,11 +15313,9 @@
       <c r="I320" s="7" t="s">
         <v>1293</v>
       </c>
-      <c r="J320" s="12" t="s">
-        <v>1644</v>
-      </c>
+      <c r="J320" s="12"/>
       <c r="K320" s="13" t="s">
-        <v>1767</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="321" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17039,11 +15346,9 @@
       <c r="I321" s="7" t="s">
         <v>1294</v>
       </c>
-      <c r="J321" s="12" t="s">
-        <v>1645</v>
-      </c>
+      <c r="J321" s="12"/>
       <c r="K321" s="13" t="s">
-        <v>1768</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="322" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17074,11 +15379,9 @@
       <c r="I322" s="7" t="s">
         <v>1295</v>
       </c>
-      <c r="J322" s="12" t="s">
-        <v>1646</v>
-      </c>
+      <c r="J322" s="12"/>
       <c r="K322" s="13" t="s">
-        <v>1769</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="323" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17109,11 +15412,9 @@
       <c r="I323" s="7" t="s">
         <v>1296</v>
       </c>
-      <c r="J323" s="12" t="s">
-        <v>1647</v>
-      </c>
+      <c r="J323" s="12"/>
       <c r="K323" s="13" t="s">
-        <v>1770</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="324" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17144,11 +15445,9 @@
       <c r="I324" s="7" t="s">
         <v>1297</v>
       </c>
-      <c r="J324" s="12" t="s">
-        <v>1648</v>
-      </c>
+      <c r="J324" s="12"/>
       <c r="K324" s="13" t="s">
-        <v>1758</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="325" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17179,11 +15478,9 @@
       <c r="I325" s="7" t="s">
         <v>1298</v>
       </c>
-      <c r="J325" s="12" t="s">
-        <v>1649</v>
-      </c>
+      <c r="J325" s="12"/>
       <c r="K325" s="13" t="s">
-        <v>1759</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="326" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17214,11 +15511,9 @@
       <c r="I326" s="7" t="s">
         <v>1299</v>
       </c>
-      <c r="J326" s="12" t="s">
-        <v>1650</v>
-      </c>
+      <c r="J326" s="12"/>
       <c r="K326" s="13" t="s">
-        <v>1760</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="327" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17249,11 +15544,9 @@
       <c r="I327" s="7" t="s">
         <v>1300</v>
       </c>
-      <c r="J327" s="12" t="s">
-        <v>1651</v>
-      </c>
+      <c r="J327" s="12"/>
       <c r="K327" s="13" t="s">
-        <v>1761</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="328" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17284,11 +15577,9 @@
       <c r="I328" s="7" t="s">
         <v>1301</v>
       </c>
-      <c r="J328" s="12" t="s">
-        <v>1652</v>
-      </c>
+      <c r="J328" s="12"/>
       <c r="K328" s="13" t="s">
-        <v>1762</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="329" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17319,11 +15610,9 @@
       <c r="I329" s="7" t="s">
         <v>1302</v>
       </c>
-      <c r="J329" s="12" t="s">
-        <v>1653</v>
-      </c>
+      <c r="J329" s="12"/>
       <c r="K329" s="13" t="s">
-        <v>1763</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="330" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17354,11 +15643,9 @@
       <c r="I330" s="7" t="s">
         <v>1303</v>
       </c>
-      <c r="J330" s="12" t="s">
-        <v>1654</v>
-      </c>
+      <c r="J330" s="12"/>
       <c r="K330" s="13" t="s">
-        <v>1764</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="331" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17389,11 +15676,9 @@
       <c r="I331" s="7" t="s">
         <v>1304</v>
       </c>
-      <c r="J331" s="12" t="s">
-        <v>1655</v>
-      </c>
+      <c r="J331" s="12"/>
       <c r="K331" s="13" t="s">
-        <v>1765</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="332" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17424,11 +15709,9 @@
       <c r="I332" s="7" t="s">
         <v>1305</v>
       </c>
-      <c r="J332" s="12" t="s">
-        <v>1656</v>
-      </c>
+      <c r="J332" s="12"/>
       <c r="K332" s="13" t="s">
-        <v>1766</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="333" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17459,11 +15742,9 @@
       <c r="I333" s="7" t="s">
         <v>1306</v>
       </c>
-      <c r="J333" s="12" t="s">
-        <v>1657</v>
-      </c>
+      <c r="J333" s="12"/>
       <c r="K333" s="13" t="s">
-        <v>1767</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="334" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -17494,11 +15775,9 @@
       <c r="I334" s="7" t="s">
         <v>1307</v>
       </c>
-      <c r="J334" s="12" t="s">
-        <v>1658</v>
-      </c>
+      <c r="J334" s="12"/>
       <c r="K334" s="13" t="s">
-        <v>1768</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="335" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -17529,11 +15808,9 @@
       <c r="I335" s="7" t="s">
         <v>1308</v>
       </c>
-      <c r="J335" s="12" t="s">
-        <v>1659</v>
-      </c>
+      <c r="J335" s="12"/>
       <c r="K335" s="13" t="s">
-        <v>1769</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="336" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -17564,11 +15841,9 @@
       <c r="I336" s="7" t="s">
         <v>1309</v>
       </c>
-      <c r="J336" s="12" t="s">
-        <v>1660</v>
-      </c>
+      <c r="J336" s="12"/>
       <c r="K336" s="13" t="s">
-        <v>1770</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="337" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -17599,11 +15874,9 @@
       <c r="I337" s="7" t="s">
         <v>1310</v>
       </c>
-      <c r="J337" s="12" t="s">
-        <v>1661</v>
-      </c>
+      <c r="J337" s="12"/>
       <c r="K337" s="13" t="s">
-        <v>1758</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="338" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -17634,11 +15907,9 @@
       <c r="I338" s="7" t="s">
         <v>1311</v>
       </c>
-      <c r="J338" s="12" t="s">
-        <v>1662</v>
-      </c>
+      <c r="J338" s="12"/>
       <c r="K338" s="13" t="s">
-        <v>1759</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="339" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -17669,11 +15940,9 @@
       <c r="I339" s="7" t="s">
         <v>1312</v>
       </c>
-      <c r="J339" s="12" t="s">
-        <v>1663</v>
-      </c>
+      <c r="J339" s="12"/>
       <c r="K339" s="13" t="s">
-        <v>1760</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="340" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -17704,11 +15973,9 @@
       <c r="I340" s="7" t="s">
         <v>1313</v>
       </c>
-      <c r="J340" s="12" t="s">
-        <v>1664</v>
-      </c>
+      <c r="J340" s="12"/>
       <c r="K340" s="13" t="s">
-        <v>1761</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="341" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -17739,11 +16006,9 @@
       <c r="I341" s="7" t="s">
         <v>1314</v>
       </c>
-      <c r="J341" s="12" t="s">
-        <v>1665</v>
-      </c>
+      <c r="J341" s="12"/>
       <c r="K341" s="13" t="s">
-        <v>1762</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="342" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -17774,11 +16039,9 @@
       <c r="I342" s="7" t="s">
         <v>1315</v>
       </c>
-      <c r="J342" s="12" t="s">
-        <v>1666</v>
-      </c>
+      <c r="J342" s="12"/>
       <c r="K342" s="13" t="s">
-        <v>1763</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="343" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17809,11 +16072,9 @@
       <c r="I343" s="7" t="s">
         <v>1316</v>
       </c>
-      <c r="J343" s="12" t="s">
-        <v>1667</v>
-      </c>
+      <c r="J343" s="12"/>
       <c r="K343" s="13" t="s">
-        <v>1764</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="344" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17844,11 +16105,9 @@
       <c r="I344" s="7" t="s">
         <v>1317</v>
       </c>
-      <c r="J344" s="12" t="s">
-        <v>1668</v>
-      </c>
+      <c r="J344" s="12"/>
       <c r="K344" s="13" t="s">
-        <v>1765</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="345" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17879,11 +16138,9 @@
       <c r="I345" s="7" t="s">
         <v>1318</v>
       </c>
-      <c r="J345" s="12" t="s">
-        <v>1669</v>
-      </c>
+      <c r="J345" s="12"/>
       <c r="K345" s="13" t="s">
-        <v>1766</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="346" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17914,11 +16171,9 @@
       <c r="I346" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="J346" s="12" t="s">
-        <v>1670</v>
-      </c>
+      <c r="J346" s="12"/>
       <c r="K346" s="13" t="s">
-        <v>1767</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="347" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17949,11 +16204,9 @@
       <c r="I347" s="7" t="s">
         <v>1320</v>
       </c>
-      <c r="J347" s="12" t="s">
-        <v>1671</v>
-      </c>
+      <c r="J347" s="12"/>
       <c r="K347" s="13" t="s">
-        <v>1768</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="348" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -17984,11 +16237,9 @@
       <c r="I348" s="7" t="s">
         <v>1321</v>
       </c>
-      <c r="J348" s="12" t="s">
-        <v>1672</v>
-      </c>
+      <c r="J348" s="12"/>
       <c r="K348" s="13" t="s">
-        <v>1769</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="349" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -18019,11 +16270,9 @@
       <c r="I349" s="7" t="s">
         <v>1322</v>
       </c>
-      <c r="J349" s="12" t="s">
-        <v>1673</v>
-      </c>
+      <c r="J349" s="12"/>
       <c r="K349" s="13" t="s">
-        <v>1770</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="350" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -18054,11 +16303,9 @@
       <c r="I350" s="7" t="s">
         <v>1323</v>
       </c>
-      <c r="J350" s="12" t="s">
-        <v>1674</v>
-      </c>
+      <c r="J350" s="12"/>
       <c r="K350" s="13" t="s">
-        <v>1758</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="351" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
@@ -18089,11 +16336,9 @@
       <c r="I351" s="7" t="s">
         <v>1324</v>
       </c>
-      <c r="J351" s="12" t="s">
-        <v>1675</v>
-      </c>
+      <c r="J351" s="12"/>
       <c r="K351" s="13" t="s">
-        <v>1759</v>
+        <v>1408</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/AIMs_LO.xlsx
+++ b/data/raw/AIMs_LO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\THI\PAPER\project\aim2lang-benchmark\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FC1B34-001A-45CE-A802-F8878BAADCB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC3A0D-B3C6-421F-85C6-6DEF4A348E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4725,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="I60" workbookViewId="0">
+      <selection activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/raw/AIMs_LO.xlsx
+++ b/data/raw/AIMs_LO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\THI\PAPER\project\aim2lang-benchmark\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BC3A0D-B3C6-421F-85C6-6DEF4A348E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64355FA9-0F49-4DC7-9E27-207DA315F733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4725,8 +4725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I60" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="D354" sqref="D354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
